--- a/Documentation/Personnelle/Monteiro Rui - Journaux - ProjetWeb.xlsx
+++ b/Documentation/Personnelle/Monteiro Rui - Journaux - ProjetWeb.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="131">
   <si>
     <t>JOURNAL DE TRAVAIL</t>
   </si>
@@ -696,6 +696,77 @@
   <si>
     <t>Temps DataBase</t>
   </si>
+  <si>
+    <t>Continuation de la réparation des bug dans le register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Le formulaire ne s'incrit pas dans la base de données
+2. L'erreur c'était au momento ou la requete pour l'insertion dans la base données essayait de mettre le número de téléphone parceque il était trop long </t>
+  </si>
+  <si>
+    <t>Crorrection du script SQL</t>
+  </si>
+  <si>
+    <t>1. Changement du nombre  de caracteres que la base de données peut avoir pour le mot de passe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalization de la fonction de register </t>
+  </si>
+  <si>
+    <t>1. Bugs pour l'enregistrement d'utlisateur corrigés</t>
+  </si>
+  <si>
+    <t>Correction d'erreurs dans la connexion</t>
+  </si>
+  <si>
+    <t>1. En classe on a fait les fonctions pour la connexion, pourtant cela ne marchait pas, donc j'ai repris chez moi depuis le debut et ça marche</t>
+  </si>
+  <si>
+    <t>Amélioration du README sur GITHUB</t>
+  </si>
+  <si>
+    <t>1. Fait une mini documentation sur GitHub avec les informations principales</t>
+  </si>
+  <si>
+    <t>Création de fonction</t>
+  </si>
+  <si>
+    <t>1. Création des fonctions pour l'affichage d'articles et modifications</t>
+  </si>
+  <si>
+    <t>Création de formulaire</t>
+  </si>
+  <si>
+    <t>1. Création du formulaire pour l'insertion d'articles (HTML &amp; CSS)</t>
+  </si>
+  <si>
+    <t>Tentative de correction de l'affichage des annoces</t>
+  </si>
+  <si>
+    <t>1. Quelques bug pour l'affichage sont survenus tel que
+- Les annonces ne sont pas en ligne
+- Des qu'on se connect avec utilisateur, ça met une erreure
+- L'affichage est pas très bien fait (HTML &amp; CSS)</t>
+  </si>
+  <si>
+    <t>02/26/2022</t>
+  </si>
+  <si>
+    <t>Continuation pour la tentative de correction des annonces</t>
+  </si>
+  <si>
+    <t>Fonction pour la création d'annonces</t>
+  </si>
+  <si>
+    <t>1. Pour ne pas prendre trop de retard, je suis passé à la création d'annonces et étudié coment faire les fonctions pour l'image
+1.1 En fin de cours on a pensé de ne pas mettre l'image dans la base de données mais ou dans un fichier local ou será le code parce que on prdais trop de temps</t>
+  </si>
+  <si>
+    <t>Organisation de la documentation</t>
+  </si>
+  <si>
+    <t>1. Mise à jour du journal de travail</t>
+  </si>
 </sst>
 </file>
 
@@ -704,7 +775,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
-    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -1129,48 +1200,25 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1196,14 +1244,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1222,17 +1262,48 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1473,8 +1544,8 @@
   </sheetPr>
   <dimension ref="A1:O396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="N62" sqref="N62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1489,7 +1560,7 @@
     <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="75.85546875" customWidth="1"/>
     <col min="15" max="15" width="0.85546875" customWidth="1"/>
-    <col min="16" max="16384" width="12.5703125" style="50"/>
+    <col min="16" max="16384" width="12.5703125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="6" customHeight="1" thickBot="1">
@@ -1511,113 +1582,113 @@
     </row>
     <row r="2" spans="1:15" ht="27" customHeight="1" thickTop="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="44"/>
+      <c r="F2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="31"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="27" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="47"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="34"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="19.5" customHeight="1" thickTop="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="35" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="43" t="s">
         <v>9</v>
       </c>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" ht="78" thickTop="1" thickBot="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="62">
+      <c r="B6" s="27">
         <f>SUM(I6:I30)</f>
         <v>1.2409722222222226</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="28">
         <f>SUM(I33:I396)</f>
-        <v>0.86111111111111094</v>
-      </c>
-      <c r="D6" s="63">
+        <v>1.4861111111111103</v>
+      </c>
+      <c r="D6" s="28">
         <f>B6+C6</f>
-        <v>2.1020833333333337</v>
+        <v>2.7270833333333329</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2">
@@ -1652,9 +1723,9 @@
     </row>
     <row r="7" spans="1:15" ht="39.75" thickTop="1" thickBot="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2">
         <v>44595</v>
@@ -1688,9 +1759,9 @@
     </row>
     <row r="8" spans="1:15" ht="39" thickBot="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="1"/>
       <c r="F8" s="2">
         <v>44595</v>
@@ -1724,9 +1795,9 @@
     </row>
     <row r="9" spans="1:15" ht="25.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="1"/>
       <c r="F9" s="2">
         <v>44599</v>
@@ -1760,9 +1831,9 @@
     </row>
     <row r="10" spans="1:15" ht="12.75">
       <c r="A10" s="1"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="1"/>
       <c r="F10" s="2">
         <v>44600</v>
@@ -1796,9 +1867,9 @@
     </row>
     <row r="11" spans="1:15" ht="12.75">
       <c r="A11" s="9"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="9"/>
       <c r="F11" s="2">
         <v>44602</v>
@@ -1832,9 +1903,9 @@
     </row>
     <row r="12" spans="1:15" ht="25.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="1"/>
       <c r="F12" s="2">
         <v>44606</v>
@@ -1868,9 +1939,9 @@
     </row>
     <row r="13" spans="1:15" ht="12.75">
       <c r="A13" s="1"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="1"/>
       <c r="F13" s="2">
         <v>44606</v>
@@ -1904,9 +1975,9 @@
     </row>
     <row r="14" spans="1:15" ht="25.5">
       <c r="A14" s="1"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="1"/>
       <c r="F14" s="2">
         <v>44606</v>
@@ -1940,9 +2011,9 @@
     </row>
     <row r="15" spans="1:15" ht="51">
       <c r="A15" s="1"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="1"/>
       <c r="F15" s="2">
         <v>44607</v>
@@ -1976,9 +2047,9 @@
     </row>
     <row r="16" spans="1:15" ht="25.5">
       <c r="A16" s="1"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="1"/>
       <c r="F16" s="2">
         <v>44609</v>
@@ -2012,9 +2083,9 @@
     </row>
     <row r="17" spans="1:15" ht="12.75">
       <c r="A17" s="1"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="1"/>
       <c r="F17" s="2">
         <v>44609</v>
@@ -2048,9 +2119,9 @@
     </row>
     <row r="18" spans="1:15" ht="25.5">
       <c r="A18" s="1"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="1"/>
       <c r="F18" s="2">
         <v>44609</v>
@@ -2084,9 +2155,9 @@
     </row>
     <row r="19" spans="1:15" ht="12.75">
       <c r="A19" s="1"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="1"/>
       <c r="F19" s="2">
         <v>44630</v>
@@ -2118,9 +2189,9 @@
     </row>
     <row r="20" spans="1:15" ht="12.75">
       <c r="A20" s="1"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="1"/>
       <c r="F20" s="10">
         <v>44634</v>
@@ -2145,9 +2216,9 @@
     </row>
     <row r="21" spans="1:15" ht="12.75">
       <c r="A21" s="1"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="1"/>
       <c r="F21" s="2">
         <v>44635</v>
@@ -2179,9 +2250,9 @@
     </row>
     <row r="22" spans="1:15" ht="12.75">
       <c r="A22" s="1"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="1"/>
       <c r="F22" s="2">
         <v>44637</v>
@@ -2213,9 +2284,9 @@
     </row>
     <row r="23" spans="1:15" ht="12.75">
       <c r="A23" s="1"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="1"/>
       <c r="F23" s="2">
         <v>44641</v>
@@ -2247,9 +2318,9 @@
     </row>
     <row r="24" spans="1:15" ht="12.75">
       <c r="A24" s="1"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="1"/>
       <c r="F24" s="2">
         <v>44641</v>
@@ -2281,9 +2352,9 @@
     </row>
     <row r="25" spans="1:15" ht="38.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="1"/>
       <c r="F25" s="2">
         <v>44644</v>
@@ -2315,9 +2386,9 @@
     </row>
     <row r="26" spans="1:15" ht="25.5">
       <c r="A26" s="1"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="1"/>
       <c r="F26" s="2">
         <v>44644</v>
@@ -2349,9 +2420,9 @@
     </row>
     <row r="27" spans="1:15" ht="25.5">
       <c r="A27" s="1"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="1"/>
       <c r="F27" s="2">
         <v>44644</v>
@@ -2383,9 +2454,9 @@
     </row>
     <row r="28" spans="1:15" ht="12.75">
       <c r="A28" s="1"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="1"/>
       <c r="F28" s="2">
         <v>44648</v>
@@ -2417,9 +2488,9 @@
     </row>
     <row r="29" spans="1:15" ht="25.5">
       <c r="A29" s="1"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="1"/>
       <c r="F29" s="2">
         <v>44649</v>
@@ -2451,9 +2522,9 @@
     </row>
     <row r="30" spans="1:15" ht="77.25" thickBot="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="1"/>
       <c r="F30" s="2">
         <v>44651</v>
@@ -2485,45 +2556,45 @@
     </row>
     <row r="31" spans="1:15" ht="15" customHeight="1" thickTop="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="54" t="s">
+      <c r="F31" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="56"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="39"/>
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" ht="13.5" thickBot="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="59"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="42"/>
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:15" ht="27" thickTop="1" thickBot="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="1"/>
       <c r="F33" s="2">
         <v>44663</v>
@@ -2542,22 +2613,22 @@
       <c r="K33" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L33" s="52" t="s">
+      <c r="L33" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="M33" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="N33" s="53" t="s">
+      <c r="M33" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="N33" s="24" t="s">
         <v>79</v>
       </c>
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:15" ht="26.25" thickBot="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="1"/>
       <c r="F34" s="2">
         <v>44663</v>
@@ -2576,22 +2647,22 @@
       <c r="K34" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="L34" s="52" t="s">
+      <c r="L34" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="M34" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="N34" s="53" t="s">
+      <c r="M34" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="N34" s="24" t="s">
         <v>81</v>
       </c>
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" ht="26.25" thickBot="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="1"/>
       <c r="F35" s="2">
         <v>44665</v>
@@ -2610,22 +2681,22 @@
       <c r="K35" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="L35" s="52" t="s">
+      <c r="L35" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="M35" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="N35" s="53" t="s">
+      <c r="M35" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="N35" s="24" t="s">
         <v>83</v>
       </c>
       <c r="O35" s="1"/>
     </row>
     <row r="36" spans="1:15" ht="51.75" thickBot="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="1"/>
       <c r="F36" s="2">
         <v>44670</v>
@@ -2644,22 +2715,22 @@
       <c r="K36" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="L36" s="52" t="s">
+      <c r="L36" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="M36" s="52" t="s">
+      <c r="M36" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="N36" s="53" t="s">
+      <c r="N36" s="24" t="s">
         <v>87</v>
       </c>
       <c r="O36" s="1"/>
     </row>
     <row r="37" spans="1:15" ht="26.25" thickBot="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="1"/>
       <c r="F37" s="2">
         <v>44674</v>
@@ -2678,22 +2749,22 @@
       <c r="K37" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="L37" s="52" t="s">
+      <c r="L37" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="M37" s="52" t="s">
+      <c r="M37" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="N37" s="53" t="s">
+      <c r="N37" s="24" t="s">
         <v>90</v>
       </c>
       <c r="O37" s="1"/>
     </row>
     <row r="38" spans="1:15" ht="13.5" thickBot="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
       <c r="E38" s="1"/>
       <c r="F38" s="2">
         <v>44676</v>
@@ -2712,22 +2783,22 @@
       <c r="K38" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="L38" s="52" t="s">
+      <c r="L38" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="M38" s="52" t="s">
+      <c r="M38" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="N38" s="53" t="s">
+      <c r="N38" s="24" t="s">
         <v>85</v>
       </c>
       <c r="O38" s="1"/>
     </row>
     <row r="39" spans="1:15" ht="13.5" thickBot="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
       <c r="E39" s="1"/>
       <c r="F39" s="2">
         <v>44679</v>
@@ -2746,22 +2817,22 @@
       <c r="K39" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="L39" s="52" t="s">
+      <c r="L39" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="M39" s="52" t="s">
+      <c r="M39" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="N39" s="53" t="s">
+      <c r="N39" s="24" t="s">
         <v>91</v>
       </c>
       <c r="O39" s="1"/>
     </row>
     <row r="40" spans="1:15" ht="13.5" thickBot="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
       <c r="E40" s="1"/>
       <c r="F40" s="2">
         <v>44679</v>
@@ -2780,22 +2851,22 @@
       <c r="K40" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="L40" s="52" t="s">
+      <c r="L40" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M40" s="52" t="s">
+      <c r="M40" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="N40" s="53" t="s">
+      <c r="N40" s="24" t="s">
         <v>92</v>
       </c>
       <c r="O40" s="1"/>
     </row>
     <row r="41" spans="1:15" ht="13.5" thickBot="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
       <c r="E41" s="1"/>
       <c r="F41" s="2">
         <v>44684</v>
@@ -2814,22 +2885,22 @@
       <c r="K41" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="L41" s="52" t="s">
+      <c r="L41" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="M41" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="N41" s="53" t="s">
+      <c r="M41" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="N41" s="24" t="s">
         <v>102</v>
       </c>
       <c r="O41" s="1"/>
     </row>
     <row r="42" spans="1:15" ht="13.5" thickBot="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
       <c r="E42" s="1"/>
       <c r="F42" s="2">
         <v>44686</v>
@@ -2848,22 +2919,22 @@
       <c r="K42" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L42" s="52" t="s">
+      <c r="L42" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="M42" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="N42" s="53" t="s">
+      <c r="M42" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="N42" s="24" t="s">
         <v>100</v>
       </c>
       <c r="O42" s="1"/>
     </row>
     <row r="43" spans="1:15" ht="13.5" thickBot="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
       <c r="E43" s="1"/>
       <c r="F43" s="2">
         <v>44686</v>
@@ -2885,7 +2956,7 @@
       <c r="L43" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M43" s="52" t="s">
+      <c r="M43" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N43" s="8" t="s">
@@ -2895,9 +2966,9 @@
     </row>
     <row r="44" spans="1:15" ht="13.5" thickBot="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
       <c r="E44" s="1"/>
       <c r="F44" s="2">
         <v>44686</v>
@@ -2919,7 +2990,7 @@
       <c r="L44" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="M44" s="52" t="s">
+      <c r="M44" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N44" s="8" t="s">
@@ -2929,9 +3000,9 @@
     </row>
     <row r="45" spans="1:15" ht="13.5" thickBot="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
       <c r="E45" s="1"/>
       <c r="F45" s="2">
         <v>44687</v>
@@ -2950,22 +3021,22 @@
       <c r="K45" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="L45" s="52" t="s">
+      <c r="L45" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="M45" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="N45" s="53" t="s">
+      <c r="M45" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="N45" s="24" t="s">
         <v>94</v>
       </c>
       <c r="O45" s="1"/>
     </row>
     <row r="46" spans="1:15" ht="77.25" thickBot="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
       <c r="E46" s="1"/>
       <c r="F46" s="2">
         <v>44691</v>
@@ -2984,10 +3055,10 @@
       <c r="K46" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="L46" s="52" t="s">
+      <c r="L46" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="M46" s="52" t="s">
+      <c r="M46" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N46" s="8" t="s">
@@ -2995,297 +3066,383 @@
       </c>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" ht="13.5" thickBot="1">
+    <row r="47" spans="1:15" ht="39" thickBot="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="2"/>
+      <c r="F47" s="2">
+        <v>44693</v>
+      </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="H47" s="3">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I47" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="N47" s="8"/>
+      <c r="K47" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="M47" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" ht="13.5" thickBot="1">
+    <row r="48" spans="1:15" ht="26.25" thickBot="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="2"/>
+      <c r="F48" s="2">
+        <v>44694</v>
+      </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>0.5625</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="I48" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="N48" s="8"/>
+      <c r="K48" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="M48" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="O48" s="1"/>
     </row>
     <row r="49" spans="1:15" ht="13.5" thickBot="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="2"/>
+      <c r="F49" s="2">
+        <v>44694</v>
+      </c>
       <c r="G49" s="3">
-        <v>0</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="H49" s="3">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="I49" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="N49" s="8"/>
+      <c r="K49" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="M49" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" ht="13.5" thickBot="1">
+    <row r="50" spans="1:15" ht="26.25" thickBot="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2">
+        <v>44695</v>
+      </c>
       <c r="G50" s="3">
-        <v>0</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="H50" s="3">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I50" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="N50" s="8"/>
+      <c r="K50" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="M50" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="O50" s="1"/>
     </row>
     <row r="51" spans="1:15" ht="13.5" thickBot="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="2"/>
+      <c r="F51" s="2">
+        <v>44695</v>
+      </c>
       <c r="G51" s="3">
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="H51" s="3">
-        <v>0</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="I51" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="N51" s="8"/>
+      <c r="K51" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="M51" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="O51" s="1"/>
     </row>
     <row r="52" spans="1:15" ht="13.5" thickBot="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="2"/>
+      <c r="F52" s="2">
+        <v>44698</v>
+      </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>0.5625</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I52" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="N52" s="8"/>
+      <c r="K52" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="M52" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="O52" s="1"/>
     </row>
     <row r="53" spans="1:15" ht="13.5" thickBot="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="2"/>
+      <c r="F53" s="2">
+        <v>44705</v>
+      </c>
       <c r="G53" s="3">
-        <v>0</v>
+        <v>0.5625</v>
       </c>
       <c r="H53" s="3">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I53" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="N53" s="8"/>
+      <c r="K53" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="M53" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>122</v>
+      </c>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" ht="13.5" thickBot="1">
+    <row r="54" spans="1:15" ht="51.75" thickBot="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="2"/>
+      <c r="F54" s="2">
+        <v>44712</v>
+      </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>0.5625</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I54" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="N54" s="8"/>
+      <c r="K54" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="M54" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" ht="13.5" thickBot="1">
+    <row r="55" spans="1:15" ht="26.25" thickBot="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G55" s="3">
-        <v>0</v>
+        <v>0.5625</v>
       </c>
       <c r="H55" s="3">
-        <v>0</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="I55" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="52" t="s">
+      <c r="K55" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="M55" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N55" s="8"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" ht="13.5" thickBot="1">
+    <row r="56" spans="1:15" ht="51.75" thickBot="1">
       <c r="A56" s="1"/>
-      <c r="B56" s="50"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G56" s="3">
-        <v>0</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="H56" s="3">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I56" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="N56" s="8"/>
+      <c r="K56" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="M56" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="O56" s="1"/>
     </row>
     <row r="57" spans="1:15" ht="13.5" thickBot="1">
       <c r="A57" s="1"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="2"/>
+      <c r="F57" s="2">
+        <v>44715</v>
+      </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>0.5625</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="I57" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="N57" s="8"/>
+      <c r="K57" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="M57" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>130</v>
+      </c>
       <c r="O57" s="1"/>
     </row>
     <row r="58" spans="1:15" ht="13.5" thickBot="1">
       <c r="A58" s="1"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
       <c r="E58" s="1"/>
       <c r="F58" s="2"/>
       <c r="G58" s="3">
@@ -3301,7 +3458,7 @@
       <c r="J58" s="15"/>
       <c r="K58" s="15"/>
       <c r="L58" s="6"/>
-      <c r="M58" s="52" t="s">
+      <c r="M58" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N58" s="8"/>
@@ -3309,9 +3466,9 @@
     </row>
     <row r="59" spans="1:15" ht="13.5" thickBot="1">
       <c r="A59" s="1"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
       <c r="E59" s="1"/>
       <c r="F59" s="2"/>
       <c r="G59" s="3">
@@ -3327,7 +3484,7 @@
       <c r="J59" s="15"/>
       <c r="K59" s="15"/>
       <c r="L59" s="6"/>
-      <c r="M59" s="52" t="s">
+      <c r="M59" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N59" s="8"/>
@@ -3335,9 +3492,9 @@
     </row>
     <row r="60" spans="1:15" ht="13.5" thickBot="1">
       <c r="A60" s="1"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
       <c r="E60" s="1"/>
       <c r="F60" s="2"/>
       <c r="G60" s="3">
@@ -3353,7 +3510,7 @@
       <c r="J60" s="15"/>
       <c r="K60" s="15"/>
       <c r="L60" s="6"/>
-      <c r="M60" s="52" t="s">
+      <c r="M60" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N60" s="8"/>
@@ -3361,9 +3518,9 @@
     </row>
     <row r="61" spans="1:15" ht="13.5" thickBot="1">
       <c r="A61" s="1"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
       <c r="E61" s="1"/>
       <c r="F61" s="2"/>
       <c r="G61" s="3">
@@ -3379,7 +3536,7 @@
       <c r="J61" s="15"/>
       <c r="K61" s="15"/>
       <c r="L61" s="6"/>
-      <c r="M61" s="52" t="s">
+      <c r="M61" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N61" s="8"/>
@@ -3387,9 +3544,9 @@
     </row>
     <row r="62" spans="1:15" ht="13.5" thickBot="1">
       <c r="A62" s="1"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
       <c r="E62" s="1"/>
       <c r="F62" s="2"/>
       <c r="G62" s="3">
@@ -3405,7 +3562,7 @@
       <c r="J62" s="15"/>
       <c r="K62" s="15"/>
       <c r="L62" s="6"/>
-      <c r="M62" s="52" t="s">
+      <c r="M62" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N62" s="8"/>
@@ -3413,9 +3570,9 @@
     </row>
     <row r="63" spans="1:15" ht="13.5" thickBot="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
       <c r="E63" s="1"/>
       <c r="F63" s="2"/>
       <c r="G63" s="3">
@@ -3431,7 +3588,7 @@
       <c r="J63" s="15"/>
       <c r="K63" s="15"/>
       <c r="L63" s="6"/>
-      <c r="M63" s="52" t="s">
+      <c r="M63" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N63" s="8"/>
@@ -3439,9 +3596,9 @@
     </row>
     <row r="64" spans="1:15" ht="13.5" thickBot="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
       <c r="E64" s="1"/>
       <c r="F64" s="2"/>
       <c r="G64" s="3">
@@ -3457,7 +3614,7 @@
       <c r="J64" s="15"/>
       <c r="K64" s="15"/>
       <c r="L64" s="6"/>
-      <c r="M64" s="52" t="s">
+      <c r="M64" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N64" s="8"/>
@@ -3465,9 +3622,9 @@
     </row>
     <row r="65" spans="1:15" ht="13.5" thickBot="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="50"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
       <c r="E65" s="1"/>
       <c r="F65" s="2"/>
       <c r="G65" s="3">
@@ -3483,7 +3640,7 @@
       <c r="J65" s="15"/>
       <c r="K65" s="15"/>
       <c r="L65" s="6"/>
-      <c r="M65" s="52" t="s">
+      <c r="M65" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N65" s="8"/>
@@ -3491,9 +3648,9 @@
     </row>
     <row r="66" spans="1:15" ht="13.5" thickBot="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
       <c r="E66" s="1"/>
       <c r="F66" s="2"/>
       <c r="G66" s="3">
@@ -3509,7 +3666,7 @@
       <c r="J66" s="15"/>
       <c r="K66" s="15"/>
       <c r="L66" s="6"/>
-      <c r="M66" s="52" t="s">
+      <c r="M66" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N66" s="8"/>
@@ -3517,9 +3674,9 @@
     </row>
     <row r="67" spans="1:15" ht="13.5" thickBot="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
       <c r="E67" s="1"/>
       <c r="F67" s="2"/>
       <c r="G67" s="3">
@@ -3535,7 +3692,7 @@
       <c r="J67" s="15"/>
       <c r="K67" s="15"/>
       <c r="L67" s="6"/>
-      <c r="M67" s="52" t="s">
+      <c r="M67" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N67" s="8"/>
@@ -3543,9 +3700,9 @@
     </row>
     <row r="68" spans="1:15" ht="13.5" thickBot="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
       <c r="E68" s="1"/>
       <c r="F68" s="2"/>
       <c r="G68" s="3">
@@ -3561,7 +3718,7 @@
       <c r="J68" s="15"/>
       <c r="K68" s="15"/>
       <c r="L68" s="6"/>
-      <c r="M68" s="52" t="s">
+      <c r="M68" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N68" s="8"/>
@@ -3569,9 +3726,9 @@
     </row>
     <row r="69" spans="1:15" ht="13.5" thickBot="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="50"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
       <c r="E69" s="1"/>
       <c r="F69" s="2"/>
       <c r="G69" s="3">
@@ -3587,7 +3744,7 @@
       <c r="J69" s="15"/>
       <c r="K69" s="15"/>
       <c r="L69" s="6"/>
-      <c r="M69" s="52" t="s">
+      <c r="M69" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N69" s="8"/>
@@ -3595,9 +3752,9 @@
     </row>
     <row r="70" spans="1:15" ht="13.5" thickBot="1">
       <c r="A70" s="1"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
       <c r="E70" s="1"/>
       <c r="F70" s="2"/>
       <c r="G70" s="3">
@@ -3613,7 +3770,7 @@
       <c r="J70" s="15"/>
       <c r="K70" s="15"/>
       <c r="L70" s="6"/>
-      <c r="M70" s="52" t="s">
+      <c r="M70" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N70" s="8"/>
@@ -3621,9 +3778,9 @@
     </row>
     <row r="71" spans="1:15" ht="13.5" thickBot="1">
       <c r="A71" s="1"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="50"/>
-      <c r="D71" s="50"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
       <c r="E71" s="1"/>
       <c r="F71" s="2"/>
       <c r="G71" s="3">
@@ -3639,7 +3796,7 @@
       <c r="J71" s="15"/>
       <c r="K71" s="15"/>
       <c r="L71" s="6"/>
-      <c r="M71" s="52" t="s">
+      <c r="M71" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N71" s="8"/>
@@ -3647,9 +3804,9 @@
     </row>
     <row r="72" spans="1:15" ht="13.5" thickBot="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="50"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
       <c r="E72" s="1"/>
       <c r="F72" s="2"/>
       <c r="G72" s="3">
@@ -3665,7 +3822,7 @@
       <c r="J72" s="15"/>
       <c r="K72" s="15"/>
       <c r="L72" s="6"/>
-      <c r="M72" s="52" t="s">
+      <c r="M72" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N72" s="8"/>
@@ -3673,9 +3830,9 @@
     </row>
     <row r="73" spans="1:15" ht="13.5" thickBot="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="50"/>
-      <c r="C73" s="50"/>
-      <c r="D73" s="50"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
       <c r="E73" s="1"/>
       <c r="F73" s="2"/>
       <c r="G73" s="3">
@@ -3691,7 +3848,7 @@
       <c r="J73" s="15"/>
       <c r="K73" s="15"/>
       <c r="L73" s="6"/>
-      <c r="M73" s="52" t="s">
+      <c r="M73" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N73" s="8"/>
@@ -3699,9 +3856,9 @@
     </row>
     <row r="74" spans="1:15" ht="13.5" thickBot="1">
       <c r="A74" s="1"/>
-      <c r="B74" s="50"/>
-      <c r="C74" s="50"/>
-      <c r="D74" s="50"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
       <c r="E74" s="1"/>
       <c r="F74" s="2"/>
       <c r="G74" s="3">
@@ -3717,7 +3874,7 @@
       <c r="J74" s="15"/>
       <c r="K74" s="15"/>
       <c r="L74" s="6"/>
-      <c r="M74" s="52" t="s">
+      <c r="M74" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N74" s="8"/>
@@ -3725,9 +3882,9 @@
     </row>
     <row r="75" spans="1:15" ht="13.5" thickBot="1">
       <c r="A75" s="1"/>
-      <c r="B75" s="50"/>
-      <c r="C75" s="50"/>
-      <c r="D75" s="50"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
       <c r="E75" s="1"/>
       <c r="F75" s="2"/>
       <c r="G75" s="3">
@@ -3743,7 +3900,7 @@
       <c r="J75" s="15"/>
       <c r="K75" s="15"/>
       <c r="L75" s="6"/>
-      <c r="M75" s="52" t="s">
+      <c r="M75" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N75" s="8"/>
@@ -3751,9 +3908,9 @@
     </row>
     <row r="76" spans="1:15" ht="13.5" thickBot="1">
       <c r="A76" s="1"/>
-      <c r="B76" s="50"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
       <c r="E76" s="1"/>
       <c r="F76" s="2"/>
       <c r="G76" s="3">
@@ -3769,7 +3926,7 @@
       <c r="J76" s="15"/>
       <c r="K76" s="15"/>
       <c r="L76" s="6"/>
-      <c r="M76" s="52" t="s">
+      <c r="M76" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N76" s="8"/>
@@ -3777,9 +3934,9 @@
     </row>
     <row r="77" spans="1:15" ht="13.5" thickBot="1">
       <c r="A77" s="1"/>
-      <c r="B77" s="50"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="50"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
       <c r="E77" s="1"/>
       <c r="F77" s="2"/>
       <c r="G77" s="3">
@@ -3795,7 +3952,7 @@
       <c r="J77" s="15"/>
       <c r="K77" s="15"/>
       <c r="L77" s="6"/>
-      <c r="M77" s="52" t="s">
+      <c r="M77" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N77" s="8"/>
@@ -3803,9 +3960,9 @@
     </row>
     <row r="78" spans="1:15" ht="13.5" thickBot="1">
       <c r="A78" s="1"/>
-      <c r="B78" s="50"/>
-      <c r="C78" s="50"/>
-      <c r="D78" s="50"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
       <c r="E78" s="1"/>
       <c r="F78" s="2"/>
       <c r="G78" s="3">
@@ -3821,7 +3978,7 @@
       <c r="J78" s="15"/>
       <c r="K78" s="15"/>
       <c r="L78" s="6"/>
-      <c r="M78" s="52" t="s">
+      <c r="M78" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N78" s="8"/>
@@ -3829,9 +3986,9 @@
     </row>
     <row r="79" spans="1:15" ht="13.5" thickBot="1">
       <c r="A79" s="1"/>
-      <c r="B79" s="50"/>
-      <c r="C79" s="50"/>
-      <c r="D79" s="50"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
       <c r="E79" s="1"/>
       <c r="F79" s="2"/>
       <c r="G79" s="3">
@@ -3847,7 +4004,7 @@
       <c r="J79" s="15"/>
       <c r="K79" s="15"/>
       <c r="L79" s="6"/>
-      <c r="M79" s="52" t="s">
+      <c r="M79" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N79" s="8"/>
@@ -3855,9 +4012,9 @@
     </row>
     <row r="80" spans="1:15" ht="13.5" thickBot="1">
       <c r="A80" s="1"/>
-      <c r="B80" s="50"/>
-      <c r="C80" s="50"/>
-      <c r="D80" s="50"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
       <c r="E80" s="1"/>
       <c r="F80" s="2"/>
       <c r="G80" s="3">
@@ -3873,7 +4030,7 @@
       <c r="J80" s="15"/>
       <c r="K80" s="15"/>
       <c r="L80" s="6"/>
-      <c r="M80" s="52" t="s">
+      <c r="M80" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N80" s="8"/>
@@ -3881,9 +4038,9 @@
     </row>
     <row r="81" spans="1:15" ht="13.5" thickBot="1">
       <c r="A81" s="1"/>
-      <c r="B81" s="50"/>
-      <c r="C81" s="50"/>
-      <c r="D81" s="50"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
       <c r="E81" s="1"/>
       <c r="F81" s="2"/>
       <c r="G81" s="3">
@@ -3899,7 +4056,7 @@
       <c r="J81" s="15"/>
       <c r="K81" s="15"/>
       <c r="L81" s="6"/>
-      <c r="M81" s="52" t="s">
+      <c r="M81" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N81" s="8"/>
@@ -3907,9 +4064,9 @@
     </row>
     <row r="82" spans="1:15" ht="13.5" thickBot="1">
       <c r="A82" s="1"/>
-      <c r="B82" s="50"/>
-      <c r="C82" s="50"/>
-      <c r="D82" s="50"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
       <c r="E82" s="1"/>
       <c r="F82" s="2"/>
       <c r="G82" s="3">
@@ -3925,7 +4082,7 @@
       <c r="J82" s="15"/>
       <c r="K82" s="15"/>
       <c r="L82" s="6"/>
-      <c r="M82" s="52" t="s">
+      <c r="M82" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N82" s="8"/>
@@ -3933,9 +4090,9 @@
     </row>
     <row r="83" spans="1:15" ht="13.5" thickBot="1">
       <c r="A83" s="1"/>
-      <c r="B83" s="50"/>
-      <c r="C83" s="50"/>
-      <c r="D83" s="50"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
       <c r="E83" s="1"/>
       <c r="F83" s="2"/>
       <c r="G83" s="3">
@@ -3951,7 +4108,7 @@
       <c r="J83" s="15"/>
       <c r="K83" s="15"/>
       <c r="L83" s="6"/>
-      <c r="M83" s="52" t="s">
+      <c r="M83" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N83" s="8"/>
@@ -3959,9 +4116,9 @@
     </row>
     <row r="84" spans="1:15" ht="13.5" thickBot="1">
       <c r="A84" s="1"/>
-      <c r="B84" s="50"/>
-      <c r="C84" s="50"/>
-      <c r="D84" s="50"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
       <c r="E84" s="1"/>
       <c r="F84" s="2"/>
       <c r="G84" s="3">
@@ -3977,7 +4134,7 @@
       <c r="J84" s="15"/>
       <c r="K84" s="15"/>
       <c r="L84" s="6"/>
-      <c r="M84" s="52" t="s">
+      <c r="M84" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N84" s="8"/>
@@ -3985,9 +4142,9 @@
     </row>
     <row r="85" spans="1:15" ht="13.5" thickBot="1">
       <c r="A85" s="1"/>
-      <c r="B85" s="50"/>
-      <c r="C85" s="50"/>
-      <c r="D85" s="50"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
       <c r="E85" s="1"/>
       <c r="F85" s="2"/>
       <c r="G85" s="3">
@@ -4003,7 +4160,7 @@
       <c r="J85" s="15"/>
       <c r="K85" s="15"/>
       <c r="L85" s="6"/>
-      <c r="M85" s="52" t="s">
+      <c r="M85" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N85" s="8"/>
@@ -4011,9 +4168,9 @@
     </row>
     <row r="86" spans="1:15" ht="13.5" thickBot="1">
       <c r="A86" s="1"/>
-      <c r="B86" s="50"/>
-      <c r="C86" s="50"/>
-      <c r="D86" s="50"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
       <c r="E86" s="1"/>
       <c r="F86" s="2"/>
       <c r="G86" s="3">
@@ -4029,7 +4186,7 @@
       <c r="J86" s="15"/>
       <c r="K86" s="15"/>
       <c r="L86" s="6"/>
-      <c r="M86" s="52" t="s">
+      <c r="M86" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N86" s="8"/>
@@ -4037,9 +4194,9 @@
     </row>
     <row r="87" spans="1:15" ht="13.5" thickBot="1">
       <c r="A87" s="1"/>
-      <c r="B87" s="50"/>
-      <c r="C87" s="50"/>
-      <c r="D87" s="50"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
       <c r="E87" s="1"/>
       <c r="F87" s="2"/>
       <c r="G87" s="3">
@@ -4055,7 +4212,7 @@
       <c r="J87" s="15"/>
       <c r="K87" s="15"/>
       <c r="L87" s="6"/>
-      <c r="M87" s="52" t="s">
+      <c r="M87" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N87" s="8"/>
@@ -4063,9 +4220,9 @@
     </row>
     <row r="88" spans="1:15" ht="13.5" thickBot="1">
       <c r="A88" s="1"/>
-      <c r="B88" s="50"/>
-      <c r="C88" s="50"/>
-      <c r="D88" s="50"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
       <c r="E88" s="1"/>
       <c r="F88" s="2"/>
       <c r="G88" s="3">
@@ -4081,7 +4238,7 @@
       <c r="J88" s="15"/>
       <c r="K88" s="15"/>
       <c r="L88" s="6"/>
-      <c r="M88" s="52" t="s">
+      <c r="M88" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N88" s="8"/>
@@ -4089,9 +4246,9 @@
     </row>
     <row r="89" spans="1:15" ht="13.5" thickBot="1">
       <c r="A89" s="1"/>
-      <c r="B89" s="50"/>
-      <c r="C89" s="50"/>
-      <c r="D89" s="50"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
       <c r="E89" s="1"/>
       <c r="F89" s="2"/>
       <c r="G89" s="3">
@@ -4107,7 +4264,7 @@
       <c r="J89" s="15"/>
       <c r="K89" s="15"/>
       <c r="L89" s="6"/>
-      <c r="M89" s="52" t="s">
+      <c r="M89" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N89" s="8"/>
@@ -4115,9 +4272,9 @@
     </row>
     <row r="90" spans="1:15" ht="13.5" thickBot="1">
       <c r="A90" s="1"/>
-      <c r="B90" s="50"/>
-      <c r="C90" s="50"/>
-      <c r="D90" s="50"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
       <c r="E90" s="1"/>
       <c r="F90" s="2"/>
       <c r="G90" s="3">
@@ -4133,7 +4290,7 @@
       <c r="J90" s="15"/>
       <c r="K90" s="15"/>
       <c r="L90" s="6"/>
-      <c r="M90" s="52" t="s">
+      <c r="M90" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N90" s="8"/>
@@ -4141,9 +4298,9 @@
     </row>
     <row r="91" spans="1:15" ht="13.5" thickBot="1">
       <c r="A91" s="1"/>
-      <c r="B91" s="50"/>
-      <c r="C91" s="50"/>
-      <c r="D91" s="50"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
       <c r="E91" s="1"/>
       <c r="F91" s="2"/>
       <c r="G91" s="3">
@@ -4159,7 +4316,7 @@
       <c r="J91" s="15"/>
       <c r="K91" s="15"/>
       <c r="L91" s="6"/>
-      <c r="M91" s="52" t="s">
+      <c r="M91" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N91" s="8"/>
@@ -4167,9 +4324,9 @@
     </row>
     <row r="92" spans="1:15" ht="13.5" thickBot="1">
       <c r="A92" s="1"/>
-      <c r="B92" s="50"/>
-      <c r="C92" s="50"/>
-      <c r="D92" s="50"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
       <c r="E92" s="1"/>
       <c r="F92" s="2"/>
       <c r="G92" s="3">
@@ -4185,7 +4342,7 @@
       <c r="J92" s="15"/>
       <c r="K92" s="15"/>
       <c r="L92" s="6"/>
-      <c r="M92" s="52" t="s">
+      <c r="M92" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N92" s="8"/>
@@ -4193,9 +4350,9 @@
     </row>
     <row r="93" spans="1:15" ht="13.5" thickBot="1">
       <c r="A93" s="1"/>
-      <c r="B93" s="50"/>
-      <c r="C93" s="50"/>
-      <c r="D93" s="50"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
       <c r="E93" s="1"/>
       <c r="F93" s="2"/>
       <c r="G93" s="3">
@@ -4211,7 +4368,7 @@
       <c r="J93" s="15"/>
       <c r="K93" s="15"/>
       <c r="L93" s="6"/>
-      <c r="M93" s="52" t="s">
+      <c r="M93" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N93" s="8"/>
@@ -4219,9 +4376,9 @@
     </row>
     <row r="94" spans="1:15" ht="13.5" thickBot="1">
       <c r="A94" s="1"/>
-      <c r="B94" s="50"/>
-      <c r="C94" s="50"/>
-      <c r="D94" s="50"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
       <c r="E94" s="1"/>
       <c r="F94" s="2"/>
       <c r="G94" s="3">
@@ -4237,7 +4394,7 @@
       <c r="J94" s="15"/>
       <c r="K94" s="15"/>
       <c r="L94" s="6"/>
-      <c r="M94" s="52" t="s">
+      <c r="M94" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N94" s="8"/>
@@ -4245,9 +4402,9 @@
     </row>
     <row r="95" spans="1:15" ht="13.5" thickBot="1">
       <c r="A95" s="1"/>
-      <c r="B95" s="50"/>
-      <c r="C95" s="50"/>
-      <c r="D95" s="50"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
       <c r="E95" s="1"/>
       <c r="F95" s="2"/>
       <c r="G95" s="3">
@@ -4263,7 +4420,7 @@
       <c r="J95" s="15"/>
       <c r="K95" s="15"/>
       <c r="L95" s="6"/>
-      <c r="M95" s="52" t="s">
+      <c r="M95" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N95" s="8"/>
@@ -4271,9 +4428,9 @@
     </row>
     <row r="96" spans="1:15" ht="13.5" thickBot="1">
       <c r="A96" s="1"/>
-      <c r="B96" s="50"/>
-      <c r="C96" s="50"/>
-      <c r="D96" s="50"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
       <c r="E96" s="1"/>
       <c r="F96" s="2"/>
       <c r="G96" s="3">
@@ -4289,7 +4446,7 @@
       <c r="J96" s="15"/>
       <c r="K96" s="15"/>
       <c r="L96" s="6"/>
-      <c r="M96" s="52" t="s">
+      <c r="M96" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N96" s="8"/>
@@ -4297,9 +4454,9 @@
     </row>
     <row r="97" spans="1:15" ht="13.5" thickBot="1">
       <c r="A97" s="1"/>
-      <c r="B97" s="50"/>
-      <c r="C97" s="50"/>
-      <c r="D97" s="50"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
       <c r="E97" s="1"/>
       <c r="F97" s="2"/>
       <c r="G97" s="3">
@@ -4315,7 +4472,7 @@
       <c r="J97" s="15"/>
       <c r="K97" s="15"/>
       <c r="L97" s="6"/>
-      <c r="M97" s="52" t="s">
+      <c r="M97" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N97" s="8"/>
@@ -4323,9 +4480,9 @@
     </row>
     <row r="98" spans="1:15" ht="13.5" thickBot="1">
       <c r="A98" s="1"/>
-      <c r="B98" s="50"/>
-      <c r="C98" s="50"/>
-      <c r="D98" s="50"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
       <c r="E98" s="1"/>
       <c r="F98" s="2"/>
       <c r="G98" s="3">
@@ -4341,7 +4498,7 @@
       <c r="J98" s="15"/>
       <c r="K98" s="15"/>
       <c r="L98" s="6"/>
-      <c r="M98" s="52" t="s">
+      <c r="M98" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N98" s="8"/>
@@ -4349,9 +4506,9 @@
     </row>
     <row r="99" spans="1:15" ht="13.5" thickBot="1">
       <c r="A99" s="1"/>
-      <c r="B99" s="50"/>
-      <c r="C99" s="50"/>
-      <c r="D99" s="50"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
       <c r="E99" s="1"/>
       <c r="F99" s="2"/>
       <c r="G99" s="3">
@@ -4367,7 +4524,7 @@
       <c r="J99" s="15"/>
       <c r="K99" s="15"/>
       <c r="L99" s="6"/>
-      <c r="M99" s="52" t="s">
+      <c r="M99" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N99" s="8"/>
@@ -4375,9 +4532,9 @@
     </row>
     <row r="100" spans="1:15" ht="13.5" thickBot="1">
       <c r="A100" s="1"/>
-      <c r="B100" s="50"/>
-      <c r="C100" s="50"/>
-      <c r="D100" s="50"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
       <c r="E100" s="1"/>
       <c r="F100" s="2"/>
       <c r="G100" s="3">
@@ -4393,7 +4550,7 @@
       <c r="J100" s="15"/>
       <c r="K100" s="15"/>
       <c r="L100" s="6"/>
-      <c r="M100" s="52" t="s">
+      <c r="M100" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N100" s="8"/>
@@ -4401,9 +4558,9 @@
     </row>
     <row r="101" spans="1:15" ht="13.5" thickBot="1">
       <c r="A101" s="1"/>
-      <c r="B101" s="50"/>
-      <c r="C101" s="50"/>
-      <c r="D101" s="50"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
       <c r="E101" s="1"/>
       <c r="F101" s="2"/>
       <c r="G101" s="3">
@@ -4419,7 +4576,7 @@
       <c r="J101" s="15"/>
       <c r="K101" s="15"/>
       <c r="L101" s="6"/>
-      <c r="M101" s="52" t="s">
+      <c r="M101" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N101" s="8"/>
@@ -4427,9 +4584,9 @@
     </row>
     <row r="102" spans="1:15" ht="13.5" thickBot="1">
       <c r="A102" s="1"/>
-      <c r="B102" s="50"/>
-      <c r="C102" s="50"/>
-      <c r="D102" s="50"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
       <c r="E102" s="1"/>
       <c r="F102" s="2"/>
       <c r="G102" s="3">
@@ -4445,7 +4602,7 @@
       <c r="J102" s="15"/>
       <c r="K102" s="15"/>
       <c r="L102" s="6"/>
-      <c r="M102" s="52" t="s">
+      <c r="M102" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N102" s="8"/>
@@ -4453,9 +4610,9 @@
     </row>
     <row r="103" spans="1:15" ht="13.5" thickBot="1">
       <c r="A103" s="1"/>
-      <c r="B103" s="50"/>
-      <c r="C103" s="50"/>
-      <c r="D103" s="50"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
       <c r="E103" s="1"/>
       <c r="F103" s="2"/>
       <c r="G103" s="3">
@@ -4471,7 +4628,7 @@
       <c r="J103" s="15"/>
       <c r="K103" s="15"/>
       <c r="L103" s="6"/>
-      <c r="M103" s="52" t="s">
+      <c r="M103" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N103" s="8"/>
@@ -4479,9 +4636,9 @@
     </row>
     <row r="104" spans="1:15" ht="13.5" thickBot="1">
       <c r="A104" s="1"/>
-      <c r="B104" s="50"/>
-      <c r="C104" s="50"/>
-      <c r="D104" s="50"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
       <c r="E104" s="1"/>
       <c r="F104" s="2"/>
       <c r="G104" s="3">
@@ -4497,7 +4654,7 @@
       <c r="J104" s="15"/>
       <c r="K104" s="15"/>
       <c r="L104" s="6"/>
-      <c r="M104" s="52" t="s">
+      <c r="M104" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N104" s="8"/>
@@ -4505,9 +4662,9 @@
     </row>
     <row r="105" spans="1:15" ht="13.5" thickBot="1">
       <c r="A105" s="1"/>
-      <c r="B105" s="50"/>
-      <c r="C105" s="50"/>
-      <c r="D105" s="50"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
       <c r="E105" s="1"/>
       <c r="F105" s="2"/>
       <c r="G105" s="3">
@@ -4523,7 +4680,7 @@
       <c r="J105" s="15"/>
       <c r="K105" s="15"/>
       <c r="L105" s="6"/>
-      <c r="M105" s="52" t="s">
+      <c r="M105" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N105" s="8"/>
@@ -4531,9 +4688,9 @@
     </row>
     <row r="106" spans="1:15" ht="13.5" thickBot="1">
       <c r="A106" s="1"/>
-      <c r="B106" s="50"/>
-      <c r="C106" s="50"/>
-      <c r="D106" s="50"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21"/>
       <c r="E106" s="1"/>
       <c r="F106" s="2"/>
       <c r="G106" s="3">
@@ -4549,7 +4706,7 @@
       <c r="J106" s="15"/>
       <c r="K106" s="15"/>
       <c r="L106" s="6"/>
-      <c r="M106" s="52" t="s">
+      <c r="M106" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N106" s="8"/>
@@ -4557,9 +4714,9 @@
     </row>
     <row r="107" spans="1:15" ht="13.5" thickBot="1">
       <c r="A107" s="1"/>
-      <c r="B107" s="50"/>
-      <c r="C107" s="50"/>
-      <c r="D107" s="50"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="21"/>
       <c r="E107" s="1"/>
       <c r="F107" s="2"/>
       <c r="G107" s="3">
@@ -4575,7 +4732,7 @@
       <c r="J107" s="15"/>
       <c r="K107" s="15"/>
       <c r="L107" s="6"/>
-      <c r="M107" s="52" t="s">
+      <c r="M107" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N107" s="8"/>
@@ -4583,9 +4740,9 @@
     </row>
     <row r="108" spans="1:15" ht="13.5" thickBot="1">
       <c r="A108" s="1"/>
-      <c r="B108" s="50"/>
-      <c r="C108" s="50"/>
-      <c r="D108" s="50"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="21"/>
       <c r="E108" s="1"/>
       <c r="F108" s="2"/>
       <c r="G108" s="3">
@@ -4601,7 +4758,7 @@
       <c r="J108" s="15"/>
       <c r="K108" s="15"/>
       <c r="L108" s="6"/>
-      <c r="M108" s="52" t="s">
+      <c r="M108" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N108" s="8"/>
@@ -4609,9 +4766,9 @@
     </row>
     <row r="109" spans="1:15" ht="13.5" thickBot="1">
       <c r="A109" s="1"/>
-      <c r="B109" s="50"/>
-      <c r="C109" s="50"/>
-      <c r="D109" s="50"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
       <c r="E109" s="1"/>
       <c r="F109" s="2"/>
       <c r="G109" s="3">
@@ -4627,7 +4784,7 @@
       <c r="J109" s="15"/>
       <c r="K109" s="15"/>
       <c r="L109" s="6"/>
-      <c r="M109" s="52" t="s">
+      <c r="M109" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N109" s="8"/>
@@ -4635,9 +4792,9 @@
     </row>
     <row r="110" spans="1:15" ht="13.5" thickBot="1">
       <c r="A110" s="1"/>
-      <c r="B110" s="50"/>
-      <c r="C110" s="50"/>
-      <c r="D110" s="50"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
       <c r="E110" s="1"/>
       <c r="F110" s="2"/>
       <c r="G110" s="3">
@@ -4653,7 +4810,7 @@
       <c r="J110" s="15"/>
       <c r="K110" s="15"/>
       <c r="L110" s="6"/>
-      <c r="M110" s="52" t="s">
+      <c r="M110" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N110" s="8"/>
@@ -4661,9 +4818,9 @@
     </row>
     <row r="111" spans="1:15" ht="13.5" thickBot="1">
       <c r="A111" s="1"/>
-      <c r="B111" s="50"/>
-      <c r="C111" s="50"/>
-      <c r="D111" s="50"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
       <c r="E111" s="1"/>
       <c r="F111" s="2"/>
       <c r="G111" s="3">
@@ -4679,7 +4836,7 @@
       <c r="J111" s="15"/>
       <c r="K111" s="15"/>
       <c r="L111" s="6"/>
-      <c r="M111" s="52" t="s">
+      <c r="M111" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N111" s="8"/>
@@ -4687,9 +4844,9 @@
     </row>
     <row r="112" spans="1:15" ht="13.5" thickBot="1">
       <c r="A112" s="1"/>
-      <c r="B112" s="50"/>
-      <c r="C112" s="50"/>
-      <c r="D112" s="50"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="21"/>
       <c r="E112" s="1"/>
       <c r="F112" s="2"/>
       <c r="G112" s="3">
@@ -4705,7 +4862,7 @@
       <c r="J112" s="15"/>
       <c r="K112" s="15"/>
       <c r="L112" s="6"/>
-      <c r="M112" s="52" t="s">
+      <c r="M112" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N112" s="8"/>
@@ -4713,9 +4870,9 @@
     </row>
     <row r="113" spans="1:15" ht="13.5" thickBot="1">
       <c r="A113" s="1"/>
-      <c r="B113" s="50"/>
-      <c r="C113" s="50"/>
-      <c r="D113" s="50"/>
+      <c r="B113" s="21"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
       <c r="E113" s="1"/>
       <c r="F113" s="2"/>
       <c r="G113" s="3">
@@ -4731,7 +4888,7 @@
       <c r="J113" s="15"/>
       <c r="K113" s="15"/>
       <c r="L113" s="6"/>
-      <c r="M113" s="52" t="s">
+      <c r="M113" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N113" s="8"/>
@@ -4739,9 +4896,9 @@
     </row>
     <row r="114" spans="1:15" ht="13.5" thickBot="1">
       <c r="A114" s="1"/>
-      <c r="B114" s="50"/>
-      <c r="C114" s="50"/>
-      <c r="D114" s="50"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
       <c r="E114" s="1"/>
       <c r="F114" s="2"/>
       <c r="G114" s="3">
@@ -4757,7 +4914,7 @@
       <c r="J114" s="15"/>
       <c r="K114" s="15"/>
       <c r="L114" s="6"/>
-      <c r="M114" s="52" t="s">
+      <c r="M114" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N114" s="8"/>
@@ -4765,9 +4922,9 @@
     </row>
     <row r="115" spans="1:15" ht="13.5" thickBot="1">
       <c r="A115" s="1"/>
-      <c r="B115" s="50"/>
-      <c r="C115" s="50"/>
-      <c r="D115" s="50"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
       <c r="E115" s="1"/>
       <c r="F115" s="2"/>
       <c r="G115" s="3">
@@ -4783,7 +4940,7 @@
       <c r="J115" s="15"/>
       <c r="K115" s="15"/>
       <c r="L115" s="6"/>
-      <c r="M115" s="52" t="s">
+      <c r="M115" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N115" s="8"/>
@@ -4791,9 +4948,9 @@
     </row>
     <row r="116" spans="1:15" ht="13.5" thickBot="1">
       <c r="A116" s="1"/>
-      <c r="B116" s="50"/>
-      <c r="C116" s="50"/>
-      <c r="D116" s="50"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="21"/>
       <c r="E116" s="1"/>
       <c r="F116" s="2"/>
       <c r="G116" s="3">
@@ -4809,7 +4966,7 @@
       <c r="J116" s="15"/>
       <c r="K116" s="15"/>
       <c r="L116" s="6"/>
-      <c r="M116" s="52" t="s">
+      <c r="M116" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N116" s="8"/>
@@ -4817,9 +4974,9 @@
     </row>
     <row r="117" spans="1:15" ht="13.5" thickBot="1">
       <c r="A117" s="1"/>
-      <c r="B117" s="50"/>
-      <c r="C117" s="50"/>
-      <c r="D117" s="50"/>
+      <c r="B117" s="21"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="21"/>
       <c r="E117" s="1"/>
       <c r="F117" s="2"/>
       <c r="G117" s="3">
@@ -4835,7 +4992,7 @@
       <c r="J117" s="15"/>
       <c r="K117" s="15"/>
       <c r="L117" s="6"/>
-      <c r="M117" s="52" t="s">
+      <c r="M117" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N117" s="8"/>
@@ -4843,9 +5000,9 @@
     </row>
     <row r="118" spans="1:15" ht="13.5" thickBot="1">
       <c r="A118" s="1"/>
-      <c r="B118" s="50"/>
-      <c r="C118" s="50"/>
-      <c r="D118" s="50"/>
+      <c r="B118" s="21"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="21"/>
       <c r="E118" s="1"/>
       <c r="F118" s="2"/>
       <c r="G118" s="3">
@@ -4861,7 +5018,7 @@
       <c r="J118" s="15"/>
       <c r="K118" s="15"/>
       <c r="L118" s="6"/>
-      <c r="M118" s="52" t="s">
+      <c r="M118" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N118" s="8"/>
@@ -4869,9 +5026,9 @@
     </row>
     <row r="119" spans="1:15" ht="13.5" thickBot="1">
       <c r="A119" s="1"/>
-      <c r="B119" s="50"/>
-      <c r="C119" s="50"/>
-      <c r="D119" s="50"/>
+      <c r="B119" s="21"/>
+      <c r="C119" s="21"/>
+      <c r="D119" s="21"/>
       <c r="E119" s="1"/>
       <c r="F119" s="2"/>
       <c r="G119" s="3">
@@ -4887,7 +5044,7 @@
       <c r="J119" s="15"/>
       <c r="K119" s="15"/>
       <c r="L119" s="6"/>
-      <c r="M119" s="52" t="s">
+      <c r="M119" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N119" s="8"/>
@@ -4895,9 +5052,9 @@
     </row>
     <row r="120" spans="1:15" ht="13.5" thickBot="1">
       <c r="A120" s="1"/>
-      <c r="B120" s="50"/>
-      <c r="C120" s="50"/>
-      <c r="D120" s="50"/>
+      <c r="B120" s="21"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="21"/>
       <c r="E120" s="1"/>
       <c r="F120" s="2"/>
       <c r="G120" s="3">
@@ -4913,7 +5070,7 @@
       <c r="J120" s="15"/>
       <c r="K120" s="15"/>
       <c r="L120" s="6"/>
-      <c r="M120" s="52" t="s">
+      <c r="M120" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N120" s="8"/>
@@ -4921,9 +5078,9 @@
     </row>
     <row r="121" spans="1:15" ht="13.5" thickBot="1">
       <c r="A121" s="1"/>
-      <c r="B121" s="50"/>
-      <c r="C121" s="50"/>
-      <c r="D121" s="50"/>
+      <c r="B121" s="21"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="21"/>
       <c r="E121" s="1"/>
       <c r="F121" s="2"/>
       <c r="G121" s="3">
@@ -4939,7 +5096,7 @@
       <c r="J121" s="15"/>
       <c r="K121" s="15"/>
       <c r="L121" s="6"/>
-      <c r="M121" s="52" t="s">
+      <c r="M121" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N121" s="8"/>
@@ -4947,9 +5104,9 @@
     </row>
     <row r="122" spans="1:15" ht="13.5" thickBot="1">
       <c r="A122" s="1"/>
-      <c r="B122" s="50"/>
-      <c r="C122" s="50"/>
-      <c r="D122" s="50"/>
+      <c r="B122" s="21"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="21"/>
       <c r="E122" s="1"/>
       <c r="F122" s="2"/>
       <c r="G122" s="3">
@@ -4965,7 +5122,7 @@
       <c r="J122" s="15"/>
       <c r="K122" s="15"/>
       <c r="L122" s="6"/>
-      <c r="M122" s="52" t="s">
+      <c r="M122" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N122" s="8"/>
@@ -4973,9 +5130,9 @@
     </row>
     <row r="123" spans="1:15" ht="13.5" thickBot="1">
       <c r="A123" s="1"/>
-      <c r="B123" s="50"/>
-      <c r="C123" s="50"/>
-      <c r="D123" s="50"/>
+      <c r="B123" s="21"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="21"/>
       <c r="E123" s="1"/>
       <c r="F123" s="2"/>
       <c r="G123" s="3">
@@ -4991,7 +5148,7 @@
       <c r="J123" s="15"/>
       <c r="K123" s="15"/>
       <c r="L123" s="6"/>
-      <c r="M123" s="52" t="s">
+      <c r="M123" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N123" s="8"/>
@@ -4999,9 +5156,9 @@
     </row>
     <row r="124" spans="1:15" ht="13.5" thickBot="1">
       <c r="A124" s="1"/>
-      <c r="B124" s="50"/>
-      <c r="C124" s="50"/>
-      <c r="D124" s="50"/>
+      <c r="B124" s="21"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="21"/>
       <c r="E124" s="1"/>
       <c r="F124" s="2"/>
       <c r="G124" s="3">
@@ -5017,7 +5174,7 @@
       <c r="J124" s="15"/>
       <c r="K124" s="15"/>
       <c r="L124" s="6"/>
-      <c r="M124" s="52" t="s">
+      <c r="M124" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N124" s="8"/>
@@ -5025,9 +5182,9 @@
     </row>
     <row r="125" spans="1:15" ht="13.5" thickBot="1">
       <c r="A125" s="1"/>
-      <c r="B125" s="50"/>
-      <c r="C125" s="50"/>
-      <c r="D125" s="50"/>
+      <c r="B125" s="21"/>
+      <c r="C125" s="21"/>
+      <c r="D125" s="21"/>
       <c r="E125" s="1"/>
       <c r="F125" s="2"/>
       <c r="G125" s="3">
@@ -5043,7 +5200,7 @@
       <c r="J125" s="15"/>
       <c r="K125" s="15"/>
       <c r="L125" s="6"/>
-      <c r="M125" s="52" t="s">
+      <c r="M125" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N125" s="8"/>
@@ -5051,9 +5208,9 @@
     </row>
     <row r="126" spans="1:15" ht="13.5" thickBot="1">
       <c r="A126" s="1"/>
-      <c r="B126" s="50"/>
-      <c r="C126" s="50"/>
-      <c r="D126" s="50"/>
+      <c r="B126" s="21"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="21"/>
       <c r="E126" s="1"/>
       <c r="F126" s="2"/>
       <c r="G126" s="3">
@@ -5069,7 +5226,7 @@
       <c r="J126" s="15"/>
       <c r="K126" s="15"/>
       <c r="L126" s="6"/>
-      <c r="M126" s="52" t="s">
+      <c r="M126" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N126" s="8"/>
@@ -5077,9 +5234,9 @@
     </row>
     <row r="127" spans="1:15" ht="13.5" thickBot="1">
       <c r="A127" s="1"/>
-      <c r="B127" s="50"/>
-      <c r="C127" s="50"/>
-      <c r="D127" s="50"/>
+      <c r="B127" s="21"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="21"/>
       <c r="E127" s="1"/>
       <c r="F127" s="2"/>
       <c r="G127" s="3">
@@ -5095,7 +5252,7 @@
       <c r="J127" s="15"/>
       <c r="K127" s="15"/>
       <c r="L127" s="6"/>
-      <c r="M127" s="52" t="s">
+      <c r="M127" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N127" s="8"/>
@@ -5103,9 +5260,9 @@
     </row>
     <row r="128" spans="1:15" ht="13.5" thickBot="1">
       <c r="A128" s="1"/>
-      <c r="B128" s="50"/>
-      <c r="C128" s="50"/>
-      <c r="D128" s="50"/>
+      <c r="B128" s="21"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="21"/>
       <c r="E128" s="1"/>
       <c r="F128" s="2"/>
       <c r="G128" s="3">
@@ -5121,7 +5278,7 @@
       <c r="J128" s="15"/>
       <c r="K128" s="15"/>
       <c r="L128" s="6"/>
-      <c r="M128" s="52" t="s">
+      <c r="M128" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N128" s="8"/>
@@ -5129,9 +5286,9 @@
     </row>
     <row r="129" spans="1:15" ht="13.5" thickBot="1">
       <c r="A129" s="1"/>
-      <c r="B129" s="50"/>
-      <c r="C129" s="50"/>
-      <c r="D129" s="50"/>
+      <c r="B129" s="21"/>
+      <c r="C129" s="21"/>
+      <c r="D129" s="21"/>
       <c r="E129" s="1"/>
       <c r="F129" s="2"/>
       <c r="G129" s="3">
@@ -5147,7 +5304,7 @@
       <c r="J129" s="15"/>
       <c r="K129" s="15"/>
       <c r="L129" s="6"/>
-      <c r="M129" s="52" t="s">
+      <c r="M129" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N129" s="8"/>
@@ -5155,9 +5312,9 @@
     </row>
     <row r="130" spans="1:15" ht="13.5" thickBot="1">
       <c r="A130" s="1"/>
-      <c r="B130" s="50"/>
-      <c r="C130" s="50"/>
-      <c r="D130" s="50"/>
+      <c r="B130" s="21"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="21"/>
       <c r="E130" s="1"/>
       <c r="F130" s="2"/>
       <c r="G130" s="3">
@@ -5173,7 +5330,7 @@
       <c r="J130" s="15"/>
       <c r="K130" s="15"/>
       <c r="L130" s="6"/>
-      <c r="M130" s="52" t="s">
+      <c r="M130" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N130" s="8"/>
@@ -5181,9 +5338,9 @@
     </row>
     <row r="131" spans="1:15" ht="13.5" thickBot="1">
       <c r="A131" s="1"/>
-      <c r="B131" s="50"/>
-      <c r="C131" s="50"/>
-      <c r="D131" s="50"/>
+      <c r="B131" s="21"/>
+      <c r="C131" s="21"/>
+      <c r="D131" s="21"/>
       <c r="E131" s="1"/>
       <c r="F131" s="2"/>
       <c r="G131" s="3">
@@ -5199,7 +5356,7 @@
       <c r="J131" s="15"/>
       <c r="K131" s="15"/>
       <c r="L131" s="6"/>
-      <c r="M131" s="52" t="s">
+      <c r="M131" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N131" s="8"/>
@@ -5207,9 +5364,9 @@
     </row>
     <row r="132" spans="1:15" ht="13.5" thickBot="1">
       <c r="A132" s="1"/>
-      <c r="B132" s="50"/>
-      <c r="C132" s="50"/>
-      <c r="D132" s="50"/>
+      <c r="B132" s="21"/>
+      <c r="C132" s="21"/>
+      <c r="D132" s="21"/>
       <c r="E132" s="1"/>
       <c r="F132" s="2"/>
       <c r="G132" s="3">
@@ -5225,7 +5382,7 @@
       <c r="J132" s="15"/>
       <c r="K132" s="15"/>
       <c r="L132" s="6"/>
-      <c r="M132" s="52" t="s">
+      <c r="M132" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N132" s="8"/>
@@ -5233,9 +5390,9 @@
     </row>
     <row r="133" spans="1:15" ht="13.5" thickBot="1">
       <c r="A133" s="1"/>
-      <c r="B133" s="50"/>
-      <c r="C133" s="50"/>
-      <c r="D133" s="50"/>
+      <c r="B133" s="21"/>
+      <c r="C133" s="21"/>
+      <c r="D133" s="21"/>
       <c r="E133" s="1"/>
       <c r="F133" s="2"/>
       <c r="G133" s="3">
@@ -5251,7 +5408,7 @@
       <c r="J133" s="15"/>
       <c r="K133" s="15"/>
       <c r="L133" s="6"/>
-      <c r="M133" s="52" t="s">
+      <c r="M133" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N133" s="8"/>
@@ -5259,9 +5416,9 @@
     </row>
     <row r="134" spans="1:15" ht="13.5" thickBot="1">
       <c r="A134" s="1"/>
-      <c r="B134" s="50"/>
-      <c r="C134" s="50"/>
-      <c r="D134" s="50"/>
+      <c r="B134" s="21"/>
+      <c r="C134" s="21"/>
+      <c r="D134" s="21"/>
       <c r="E134" s="1"/>
       <c r="F134" s="2"/>
       <c r="G134" s="3">
@@ -5277,7 +5434,7 @@
       <c r="J134" s="15"/>
       <c r="K134" s="15"/>
       <c r="L134" s="6"/>
-      <c r="M134" s="52" t="s">
+      <c r="M134" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N134" s="8"/>
@@ -5285,9 +5442,9 @@
     </row>
     <row r="135" spans="1:15" ht="13.5" thickBot="1">
       <c r="A135" s="1"/>
-      <c r="B135" s="50"/>
-      <c r="C135" s="50"/>
-      <c r="D135" s="50"/>
+      <c r="B135" s="21"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="21"/>
       <c r="E135" s="1"/>
       <c r="F135" s="2"/>
       <c r="G135" s="3">
@@ -5303,7 +5460,7 @@
       <c r="J135" s="15"/>
       <c r="K135" s="15"/>
       <c r="L135" s="6"/>
-      <c r="M135" s="52" t="s">
+      <c r="M135" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N135" s="8"/>
@@ -5311,9 +5468,9 @@
     </row>
     <row r="136" spans="1:15" ht="13.5" thickBot="1">
       <c r="A136" s="1"/>
-      <c r="B136" s="50"/>
-      <c r="C136" s="50"/>
-      <c r="D136" s="50"/>
+      <c r="B136" s="21"/>
+      <c r="C136" s="21"/>
+      <c r="D136" s="21"/>
       <c r="E136" s="1"/>
       <c r="F136" s="2"/>
       <c r="G136" s="3">
@@ -5329,7 +5486,7 @@
       <c r="J136" s="15"/>
       <c r="K136" s="15"/>
       <c r="L136" s="6"/>
-      <c r="M136" s="52" t="s">
+      <c r="M136" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N136" s="8"/>
@@ -5337,9 +5494,9 @@
     </row>
     <row r="137" spans="1:15" ht="13.5" thickBot="1">
       <c r="A137" s="1"/>
-      <c r="B137" s="50"/>
-      <c r="C137" s="50"/>
-      <c r="D137" s="50"/>
+      <c r="B137" s="21"/>
+      <c r="C137" s="21"/>
+      <c r="D137" s="21"/>
       <c r="E137" s="1"/>
       <c r="F137" s="2"/>
       <c r="G137" s="3">
@@ -5355,7 +5512,7 @@
       <c r="J137" s="15"/>
       <c r="K137" s="15"/>
       <c r="L137" s="6"/>
-      <c r="M137" s="52" t="s">
+      <c r="M137" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N137" s="8"/>
@@ -5363,9 +5520,9 @@
     </row>
     <row r="138" spans="1:15" ht="13.5" thickBot="1">
       <c r="A138" s="1"/>
-      <c r="B138" s="50"/>
-      <c r="C138" s="50"/>
-      <c r="D138" s="50"/>
+      <c r="B138" s="21"/>
+      <c r="C138" s="21"/>
+      <c r="D138" s="21"/>
       <c r="E138" s="1"/>
       <c r="F138" s="2"/>
       <c r="G138" s="3">
@@ -5381,7 +5538,7 @@
       <c r="J138" s="15"/>
       <c r="K138" s="15"/>
       <c r="L138" s="6"/>
-      <c r="M138" s="52" t="s">
+      <c r="M138" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N138" s="8"/>
@@ -5389,9 +5546,9 @@
     </row>
     <row r="139" spans="1:15" ht="13.5" thickBot="1">
       <c r="A139" s="1"/>
-      <c r="B139" s="50"/>
-      <c r="C139" s="50"/>
-      <c r="D139" s="50"/>
+      <c r="B139" s="21"/>
+      <c r="C139" s="21"/>
+      <c r="D139" s="21"/>
       <c r="E139" s="1"/>
       <c r="F139" s="2"/>
       <c r="G139" s="3">
@@ -5407,7 +5564,7 @@
       <c r="J139" s="15"/>
       <c r="K139" s="15"/>
       <c r="L139" s="6"/>
-      <c r="M139" s="52" t="s">
+      <c r="M139" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N139" s="8"/>
@@ -5415,9 +5572,9 @@
     </row>
     <row r="140" spans="1:15" ht="13.5" thickBot="1">
       <c r="A140" s="1"/>
-      <c r="B140" s="50"/>
-      <c r="C140" s="50"/>
-      <c r="D140" s="50"/>
+      <c r="B140" s="21"/>
+      <c r="C140" s="21"/>
+      <c r="D140" s="21"/>
       <c r="E140" s="1"/>
       <c r="F140" s="2"/>
       <c r="G140" s="3">
@@ -5433,7 +5590,7 @@
       <c r="J140" s="15"/>
       <c r="K140" s="15"/>
       <c r="L140" s="6"/>
-      <c r="M140" s="52" t="s">
+      <c r="M140" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N140" s="8"/>
@@ -5441,9 +5598,9 @@
     </row>
     <row r="141" spans="1:15" ht="13.5" thickBot="1">
       <c r="A141" s="1"/>
-      <c r="B141" s="50"/>
-      <c r="C141" s="50"/>
-      <c r="D141" s="50"/>
+      <c r="B141" s="21"/>
+      <c r="C141" s="21"/>
+      <c r="D141" s="21"/>
       <c r="E141" s="1"/>
       <c r="F141" s="2"/>
       <c r="G141" s="3">
@@ -5459,7 +5616,7 @@
       <c r="J141" s="15"/>
       <c r="K141" s="15"/>
       <c r="L141" s="6"/>
-      <c r="M141" s="52" t="s">
+      <c r="M141" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N141" s="8"/>
@@ -5467,9 +5624,9 @@
     </row>
     <row r="142" spans="1:15" ht="13.5" thickBot="1">
       <c r="A142" s="1"/>
-      <c r="B142" s="50"/>
-      <c r="C142" s="50"/>
-      <c r="D142" s="50"/>
+      <c r="B142" s="21"/>
+      <c r="C142" s="21"/>
+      <c r="D142" s="21"/>
       <c r="E142" s="1"/>
       <c r="F142" s="2"/>
       <c r="G142" s="3">
@@ -5485,7 +5642,7 @@
       <c r="J142" s="15"/>
       <c r="K142" s="15"/>
       <c r="L142" s="6"/>
-      <c r="M142" s="52" t="s">
+      <c r="M142" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N142" s="8"/>
@@ -5493,9 +5650,9 @@
     </row>
     <row r="143" spans="1:15" ht="13.5" thickBot="1">
       <c r="A143" s="1"/>
-      <c r="B143" s="50"/>
-      <c r="C143" s="50"/>
-      <c r="D143" s="50"/>
+      <c r="B143" s="21"/>
+      <c r="C143" s="21"/>
+      <c r="D143" s="21"/>
       <c r="E143" s="1"/>
       <c r="F143" s="2"/>
       <c r="G143" s="3">
@@ -5511,7 +5668,7 @@
       <c r="J143" s="15"/>
       <c r="K143" s="15"/>
       <c r="L143" s="6"/>
-      <c r="M143" s="52" t="s">
+      <c r="M143" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N143" s="8"/>
@@ -5519,9 +5676,9 @@
     </row>
     <row r="144" spans="1:15" ht="13.5" thickBot="1">
       <c r="A144" s="1"/>
-      <c r="B144" s="50"/>
-      <c r="C144" s="50"/>
-      <c r="D144" s="50"/>
+      <c r="B144" s="21"/>
+      <c r="C144" s="21"/>
+      <c r="D144" s="21"/>
       <c r="E144" s="1"/>
       <c r="F144" s="2"/>
       <c r="G144" s="3">
@@ -5537,7 +5694,7 @@
       <c r="J144" s="15"/>
       <c r="K144" s="15"/>
       <c r="L144" s="6"/>
-      <c r="M144" s="52" t="s">
+      <c r="M144" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N144" s="8"/>
@@ -5545,9 +5702,9 @@
     </row>
     <row r="145" spans="1:15" ht="13.5" thickBot="1">
       <c r="A145" s="1"/>
-      <c r="B145" s="50"/>
-      <c r="C145" s="50"/>
-      <c r="D145" s="50"/>
+      <c r="B145" s="21"/>
+      <c r="C145" s="21"/>
+      <c r="D145" s="21"/>
       <c r="E145" s="1"/>
       <c r="F145" s="2"/>
       <c r="G145" s="3">
@@ -5563,7 +5720,7 @@
       <c r="J145" s="15"/>
       <c r="K145" s="15"/>
       <c r="L145" s="6"/>
-      <c r="M145" s="52" t="s">
+      <c r="M145" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N145" s="8"/>
@@ -5571,9 +5728,9 @@
     </row>
     <row r="146" spans="1:15" ht="13.5" thickBot="1">
       <c r="A146" s="1"/>
-      <c r="B146" s="50"/>
-      <c r="C146" s="50"/>
-      <c r="D146" s="50"/>
+      <c r="B146" s="21"/>
+      <c r="C146" s="21"/>
+      <c r="D146" s="21"/>
       <c r="E146" s="1"/>
       <c r="F146" s="2"/>
       <c r="G146" s="3">
@@ -5589,7 +5746,7 @@
       <c r="J146" s="15"/>
       <c r="K146" s="15"/>
       <c r="L146" s="6"/>
-      <c r="M146" s="52" t="s">
+      <c r="M146" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N146" s="8"/>
@@ -5597,9 +5754,9 @@
     </row>
     <row r="147" spans="1:15" ht="13.5" thickBot="1">
       <c r="A147" s="1"/>
-      <c r="B147" s="50"/>
-      <c r="C147" s="50"/>
-      <c r="D147" s="50"/>
+      <c r="B147" s="21"/>
+      <c r="C147" s="21"/>
+      <c r="D147" s="21"/>
       <c r="E147" s="1"/>
       <c r="F147" s="2"/>
       <c r="G147" s="3">
@@ -5615,7 +5772,7 @@
       <c r="J147" s="15"/>
       <c r="K147" s="15"/>
       <c r="L147" s="6"/>
-      <c r="M147" s="52" t="s">
+      <c r="M147" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N147" s="8"/>
@@ -5623,9 +5780,9 @@
     </row>
     <row r="148" spans="1:15" ht="13.5" thickBot="1">
       <c r="A148" s="1"/>
-      <c r="B148" s="50"/>
-      <c r="C148" s="50"/>
-      <c r="D148" s="50"/>
+      <c r="B148" s="21"/>
+      <c r="C148" s="21"/>
+      <c r="D148" s="21"/>
       <c r="E148" s="1"/>
       <c r="F148" s="2"/>
       <c r="G148" s="3">
@@ -5641,7 +5798,7 @@
       <c r="J148" s="15"/>
       <c r="K148" s="15"/>
       <c r="L148" s="6"/>
-      <c r="M148" s="52" t="s">
+      <c r="M148" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N148" s="8"/>
@@ -5649,9 +5806,9 @@
     </row>
     <row r="149" spans="1:15" ht="13.5" thickBot="1">
       <c r="A149" s="1"/>
-      <c r="B149" s="50"/>
-      <c r="C149" s="50"/>
-      <c r="D149" s="50"/>
+      <c r="B149" s="21"/>
+      <c r="C149" s="21"/>
+      <c r="D149" s="21"/>
       <c r="E149" s="1"/>
       <c r="F149" s="2"/>
       <c r="G149" s="3">
@@ -5667,7 +5824,7 @@
       <c r="J149" s="15"/>
       <c r="K149" s="15"/>
       <c r="L149" s="6"/>
-      <c r="M149" s="52" t="s">
+      <c r="M149" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N149" s="8"/>
@@ -5675,9 +5832,9 @@
     </row>
     <row r="150" spans="1:15" ht="13.5" thickBot="1">
       <c r="A150" s="1"/>
-      <c r="B150" s="50"/>
-      <c r="C150" s="50"/>
-      <c r="D150" s="50"/>
+      <c r="B150" s="21"/>
+      <c r="C150" s="21"/>
+      <c r="D150" s="21"/>
       <c r="E150" s="1"/>
       <c r="F150" s="2"/>
       <c r="G150" s="3">
@@ -5693,7 +5850,7 @@
       <c r="J150" s="15"/>
       <c r="K150" s="15"/>
       <c r="L150" s="6"/>
-      <c r="M150" s="52" t="s">
+      <c r="M150" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N150" s="8"/>
@@ -5701,9 +5858,9 @@
     </row>
     <row r="151" spans="1:15" ht="13.5" thickBot="1">
       <c r="A151" s="1"/>
-      <c r="B151" s="50"/>
-      <c r="C151" s="50"/>
-      <c r="D151" s="50"/>
+      <c r="B151" s="21"/>
+      <c r="C151" s="21"/>
+      <c r="D151" s="21"/>
       <c r="E151" s="1"/>
       <c r="F151" s="2"/>
       <c r="G151" s="3">
@@ -5719,7 +5876,7 @@
       <c r="J151" s="15"/>
       <c r="K151" s="15"/>
       <c r="L151" s="6"/>
-      <c r="M151" s="52" t="s">
+      <c r="M151" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N151" s="8"/>
@@ -5727,9 +5884,9 @@
     </row>
     <row r="152" spans="1:15" ht="13.5" thickBot="1">
       <c r="A152" s="1"/>
-      <c r="B152" s="50"/>
-      <c r="C152" s="50"/>
-      <c r="D152" s="50"/>
+      <c r="B152" s="21"/>
+      <c r="C152" s="21"/>
+      <c r="D152" s="21"/>
       <c r="E152" s="1"/>
       <c r="F152" s="2"/>
       <c r="G152" s="3">
@@ -5745,7 +5902,7 @@
       <c r="J152" s="15"/>
       <c r="K152" s="15"/>
       <c r="L152" s="6"/>
-      <c r="M152" s="52" t="s">
+      <c r="M152" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N152" s="8"/>
@@ -5753,9 +5910,9 @@
     </row>
     <row r="153" spans="1:15" ht="13.5" thickBot="1">
       <c r="A153" s="1"/>
-      <c r="B153" s="50"/>
-      <c r="C153" s="50"/>
-      <c r="D153" s="50"/>
+      <c r="B153" s="21"/>
+      <c r="C153" s="21"/>
+      <c r="D153" s="21"/>
       <c r="E153" s="1"/>
       <c r="F153" s="2"/>
       <c r="G153" s="3">
@@ -5771,7 +5928,7 @@
       <c r="J153" s="15"/>
       <c r="K153" s="15"/>
       <c r="L153" s="6"/>
-      <c r="M153" s="52" t="s">
+      <c r="M153" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N153" s="8"/>
@@ -5779,9 +5936,9 @@
     </row>
     <row r="154" spans="1:15" ht="13.5" thickBot="1">
       <c r="A154" s="1"/>
-      <c r="B154" s="50"/>
-      <c r="C154" s="50"/>
-      <c r="D154" s="50"/>
+      <c r="B154" s="21"/>
+      <c r="C154" s="21"/>
+      <c r="D154" s="21"/>
       <c r="E154" s="1"/>
       <c r="F154" s="2"/>
       <c r="G154" s="3">
@@ -5797,7 +5954,7 @@
       <c r="J154" s="15"/>
       <c r="K154" s="15"/>
       <c r="L154" s="6"/>
-      <c r="M154" s="52" t="s">
+      <c r="M154" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N154" s="8"/>
@@ -5805,9 +5962,9 @@
     </row>
     <row r="155" spans="1:15" ht="13.5" thickBot="1">
       <c r="A155" s="1"/>
-      <c r="B155" s="50"/>
-      <c r="C155" s="50"/>
-      <c r="D155" s="50"/>
+      <c r="B155" s="21"/>
+      <c r="C155" s="21"/>
+      <c r="D155" s="21"/>
       <c r="E155" s="1"/>
       <c r="F155" s="2"/>
       <c r="G155" s="3">
@@ -5823,7 +5980,7 @@
       <c r="J155" s="15"/>
       <c r="K155" s="15"/>
       <c r="L155" s="6"/>
-      <c r="M155" s="52" t="s">
+      <c r="M155" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N155" s="8"/>
@@ -5831,9 +5988,9 @@
     </row>
     <row r="156" spans="1:15" ht="13.5" thickBot="1">
       <c r="A156" s="1"/>
-      <c r="B156" s="50"/>
-      <c r="C156" s="50"/>
-      <c r="D156" s="50"/>
+      <c r="B156" s="21"/>
+      <c r="C156" s="21"/>
+      <c r="D156" s="21"/>
       <c r="E156" s="1"/>
       <c r="F156" s="2"/>
       <c r="G156" s="3">
@@ -5849,7 +6006,7 @@
       <c r="J156" s="15"/>
       <c r="K156" s="15"/>
       <c r="L156" s="6"/>
-      <c r="M156" s="52" t="s">
+      <c r="M156" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N156" s="8"/>
@@ -5857,9 +6014,9 @@
     </row>
     <row r="157" spans="1:15" ht="13.5" thickBot="1">
       <c r="A157" s="1"/>
-      <c r="B157" s="50"/>
-      <c r="C157" s="50"/>
-      <c r="D157" s="50"/>
+      <c r="B157" s="21"/>
+      <c r="C157" s="21"/>
+      <c r="D157" s="21"/>
       <c r="E157" s="1"/>
       <c r="F157" s="2"/>
       <c r="G157" s="3">
@@ -5875,7 +6032,7 @@
       <c r="J157" s="15"/>
       <c r="K157" s="15"/>
       <c r="L157" s="6"/>
-      <c r="M157" s="52" t="s">
+      <c r="M157" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N157" s="8"/>
@@ -5883,9 +6040,9 @@
     </row>
     <row r="158" spans="1:15" ht="13.5" thickBot="1">
       <c r="A158" s="1"/>
-      <c r="B158" s="50"/>
-      <c r="C158" s="50"/>
-      <c r="D158" s="50"/>
+      <c r="B158" s="21"/>
+      <c r="C158" s="21"/>
+      <c r="D158" s="21"/>
       <c r="E158" s="1"/>
       <c r="F158" s="2"/>
       <c r="G158" s="3">
@@ -5901,7 +6058,7 @@
       <c r="J158" s="15"/>
       <c r="K158" s="15"/>
       <c r="L158" s="6"/>
-      <c r="M158" s="52" t="s">
+      <c r="M158" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N158" s="8"/>
@@ -5909,9 +6066,9 @@
     </row>
     <row r="159" spans="1:15" ht="13.5" thickBot="1">
       <c r="A159" s="1"/>
-      <c r="B159" s="50"/>
-      <c r="C159" s="50"/>
-      <c r="D159" s="50"/>
+      <c r="B159" s="21"/>
+      <c r="C159" s="21"/>
+      <c r="D159" s="21"/>
       <c r="E159" s="1"/>
       <c r="F159" s="2"/>
       <c r="G159" s="3">
@@ -5927,7 +6084,7 @@
       <c r="J159" s="15"/>
       <c r="K159" s="15"/>
       <c r="L159" s="6"/>
-      <c r="M159" s="52" t="s">
+      <c r="M159" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N159" s="8"/>
@@ -5935,9 +6092,9 @@
     </row>
     <row r="160" spans="1:15" ht="13.5" thickBot="1">
       <c r="A160" s="1"/>
-      <c r="B160" s="50"/>
-      <c r="C160" s="50"/>
-      <c r="D160" s="50"/>
+      <c r="B160" s="21"/>
+      <c r="C160" s="21"/>
+      <c r="D160" s="21"/>
       <c r="E160" s="1"/>
       <c r="F160" s="2"/>
       <c r="G160" s="3">
@@ -5953,7 +6110,7 @@
       <c r="J160" s="15"/>
       <c r="K160" s="15"/>
       <c r="L160" s="6"/>
-      <c r="M160" s="52" t="s">
+      <c r="M160" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N160" s="8"/>
@@ -5961,9 +6118,9 @@
     </row>
     <row r="161" spans="1:15" ht="13.5" thickBot="1">
       <c r="A161" s="1"/>
-      <c r="B161" s="50"/>
-      <c r="C161" s="50"/>
-      <c r="D161" s="50"/>
+      <c r="B161" s="21"/>
+      <c r="C161" s="21"/>
+      <c r="D161" s="21"/>
       <c r="E161" s="1"/>
       <c r="F161" s="2"/>
       <c r="G161" s="3">
@@ -5979,7 +6136,7 @@
       <c r="J161" s="15"/>
       <c r="K161" s="15"/>
       <c r="L161" s="6"/>
-      <c r="M161" s="52" t="s">
+      <c r="M161" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N161" s="8"/>
@@ -5987,9 +6144,9 @@
     </row>
     <row r="162" spans="1:15" ht="13.5" thickBot="1">
       <c r="A162" s="1"/>
-      <c r="B162" s="50"/>
-      <c r="C162" s="50"/>
-      <c r="D162" s="50"/>
+      <c r="B162" s="21"/>
+      <c r="C162" s="21"/>
+      <c r="D162" s="21"/>
       <c r="E162" s="1"/>
       <c r="F162" s="2"/>
       <c r="G162" s="3">
@@ -6005,7 +6162,7 @@
       <c r="J162" s="15"/>
       <c r="K162" s="15"/>
       <c r="L162" s="6"/>
-      <c r="M162" s="52" t="s">
+      <c r="M162" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N162" s="8"/>
@@ -6013,9 +6170,9 @@
     </row>
     <row r="163" spans="1:15" ht="13.5" thickBot="1">
       <c r="A163" s="1"/>
-      <c r="B163" s="50"/>
-      <c r="C163" s="50"/>
-      <c r="D163" s="50"/>
+      <c r="B163" s="21"/>
+      <c r="C163" s="21"/>
+      <c r="D163" s="21"/>
       <c r="E163" s="1"/>
       <c r="F163" s="2"/>
       <c r="G163" s="3">
@@ -6031,7 +6188,7 @@
       <c r="J163" s="15"/>
       <c r="K163" s="15"/>
       <c r="L163" s="6"/>
-      <c r="M163" s="52" t="s">
+      <c r="M163" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N163" s="8"/>
@@ -6039,9 +6196,9 @@
     </row>
     <row r="164" spans="1:15" ht="13.5" thickBot="1">
       <c r="A164" s="1"/>
-      <c r="B164" s="50"/>
-      <c r="C164" s="50"/>
-      <c r="D164" s="50"/>
+      <c r="B164" s="21"/>
+      <c r="C164" s="21"/>
+      <c r="D164" s="21"/>
       <c r="E164" s="1"/>
       <c r="F164" s="2"/>
       <c r="G164" s="3">
@@ -6057,7 +6214,7 @@
       <c r="J164" s="15"/>
       <c r="K164" s="15"/>
       <c r="L164" s="6"/>
-      <c r="M164" s="52" t="s">
+      <c r="M164" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N164" s="8"/>
@@ -6065,9 +6222,9 @@
     </row>
     <row r="165" spans="1:15" ht="13.5" thickBot="1">
       <c r="A165" s="1"/>
-      <c r="B165" s="50"/>
-      <c r="C165" s="50"/>
-      <c r="D165" s="50"/>
+      <c r="B165" s="21"/>
+      <c r="C165" s="21"/>
+      <c r="D165" s="21"/>
       <c r="E165" s="1"/>
       <c r="F165" s="2"/>
       <c r="G165" s="3">
@@ -6083,7 +6240,7 @@
       <c r="J165" s="15"/>
       <c r="K165" s="15"/>
       <c r="L165" s="6"/>
-      <c r="M165" s="52" t="s">
+      <c r="M165" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N165" s="8"/>
@@ -6091,9 +6248,9 @@
     </row>
     <row r="166" spans="1:15" ht="13.5" thickBot="1">
       <c r="A166" s="1"/>
-      <c r="B166" s="50"/>
-      <c r="C166" s="50"/>
-      <c r="D166" s="50"/>
+      <c r="B166" s="21"/>
+      <c r="C166" s="21"/>
+      <c r="D166" s="21"/>
       <c r="E166" s="1"/>
       <c r="F166" s="2"/>
       <c r="G166" s="3">
@@ -6109,7 +6266,7 @@
       <c r="J166" s="15"/>
       <c r="K166" s="15"/>
       <c r="L166" s="6"/>
-      <c r="M166" s="52" t="s">
+      <c r="M166" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N166" s="8"/>
@@ -6117,9 +6274,9 @@
     </row>
     <row r="167" spans="1:15" ht="13.5" thickBot="1">
       <c r="A167" s="1"/>
-      <c r="B167" s="50"/>
-      <c r="C167" s="50"/>
-      <c r="D167" s="50"/>
+      <c r="B167" s="21"/>
+      <c r="C167" s="21"/>
+      <c r="D167" s="21"/>
       <c r="E167" s="1"/>
       <c r="F167" s="2"/>
       <c r="G167" s="3">
@@ -6135,7 +6292,7 @@
       <c r="J167" s="15"/>
       <c r="K167" s="15"/>
       <c r="L167" s="6"/>
-      <c r="M167" s="52" t="s">
+      <c r="M167" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N167" s="8"/>
@@ -6143,9 +6300,9 @@
     </row>
     <row r="168" spans="1:15" ht="13.5" thickBot="1">
       <c r="A168" s="1"/>
-      <c r="B168" s="50"/>
-      <c r="C168" s="50"/>
-      <c r="D168" s="50"/>
+      <c r="B168" s="21"/>
+      <c r="C168" s="21"/>
+      <c r="D168" s="21"/>
       <c r="E168" s="1"/>
       <c r="F168" s="2"/>
       <c r="G168" s="3">
@@ -6161,7 +6318,7 @@
       <c r="J168" s="15"/>
       <c r="K168" s="15"/>
       <c r="L168" s="6"/>
-      <c r="M168" s="52" t="s">
+      <c r="M168" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N168" s="8"/>
@@ -6169,9 +6326,9 @@
     </row>
     <row r="169" spans="1:15" ht="13.5" thickBot="1">
       <c r="A169" s="1"/>
-      <c r="B169" s="50"/>
-      <c r="C169" s="50"/>
-      <c r="D169" s="50"/>
+      <c r="B169" s="21"/>
+      <c r="C169" s="21"/>
+      <c r="D169" s="21"/>
       <c r="E169" s="1"/>
       <c r="F169" s="2"/>
       <c r="G169" s="3">
@@ -6187,7 +6344,7 @@
       <c r="J169" s="15"/>
       <c r="K169" s="15"/>
       <c r="L169" s="6"/>
-      <c r="M169" s="52" t="s">
+      <c r="M169" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N169" s="8"/>
@@ -6195,9 +6352,9 @@
     </row>
     <row r="170" spans="1:15" ht="13.5" thickBot="1">
       <c r="A170" s="1"/>
-      <c r="B170" s="50"/>
-      <c r="C170" s="50"/>
-      <c r="D170" s="50"/>
+      <c r="B170" s="21"/>
+      <c r="C170" s="21"/>
+      <c r="D170" s="21"/>
       <c r="E170" s="1"/>
       <c r="F170" s="2"/>
       <c r="G170" s="3">
@@ -6213,7 +6370,7 @@
       <c r="J170" s="15"/>
       <c r="K170" s="15"/>
       <c r="L170" s="6"/>
-      <c r="M170" s="52" t="s">
+      <c r="M170" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N170" s="8"/>
@@ -6221,9 +6378,9 @@
     </row>
     <row r="171" spans="1:15" ht="13.5" thickBot="1">
       <c r="A171" s="1"/>
-      <c r="B171" s="50"/>
-      <c r="C171" s="50"/>
-      <c r="D171" s="50"/>
+      <c r="B171" s="21"/>
+      <c r="C171" s="21"/>
+      <c r="D171" s="21"/>
       <c r="E171" s="1"/>
       <c r="F171" s="2"/>
       <c r="G171" s="3">
@@ -6239,7 +6396,7 @@
       <c r="J171" s="15"/>
       <c r="K171" s="15"/>
       <c r="L171" s="6"/>
-      <c r="M171" s="52" t="s">
+      <c r="M171" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N171" s="8"/>
@@ -6247,9 +6404,9 @@
     </row>
     <row r="172" spans="1:15" ht="13.5" thickBot="1">
       <c r="A172" s="1"/>
-      <c r="B172" s="50"/>
-      <c r="C172" s="50"/>
-      <c r="D172" s="50"/>
+      <c r="B172" s="21"/>
+      <c r="C172" s="21"/>
+      <c r="D172" s="21"/>
       <c r="E172" s="1"/>
       <c r="F172" s="2"/>
       <c r="G172" s="3">
@@ -6265,7 +6422,7 @@
       <c r="J172" s="15"/>
       <c r="K172" s="15"/>
       <c r="L172" s="6"/>
-      <c r="M172" s="52" t="s">
+      <c r="M172" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N172" s="8"/>
@@ -6273,9 +6430,9 @@
     </row>
     <row r="173" spans="1:15" ht="13.5" thickBot="1">
       <c r="A173" s="1"/>
-      <c r="B173" s="50"/>
-      <c r="C173" s="50"/>
-      <c r="D173" s="50"/>
+      <c r="B173" s="21"/>
+      <c r="C173" s="21"/>
+      <c r="D173" s="21"/>
       <c r="E173" s="1"/>
       <c r="F173" s="2"/>
       <c r="G173" s="3">
@@ -6291,7 +6448,7 @@
       <c r="J173" s="15"/>
       <c r="K173" s="15"/>
       <c r="L173" s="6"/>
-      <c r="M173" s="52" t="s">
+      <c r="M173" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N173" s="8"/>
@@ -6299,9 +6456,9 @@
     </row>
     <row r="174" spans="1:15" ht="13.5" thickBot="1">
       <c r="A174" s="1"/>
-      <c r="B174" s="50"/>
-      <c r="C174" s="50"/>
-      <c r="D174" s="50"/>
+      <c r="B174" s="21"/>
+      <c r="C174" s="21"/>
+      <c r="D174" s="21"/>
       <c r="E174" s="1"/>
       <c r="F174" s="2"/>
       <c r="G174" s="3">
@@ -6317,7 +6474,7 @@
       <c r="J174" s="15"/>
       <c r="K174" s="15"/>
       <c r="L174" s="6"/>
-      <c r="M174" s="52" t="s">
+      <c r="M174" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N174" s="8"/>
@@ -6325,9 +6482,9 @@
     </row>
     <row r="175" spans="1:15" ht="13.5" thickBot="1">
       <c r="A175" s="1"/>
-      <c r="B175" s="50"/>
-      <c r="C175" s="50"/>
-      <c r="D175" s="50"/>
+      <c r="B175" s="21"/>
+      <c r="C175" s="21"/>
+      <c r="D175" s="21"/>
       <c r="E175" s="1"/>
       <c r="F175" s="2"/>
       <c r="G175" s="3">
@@ -6343,7 +6500,7 @@
       <c r="J175" s="15"/>
       <c r="K175" s="15"/>
       <c r="L175" s="6"/>
-      <c r="M175" s="52" t="s">
+      <c r="M175" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N175" s="8"/>
@@ -6351,9 +6508,9 @@
     </row>
     <row r="176" spans="1:15" ht="13.5" thickBot="1">
       <c r="A176" s="1"/>
-      <c r="B176" s="50"/>
-      <c r="C176" s="50"/>
-      <c r="D176" s="50"/>
+      <c r="B176" s="21"/>
+      <c r="C176" s="21"/>
+      <c r="D176" s="21"/>
       <c r="E176" s="1"/>
       <c r="F176" s="2"/>
       <c r="G176" s="3">
@@ -6369,7 +6526,7 @@
       <c r="J176" s="15"/>
       <c r="K176" s="15"/>
       <c r="L176" s="6"/>
-      <c r="M176" s="52" t="s">
+      <c r="M176" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N176" s="8"/>
@@ -6377,9 +6534,9 @@
     </row>
     <row r="177" spans="1:15" ht="13.5" thickBot="1">
       <c r="A177" s="1"/>
-      <c r="B177" s="50"/>
-      <c r="C177" s="50"/>
-      <c r="D177" s="50"/>
+      <c r="B177" s="21"/>
+      <c r="C177" s="21"/>
+      <c r="D177" s="21"/>
       <c r="E177" s="1"/>
       <c r="F177" s="2"/>
       <c r="G177" s="3">
@@ -6395,7 +6552,7 @@
       <c r="J177" s="15"/>
       <c r="K177" s="15"/>
       <c r="L177" s="6"/>
-      <c r="M177" s="52" t="s">
+      <c r="M177" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N177" s="8"/>
@@ -6403,9 +6560,9 @@
     </row>
     <row r="178" spans="1:15" ht="13.5" thickBot="1">
       <c r="A178" s="1"/>
-      <c r="B178" s="50"/>
-      <c r="C178" s="50"/>
-      <c r="D178" s="50"/>
+      <c r="B178" s="21"/>
+      <c r="C178" s="21"/>
+      <c r="D178" s="21"/>
       <c r="E178" s="1"/>
       <c r="F178" s="2"/>
       <c r="G178" s="3">
@@ -6421,7 +6578,7 @@
       <c r="J178" s="15"/>
       <c r="K178" s="15"/>
       <c r="L178" s="6"/>
-      <c r="M178" s="52" t="s">
+      <c r="M178" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N178" s="8"/>
@@ -6429,9 +6586,9 @@
     </row>
     <row r="179" spans="1:15" ht="13.5" thickBot="1">
       <c r="A179" s="1"/>
-      <c r="B179" s="50"/>
-      <c r="C179" s="50"/>
-      <c r="D179" s="50"/>
+      <c r="B179" s="21"/>
+      <c r="C179" s="21"/>
+      <c r="D179" s="21"/>
       <c r="E179" s="1"/>
       <c r="F179" s="2"/>
       <c r="G179" s="3">
@@ -6447,7 +6604,7 @@
       <c r="J179" s="15"/>
       <c r="K179" s="15"/>
       <c r="L179" s="6"/>
-      <c r="M179" s="52" t="s">
+      <c r="M179" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N179" s="8"/>
@@ -6455,9 +6612,9 @@
     </row>
     <row r="180" spans="1:15" ht="13.5" thickBot="1">
       <c r="A180" s="1"/>
-      <c r="B180" s="50"/>
-      <c r="C180" s="50"/>
-      <c r="D180" s="50"/>
+      <c r="B180" s="21"/>
+      <c r="C180" s="21"/>
+      <c r="D180" s="21"/>
       <c r="E180" s="1"/>
       <c r="F180" s="2"/>
       <c r="G180" s="3">
@@ -6473,7 +6630,7 @@
       <c r="J180" s="15"/>
       <c r="K180" s="15"/>
       <c r="L180" s="6"/>
-      <c r="M180" s="52" t="s">
+      <c r="M180" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N180" s="8"/>
@@ -6481,9 +6638,9 @@
     </row>
     <row r="181" spans="1:15" ht="13.5" thickBot="1">
       <c r="A181" s="1"/>
-      <c r="B181" s="50"/>
-      <c r="C181" s="50"/>
-      <c r="D181" s="50"/>
+      <c r="B181" s="21"/>
+      <c r="C181" s="21"/>
+      <c r="D181" s="21"/>
       <c r="E181" s="1"/>
       <c r="F181" s="2"/>
       <c r="G181" s="3">
@@ -6499,7 +6656,7 @@
       <c r="J181" s="15"/>
       <c r="K181" s="15"/>
       <c r="L181" s="6"/>
-      <c r="M181" s="52" t="s">
+      <c r="M181" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N181" s="8"/>
@@ -6507,9 +6664,9 @@
     </row>
     <row r="182" spans="1:15" ht="13.5" thickBot="1">
       <c r="A182" s="1"/>
-      <c r="B182" s="50"/>
-      <c r="C182" s="50"/>
-      <c r="D182" s="50"/>
+      <c r="B182" s="21"/>
+      <c r="C182" s="21"/>
+      <c r="D182" s="21"/>
       <c r="E182" s="1"/>
       <c r="F182" s="2"/>
       <c r="G182" s="3">
@@ -6525,7 +6682,7 @@
       <c r="J182" s="15"/>
       <c r="K182" s="15"/>
       <c r="L182" s="6"/>
-      <c r="M182" s="52" t="s">
+      <c r="M182" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N182" s="8"/>
@@ -6533,9 +6690,9 @@
     </row>
     <row r="183" spans="1:15" ht="13.5" thickBot="1">
       <c r="A183" s="1"/>
-      <c r="B183" s="50"/>
-      <c r="C183" s="50"/>
-      <c r="D183" s="50"/>
+      <c r="B183" s="21"/>
+      <c r="C183" s="21"/>
+      <c r="D183" s="21"/>
       <c r="E183" s="1"/>
       <c r="F183" s="2"/>
       <c r="G183" s="3">
@@ -6551,7 +6708,7 @@
       <c r="J183" s="15"/>
       <c r="K183" s="15"/>
       <c r="L183" s="6"/>
-      <c r="M183" s="52" t="s">
+      <c r="M183" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N183" s="8"/>
@@ -6559,9 +6716,9 @@
     </row>
     <row r="184" spans="1:15" ht="13.5" thickBot="1">
       <c r="A184" s="1"/>
-      <c r="B184" s="50"/>
-      <c r="C184" s="50"/>
-      <c r="D184" s="50"/>
+      <c r="B184" s="21"/>
+      <c r="C184" s="21"/>
+      <c r="D184" s="21"/>
       <c r="E184" s="1"/>
       <c r="F184" s="2"/>
       <c r="G184" s="3">
@@ -6577,7 +6734,7 @@
       <c r="J184" s="15"/>
       <c r="K184" s="15"/>
       <c r="L184" s="6"/>
-      <c r="M184" s="52" t="s">
+      <c r="M184" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N184" s="8"/>
@@ -6585,9 +6742,9 @@
     </row>
     <row r="185" spans="1:15" ht="13.5" thickBot="1">
       <c r="A185" s="1"/>
-      <c r="B185" s="50"/>
-      <c r="C185" s="50"/>
-      <c r="D185" s="50"/>
+      <c r="B185" s="21"/>
+      <c r="C185" s="21"/>
+      <c r="D185" s="21"/>
       <c r="E185" s="1"/>
       <c r="F185" s="2"/>
       <c r="G185" s="3">
@@ -6603,7 +6760,7 @@
       <c r="J185" s="15"/>
       <c r="K185" s="15"/>
       <c r="L185" s="6"/>
-      <c r="M185" s="52" t="s">
+      <c r="M185" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N185" s="8"/>
@@ -6611,9 +6768,9 @@
     </row>
     <row r="186" spans="1:15" ht="13.5" thickBot="1">
       <c r="A186" s="1"/>
-      <c r="B186" s="50"/>
-      <c r="C186" s="50"/>
-      <c r="D186" s="50"/>
+      <c r="B186" s="21"/>
+      <c r="C186" s="21"/>
+      <c r="D186" s="21"/>
       <c r="E186" s="1"/>
       <c r="F186" s="2"/>
       <c r="G186" s="3">
@@ -6629,7 +6786,7 @@
       <c r="J186" s="15"/>
       <c r="K186" s="15"/>
       <c r="L186" s="6"/>
-      <c r="M186" s="52" t="s">
+      <c r="M186" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N186" s="8"/>
@@ -6637,9 +6794,9 @@
     </row>
     <row r="187" spans="1:15" ht="13.5" thickBot="1">
       <c r="A187" s="1"/>
-      <c r="B187" s="50"/>
-      <c r="C187" s="50"/>
-      <c r="D187" s="50"/>
+      <c r="B187" s="21"/>
+      <c r="C187" s="21"/>
+      <c r="D187" s="21"/>
       <c r="E187" s="1"/>
       <c r="F187" s="2"/>
       <c r="G187" s="3">
@@ -6655,7 +6812,7 @@
       <c r="J187" s="15"/>
       <c r="K187" s="15"/>
       <c r="L187" s="6"/>
-      <c r="M187" s="52" t="s">
+      <c r="M187" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N187" s="8"/>
@@ -6663,9 +6820,9 @@
     </row>
     <row r="188" spans="1:15" ht="13.5" thickBot="1">
       <c r="A188" s="1"/>
-      <c r="B188" s="50"/>
-      <c r="C188" s="50"/>
-      <c r="D188" s="50"/>
+      <c r="B188" s="21"/>
+      <c r="C188" s="21"/>
+      <c r="D188" s="21"/>
       <c r="E188" s="1"/>
       <c r="F188" s="2"/>
       <c r="G188" s="3">
@@ -6681,7 +6838,7 @@
       <c r="J188" s="15"/>
       <c r="K188" s="15"/>
       <c r="L188" s="6"/>
-      <c r="M188" s="52" t="s">
+      <c r="M188" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N188" s="8"/>
@@ -6689,9 +6846,9 @@
     </row>
     <row r="189" spans="1:15" ht="13.5" thickBot="1">
       <c r="A189" s="1"/>
-      <c r="B189" s="50"/>
-      <c r="C189" s="50"/>
-      <c r="D189" s="50"/>
+      <c r="B189" s="21"/>
+      <c r="C189" s="21"/>
+      <c r="D189" s="21"/>
       <c r="E189" s="1"/>
       <c r="F189" s="2"/>
       <c r="G189" s="3">
@@ -6707,7 +6864,7 @@
       <c r="J189" s="15"/>
       <c r="K189" s="15"/>
       <c r="L189" s="6"/>
-      <c r="M189" s="52" t="s">
+      <c r="M189" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N189" s="8"/>
@@ -6715,9 +6872,9 @@
     </row>
     <row r="190" spans="1:15" ht="13.5" thickBot="1">
       <c r="A190" s="1"/>
-      <c r="B190" s="50"/>
-      <c r="C190" s="50"/>
-      <c r="D190" s="50"/>
+      <c r="B190" s="21"/>
+      <c r="C190" s="21"/>
+      <c r="D190" s="21"/>
       <c r="E190" s="1"/>
       <c r="F190" s="2"/>
       <c r="G190" s="3">
@@ -6733,7 +6890,7 @@
       <c r="J190" s="15"/>
       <c r="K190" s="15"/>
       <c r="L190" s="6"/>
-      <c r="M190" s="52" t="s">
+      <c r="M190" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N190" s="8"/>
@@ -6741,9 +6898,9 @@
     </row>
     <row r="191" spans="1:15" ht="13.5" thickBot="1">
       <c r="A191" s="1"/>
-      <c r="B191" s="50"/>
-      <c r="C191" s="50"/>
-      <c r="D191" s="50"/>
+      <c r="B191" s="21"/>
+      <c r="C191" s="21"/>
+      <c r="D191" s="21"/>
       <c r="E191" s="1"/>
       <c r="F191" s="2"/>
       <c r="G191" s="3">
@@ -6759,7 +6916,7 @@
       <c r="J191" s="15"/>
       <c r="K191" s="15"/>
       <c r="L191" s="6"/>
-      <c r="M191" s="52" t="s">
+      <c r="M191" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N191" s="8"/>
@@ -6767,9 +6924,9 @@
     </row>
     <row r="192" spans="1:15" ht="13.5" thickBot="1">
       <c r="A192" s="1"/>
-      <c r="B192" s="50"/>
-      <c r="C192" s="50"/>
-      <c r="D192" s="50"/>
+      <c r="B192" s="21"/>
+      <c r="C192" s="21"/>
+      <c r="D192" s="21"/>
       <c r="E192" s="1"/>
       <c r="F192" s="2"/>
       <c r="G192" s="3">
@@ -6785,7 +6942,7 @@
       <c r="J192" s="15"/>
       <c r="K192" s="15"/>
       <c r="L192" s="6"/>
-      <c r="M192" s="52" t="s">
+      <c r="M192" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N192" s="8"/>
@@ -6793,9 +6950,9 @@
     </row>
     <row r="193" spans="1:15" ht="13.5" thickBot="1">
       <c r="A193" s="1"/>
-      <c r="B193" s="50"/>
-      <c r="C193" s="50"/>
-      <c r="D193" s="50"/>
+      <c r="B193" s="21"/>
+      <c r="C193" s="21"/>
+      <c r="D193" s="21"/>
       <c r="E193" s="1"/>
       <c r="F193" s="2"/>
       <c r="G193" s="3">
@@ -6811,7 +6968,7 @@
       <c r="J193" s="15"/>
       <c r="K193" s="15"/>
       <c r="L193" s="6"/>
-      <c r="M193" s="52" t="s">
+      <c r="M193" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N193" s="8"/>
@@ -6819,9 +6976,9 @@
     </row>
     <row r="194" spans="1:15" ht="13.5" thickBot="1">
       <c r="A194" s="1"/>
-      <c r="B194" s="50"/>
-      <c r="C194" s="50"/>
-      <c r="D194" s="50"/>
+      <c r="B194" s="21"/>
+      <c r="C194" s="21"/>
+      <c r="D194" s="21"/>
       <c r="E194" s="1"/>
       <c r="F194" s="2"/>
       <c r="G194" s="3">
@@ -6837,7 +6994,7 @@
       <c r="J194" s="15"/>
       <c r="K194" s="15"/>
       <c r="L194" s="6"/>
-      <c r="M194" s="52" t="s">
+      <c r="M194" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N194" s="8"/>
@@ -6845,9 +7002,9 @@
     </row>
     <row r="195" spans="1:15" ht="13.5" thickBot="1">
       <c r="A195" s="1"/>
-      <c r="B195" s="50"/>
-      <c r="C195" s="50"/>
-      <c r="D195" s="50"/>
+      <c r="B195" s="21"/>
+      <c r="C195" s="21"/>
+      <c r="D195" s="21"/>
       <c r="E195" s="1"/>
       <c r="F195" s="2"/>
       <c r="G195" s="3">
@@ -6863,7 +7020,7 @@
       <c r="J195" s="15"/>
       <c r="K195" s="15"/>
       <c r="L195" s="6"/>
-      <c r="M195" s="52" t="s">
+      <c r="M195" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N195" s="8"/>
@@ -6871,9 +7028,9 @@
     </row>
     <row r="196" spans="1:15" ht="13.5" thickBot="1">
       <c r="A196" s="1"/>
-      <c r="B196" s="50"/>
-      <c r="C196" s="50"/>
-      <c r="D196" s="50"/>
+      <c r="B196" s="21"/>
+      <c r="C196" s="21"/>
+      <c r="D196" s="21"/>
       <c r="E196" s="1"/>
       <c r="F196" s="2"/>
       <c r="G196" s="3">
@@ -6889,7 +7046,7 @@
       <c r="J196" s="15"/>
       <c r="K196" s="15"/>
       <c r="L196" s="6"/>
-      <c r="M196" s="52" t="s">
+      <c r="M196" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N196" s="8"/>
@@ -6897,9 +7054,9 @@
     </row>
     <row r="197" spans="1:15" ht="13.5" thickBot="1">
       <c r="A197" s="1"/>
-      <c r="B197" s="50"/>
-      <c r="C197" s="50"/>
-      <c r="D197" s="50"/>
+      <c r="B197" s="21"/>
+      <c r="C197" s="21"/>
+      <c r="D197" s="21"/>
       <c r="E197" s="1"/>
       <c r="F197" s="2"/>
       <c r="G197" s="3">
@@ -6915,7 +7072,7 @@
       <c r="J197" s="15"/>
       <c r="K197" s="15"/>
       <c r="L197" s="6"/>
-      <c r="M197" s="52" t="s">
+      <c r="M197" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N197" s="8"/>
@@ -6923,9 +7080,9 @@
     </row>
     <row r="198" spans="1:15" ht="13.5" thickBot="1">
       <c r="A198" s="1"/>
-      <c r="B198" s="50"/>
-      <c r="C198" s="50"/>
-      <c r="D198" s="50"/>
+      <c r="B198" s="21"/>
+      <c r="C198" s="21"/>
+      <c r="D198" s="21"/>
       <c r="E198" s="1"/>
       <c r="F198" s="2"/>
       <c r="G198" s="3">
@@ -6941,7 +7098,7 @@
       <c r="J198" s="15"/>
       <c r="K198" s="15"/>
       <c r="L198" s="6"/>
-      <c r="M198" s="52" t="s">
+      <c r="M198" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N198" s="8"/>
@@ -6949,9 +7106,9 @@
     </row>
     <row r="199" spans="1:15" ht="13.5" thickBot="1">
       <c r="A199" s="1"/>
-      <c r="B199" s="50"/>
-      <c r="C199" s="50"/>
-      <c r="D199" s="50"/>
+      <c r="B199" s="21"/>
+      <c r="C199" s="21"/>
+      <c r="D199" s="21"/>
       <c r="E199" s="1"/>
       <c r="F199" s="2"/>
       <c r="G199" s="3">
@@ -6967,7 +7124,7 @@
       <c r="J199" s="15"/>
       <c r="K199" s="15"/>
       <c r="L199" s="6"/>
-      <c r="M199" s="52" t="s">
+      <c r="M199" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N199" s="8"/>
@@ -6975,9 +7132,9 @@
     </row>
     <row r="200" spans="1:15" ht="13.5" thickBot="1">
       <c r="A200" s="1"/>
-      <c r="B200" s="50"/>
-      <c r="C200" s="50"/>
-      <c r="D200" s="50"/>
+      <c r="B200" s="21"/>
+      <c r="C200" s="21"/>
+      <c r="D200" s="21"/>
       <c r="E200" s="1"/>
       <c r="F200" s="2"/>
       <c r="G200" s="3">
@@ -6993,7 +7150,7 @@
       <c r="J200" s="15"/>
       <c r="K200" s="15"/>
       <c r="L200" s="6"/>
-      <c r="M200" s="52" t="s">
+      <c r="M200" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N200" s="8"/>
@@ -7001,9 +7158,9 @@
     </row>
     <row r="201" spans="1:15" ht="13.5" thickBot="1">
       <c r="A201" s="1"/>
-      <c r="B201" s="50"/>
-      <c r="C201" s="50"/>
-      <c r="D201" s="50"/>
+      <c r="B201" s="21"/>
+      <c r="C201" s="21"/>
+      <c r="D201" s="21"/>
       <c r="E201" s="1"/>
       <c r="F201" s="2"/>
       <c r="G201" s="3">
@@ -7019,7 +7176,7 @@
       <c r="J201" s="15"/>
       <c r="K201" s="15"/>
       <c r="L201" s="6"/>
-      <c r="M201" s="52" t="s">
+      <c r="M201" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N201" s="8"/>
@@ -7027,9 +7184,9 @@
     </row>
     <row r="202" spans="1:15" ht="13.5" thickBot="1">
       <c r="A202" s="1"/>
-      <c r="B202" s="50"/>
-      <c r="C202" s="50"/>
-      <c r="D202" s="50"/>
+      <c r="B202" s="21"/>
+      <c r="C202" s="21"/>
+      <c r="D202" s="21"/>
       <c r="E202" s="1"/>
       <c r="F202" s="2"/>
       <c r="G202" s="3">
@@ -7045,7 +7202,7 @@
       <c r="J202" s="15"/>
       <c r="K202" s="15"/>
       <c r="L202" s="6"/>
-      <c r="M202" s="52" t="s">
+      <c r="M202" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N202" s="8"/>
@@ -7053,9 +7210,9 @@
     </row>
     <row r="203" spans="1:15" ht="13.5" thickBot="1">
       <c r="A203" s="1"/>
-      <c r="B203" s="50"/>
-      <c r="C203" s="50"/>
-      <c r="D203" s="50"/>
+      <c r="B203" s="21"/>
+      <c r="C203" s="21"/>
+      <c r="D203" s="21"/>
       <c r="E203" s="1"/>
       <c r="F203" s="2"/>
       <c r="G203" s="3">
@@ -7071,7 +7228,7 @@
       <c r="J203" s="15"/>
       <c r="K203" s="15"/>
       <c r="L203" s="6"/>
-      <c r="M203" s="52" t="s">
+      <c r="M203" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N203" s="8"/>
@@ -7079,9 +7236,9 @@
     </row>
     <row r="204" spans="1:15" ht="13.5" thickBot="1">
       <c r="A204" s="1"/>
-      <c r="B204" s="50"/>
-      <c r="C204" s="50"/>
-      <c r="D204" s="50"/>
+      <c r="B204" s="21"/>
+      <c r="C204" s="21"/>
+      <c r="D204" s="21"/>
       <c r="E204" s="1"/>
       <c r="F204" s="2"/>
       <c r="G204" s="3">
@@ -7097,7 +7254,7 @@
       <c r="J204" s="15"/>
       <c r="K204" s="15"/>
       <c r="L204" s="6"/>
-      <c r="M204" s="52" t="s">
+      <c r="M204" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N204" s="8"/>
@@ -7105,9 +7262,9 @@
     </row>
     <row r="205" spans="1:15" ht="13.5" thickBot="1">
       <c r="A205" s="1"/>
-      <c r="B205" s="50"/>
-      <c r="C205" s="50"/>
-      <c r="D205" s="50"/>
+      <c r="B205" s="21"/>
+      <c r="C205" s="21"/>
+      <c r="D205" s="21"/>
       <c r="E205" s="1"/>
       <c r="F205" s="2"/>
       <c r="G205" s="3">
@@ -7123,7 +7280,7 @@
       <c r="J205" s="15"/>
       <c r="K205" s="15"/>
       <c r="L205" s="6"/>
-      <c r="M205" s="52" t="s">
+      <c r="M205" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N205" s="8"/>
@@ -7131,9 +7288,9 @@
     </row>
     <row r="206" spans="1:15" ht="13.5" thickBot="1">
       <c r="A206" s="1"/>
-      <c r="B206" s="50"/>
-      <c r="C206" s="50"/>
-      <c r="D206" s="50"/>
+      <c r="B206" s="21"/>
+      <c r="C206" s="21"/>
+      <c r="D206" s="21"/>
       <c r="E206" s="1"/>
       <c r="F206" s="2"/>
       <c r="G206" s="3">
@@ -7149,7 +7306,7 @@
       <c r="J206" s="15"/>
       <c r="K206" s="15"/>
       <c r="L206" s="6"/>
-      <c r="M206" s="52" t="s">
+      <c r="M206" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N206" s="8"/>
@@ -7157,9 +7314,9 @@
     </row>
     <row r="207" spans="1:15" ht="13.5" thickBot="1">
       <c r="A207" s="1"/>
-      <c r="B207" s="50"/>
-      <c r="C207" s="50"/>
-      <c r="D207" s="50"/>
+      <c r="B207" s="21"/>
+      <c r="C207" s="21"/>
+      <c r="D207" s="21"/>
       <c r="E207" s="1"/>
       <c r="F207" s="2"/>
       <c r="G207" s="3">
@@ -7175,7 +7332,7 @@
       <c r="J207" s="15"/>
       <c r="K207" s="15"/>
       <c r="L207" s="6"/>
-      <c r="M207" s="52" t="s">
+      <c r="M207" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N207" s="8"/>
@@ -7183,9 +7340,9 @@
     </row>
     <row r="208" spans="1:15" ht="13.5" thickBot="1">
       <c r="A208" s="1"/>
-      <c r="B208" s="50"/>
-      <c r="C208" s="50"/>
-      <c r="D208" s="50"/>
+      <c r="B208" s="21"/>
+      <c r="C208" s="21"/>
+      <c r="D208" s="21"/>
       <c r="E208" s="1"/>
       <c r="F208" s="2"/>
       <c r="G208" s="3">
@@ -7201,7 +7358,7 @@
       <c r="J208" s="15"/>
       <c r="K208" s="15"/>
       <c r="L208" s="6"/>
-      <c r="M208" s="52" t="s">
+      <c r="M208" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N208" s="8"/>
@@ -7209,9 +7366,9 @@
     </row>
     <row r="209" spans="1:15" ht="13.5" thickBot="1">
       <c r="A209" s="1"/>
-      <c r="B209" s="50"/>
-      <c r="C209" s="50"/>
-      <c r="D209" s="50"/>
+      <c r="B209" s="21"/>
+      <c r="C209" s="21"/>
+      <c r="D209" s="21"/>
       <c r="E209" s="1"/>
       <c r="F209" s="2"/>
       <c r="G209" s="3">
@@ -7227,7 +7384,7 @@
       <c r="J209" s="15"/>
       <c r="K209" s="15"/>
       <c r="L209" s="6"/>
-      <c r="M209" s="52" t="s">
+      <c r="M209" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N209" s="8"/>
@@ -7235,9 +7392,9 @@
     </row>
     <row r="210" spans="1:15" ht="13.5" thickBot="1">
       <c r="A210" s="1"/>
-      <c r="B210" s="50"/>
-      <c r="C210" s="50"/>
-      <c r="D210" s="50"/>
+      <c r="B210" s="21"/>
+      <c r="C210" s="21"/>
+      <c r="D210" s="21"/>
       <c r="E210" s="1"/>
       <c r="F210" s="2"/>
       <c r="G210" s="3">
@@ -7253,7 +7410,7 @@
       <c r="J210" s="15"/>
       <c r="K210" s="15"/>
       <c r="L210" s="6"/>
-      <c r="M210" s="52" t="s">
+      <c r="M210" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N210" s="8"/>
@@ -7261,9 +7418,9 @@
     </row>
     <row r="211" spans="1:15" ht="13.5" thickBot="1">
       <c r="A211" s="1"/>
-      <c r="B211" s="50"/>
-      <c r="C211" s="50"/>
-      <c r="D211" s="50"/>
+      <c r="B211" s="21"/>
+      <c r="C211" s="21"/>
+      <c r="D211" s="21"/>
       <c r="E211" s="1"/>
       <c r="F211" s="2"/>
       <c r="G211" s="3">
@@ -7279,7 +7436,7 @@
       <c r="J211" s="15"/>
       <c r="K211" s="15"/>
       <c r="L211" s="6"/>
-      <c r="M211" s="52" t="s">
+      <c r="M211" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N211" s="8"/>
@@ -7287,9 +7444,9 @@
     </row>
     <row r="212" spans="1:15" ht="13.5" thickBot="1">
       <c r="A212" s="1"/>
-      <c r="B212" s="50"/>
-      <c r="C212" s="50"/>
-      <c r="D212" s="50"/>
+      <c r="B212" s="21"/>
+      <c r="C212" s="21"/>
+      <c r="D212" s="21"/>
       <c r="E212" s="1"/>
       <c r="F212" s="2"/>
       <c r="G212" s="3">
@@ -7305,7 +7462,7 @@
       <c r="J212" s="15"/>
       <c r="K212" s="15"/>
       <c r="L212" s="6"/>
-      <c r="M212" s="52" t="s">
+      <c r="M212" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N212" s="8"/>
@@ -7313,9 +7470,9 @@
     </row>
     <row r="213" spans="1:15" ht="13.5" thickBot="1">
       <c r="A213" s="1"/>
-      <c r="B213" s="50"/>
-      <c r="C213" s="50"/>
-      <c r="D213" s="50"/>
+      <c r="B213" s="21"/>
+      <c r="C213" s="21"/>
+      <c r="D213" s="21"/>
       <c r="E213" s="1"/>
       <c r="F213" s="2"/>
       <c r="G213" s="3">
@@ -7331,7 +7488,7 @@
       <c r="J213" s="15"/>
       <c r="K213" s="15"/>
       <c r="L213" s="6"/>
-      <c r="M213" s="52" t="s">
+      <c r="M213" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N213" s="8"/>
@@ -7339,9 +7496,9 @@
     </row>
     <row r="214" spans="1:15" ht="13.5" thickBot="1">
       <c r="A214" s="1"/>
-      <c r="B214" s="50"/>
-      <c r="C214" s="50"/>
-      <c r="D214" s="50"/>
+      <c r="B214" s="21"/>
+      <c r="C214" s="21"/>
+      <c r="D214" s="21"/>
       <c r="E214" s="1"/>
       <c r="F214" s="2"/>
       <c r="G214" s="3">
@@ -7357,7 +7514,7 @@
       <c r="J214" s="15"/>
       <c r="K214" s="15"/>
       <c r="L214" s="6"/>
-      <c r="M214" s="52" t="s">
+      <c r="M214" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N214" s="8"/>
@@ -7365,9 +7522,9 @@
     </row>
     <row r="215" spans="1:15" ht="13.5" thickBot="1">
       <c r="A215" s="1"/>
-      <c r="B215" s="50"/>
-      <c r="C215" s="50"/>
-      <c r="D215" s="50"/>
+      <c r="B215" s="21"/>
+      <c r="C215" s="21"/>
+      <c r="D215" s="21"/>
       <c r="E215" s="1"/>
       <c r="F215" s="2"/>
       <c r="G215" s="3">
@@ -7383,7 +7540,7 @@
       <c r="J215" s="15"/>
       <c r="K215" s="15"/>
       <c r="L215" s="6"/>
-      <c r="M215" s="52" t="s">
+      <c r="M215" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N215" s="8"/>
@@ -7391,9 +7548,9 @@
     </row>
     <row r="216" spans="1:15" ht="13.5" thickBot="1">
       <c r="A216" s="1"/>
-      <c r="B216" s="50"/>
-      <c r="C216" s="50"/>
-      <c r="D216" s="50"/>
+      <c r="B216" s="21"/>
+      <c r="C216" s="21"/>
+      <c r="D216" s="21"/>
       <c r="E216" s="1"/>
       <c r="F216" s="2"/>
       <c r="G216" s="3">
@@ -7409,7 +7566,7 @@
       <c r="J216" s="15"/>
       <c r="K216" s="15"/>
       <c r="L216" s="6"/>
-      <c r="M216" s="52" t="s">
+      <c r="M216" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N216" s="8"/>
@@ -7417,9 +7574,9 @@
     </row>
     <row r="217" spans="1:15" ht="13.5" thickBot="1">
       <c r="A217" s="1"/>
-      <c r="B217" s="50"/>
-      <c r="C217" s="50"/>
-      <c r="D217" s="50"/>
+      <c r="B217" s="21"/>
+      <c r="C217" s="21"/>
+      <c r="D217" s="21"/>
       <c r="E217" s="1"/>
       <c r="F217" s="2"/>
       <c r="G217" s="3">
@@ -7435,7 +7592,7 @@
       <c r="J217" s="15"/>
       <c r="K217" s="15"/>
       <c r="L217" s="6"/>
-      <c r="M217" s="52" t="s">
+      <c r="M217" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N217" s="8"/>
@@ -7443,9 +7600,9 @@
     </row>
     <row r="218" spans="1:15" ht="13.5" thickBot="1">
       <c r="A218" s="1"/>
-      <c r="B218" s="50"/>
-      <c r="C218" s="50"/>
-      <c r="D218" s="50"/>
+      <c r="B218" s="21"/>
+      <c r="C218" s="21"/>
+      <c r="D218" s="21"/>
       <c r="E218" s="1"/>
       <c r="F218" s="2"/>
       <c r="G218" s="3">
@@ -7461,7 +7618,7 @@
       <c r="J218" s="15"/>
       <c r="K218" s="15"/>
       <c r="L218" s="6"/>
-      <c r="M218" s="52" t="s">
+      <c r="M218" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N218" s="8"/>
@@ -7469,9 +7626,9 @@
     </row>
     <row r="219" spans="1:15" ht="13.5" thickBot="1">
       <c r="A219" s="1"/>
-      <c r="B219" s="50"/>
-      <c r="C219" s="50"/>
-      <c r="D219" s="50"/>
+      <c r="B219" s="21"/>
+      <c r="C219" s="21"/>
+      <c r="D219" s="21"/>
       <c r="E219" s="1"/>
       <c r="F219" s="2"/>
       <c r="G219" s="3">
@@ -7487,7 +7644,7 @@
       <c r="J219" s="15"/>
       <c r="K219" s="15"/>
       <c r="L219" s="6"/>
-      <c r="M219" s="52" t="s">
+      <c r="M219" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N219" s="8"/>
@@ -7495,9 +7652,9 @@
     </row>
     <row r="220" spans="1:15" ht="13.5" thickBot="1">
       <c r="A220" s="1"/>
-      <c r="B220" s="50"/>
-      <c r="C220" s="50"/>
-      <c r="D220" s="50"/>
+      <c r="B220" s="21"/>
+      <c r="C220" s="21"/>
+      <c r="D220" s="21"/>
       <c r="E220" s="1"/>
       <c r="F220" s="2"/>
       <c r="G220" s="3">
@@ -7513,7 +7670,7 @@
       <c r="J220" s="15"/>
       <c r="K220" s="15"/>
       <c r="L220" s="6"/>
-      <c r="M220" s="52" t="s">
+      <c r="M220" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N220" s="8"/>
@@ -7521,9 +7678,9 @@
     </row>
     <row r="221" spans="1:15" ht="13.5" thickBot="1">
       <c r="A221" s="1"/>
-      <c r="B221" s="50"/>
-      <c r="C221" s="50"/>
-      <c r="D221" s="50"/>
+      <c r="B221" s="21"/>
+      <c r="C221" s="21"/>
+      <c r="D221" s="21"/>
       <c r="E221" s="1"/>
       <c r="F221" s="2"/>
       <c r="G221" s="3">
@@ -7539,7 +7696,7 @@
       <c r="J221" s="15"/>
       <c r="K221" s="15"/>
       <c r="L221" s="6"/>
-      <c r="M221" s="52" t="s">
+      <c r="M221" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N221" s="8"/>
@@ -7547,9 +7704,9 @@
     </row>
     <row r="222" spans="1:15" ht="13.5" thickBot="1">
       <c r="A222" s="1"/>
-      <c r="B222" s="50"/>
-      <c r="C222" s="50"/>
-      <c r="D222" s="50"/>
+      <c r="B222" s="21"/>
+      <c r="C222" s="21"/>
+      <c r="D222" s="21"/>
       <c r="E222" s="1"/>
       <c r="F222" s="2"/>
       <c r="G222" s="3">
@@ -7565,7 +7722,7 @@
       <c r="J222" s="15"/>
       <c r="K222" s="15"/>
       <c r="L222" s="6"/>
-      <c r="M222" s="52" t="s">
+      <c r="M222" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N222" s="8"/>
@@ -7573,9 +7730,9 @@
     </row>
     <row r="223" spans="1:15" ht="13.5" thickBot="1">
       <c r="A223" s="1"/>
-      <c r="B223" s="50"/>
-      <c r="C223" s="50"/>
-      <c r="D223" s="50"/>
+      <c r="B223" s="21"/>
+      <c r="C223" s="21"/>
+      <c r="D223" s="21"/>
       <c r="E223" s="1"/>
       <c r="F223" s="2"/>
       <c r="G223" s="3">
@@ -7591,7 +7748,7 @@
       <c r="J223" s="15"/>
       <c r="K223" s="15"/>
       <c r="L223" s="6"/>
-      <c r="M223" s="52" t="s">
+      <c r="M223" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N223" s="8"/>
@@ -7599,9 +7756,9 @@
     </row>
     <row r="224" spans="1:15" ht="13.5" thickBot="1">
       <c r="A224" s="1"/>
-      <c r="B224" s="50"/>
-      <c r="C224" s="50"/>
-      <c r="D224" s="50"/>
+      <c r="B224" s="21"/>
+      <c r="C224" s="21"/>
+      <c r="D224" s="21"/>
       <c r="E224" s="1"/>
       <c r="F224" s="2"/>
       <c r="G224" s="3">
@@ -7617,7 +7774,7 @@
       <c r="J224" s="15"/>
       <c r="K224" s="15"/>
       <c r="L224" s="6"/>
-      <c r="M224" s="52" t="s">
+      <c r="M224" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N224" s="8"/>
@@ -7625,9 +7782,9 @@
     </row>
     <row r="225" spans="1:15" ht="13.5" thickBot="1">
       <c r="A225" s="1"/>
-      <c r="B225" s="50"/>
-      <c r="C225" s="50"/>
-      <c r="D225" s="50"/>
+      <c r="B225" s="21"/>
+      <c r="C225" s="21"/>
+      <c r="D225" s="21"/>
       <c r="E225" s="1"/>
       <c r="F225" s="2"/>
       <c r="G225" s="3">
@@ -7643,7 +7800,7 @@
       <c r="J225" s="15"/>
       <c r="K225" s="15"/>
       <c r="L225" s="6"/>
-      <c r="M225" s="52" t="s">
+      <c r="M225" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N225" s="8"/>
@@ -7651,9 +7808,9 @@
     </row>
     <row r="226" spans="1:15" ht="13.5" thickBot="1">
       <c r="A226" s="1"/>
-      <c r="B226" s="50"/>
-      <c r="C226" s="50"/>
-      <c r="D226" s="50"/>
+      <c r="B226" s="21"/>
+      <c r="C226" s="21"/>
+      <c r="D226" s="21"/>
       <c r="E226" s="1"/>
       <c r="F226" s="2"/>
       <c r="G226" s="3">
@@ -7669,7 +7826,7 @@
       <c r="J226" s="15"/>
       <c r="K226" s="15"/>
       <c r="L226" s="6"/>
-      <c r="M226" s="52" t="s">
+      <c r="M226" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N226" s="8"/>
@@ -7677,9 +7834,9 @@
     </row>
     <row r="227" spans="1:15" ht="13.5" thickBot="1">
       <c r="A227" s="1"/>
-      <c r="B227" s="50"/>
-      <c r="C227" s="50"/>
-      <c r="D227" s="50"/>
+      <c r="B227" s="21"/>
+      <c r="C227" s="21"/>
+      <c r="D227" s="21"/>
       <c r="E227" s="1"/>
       <c r="F227" s="2"/>
       <c r="G227" s="3">
@@ -7695,7 +7852,7 @@
       <c r="J227" s="15"/>
       <c r="K227" s="15"/>
       <c r="L227" s="6"/>
-      <c r="M227" s="52" t="s">
+      <c r="M227" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N227" s="8"/>
@@ -7703,9 +7860,9 @@
     </row>
     <row r="228" spans="1:15" ht="13.5" thickBot="1">
       <c r="A228" s="1"/>
-      <c r="B228" s="50"/>
-      <c r="C228" s="50"/>
-      <c r="D228" s="50"/>
+      <c r="B228" s="21"/>
+      <c r="C228" s="21"/>
+      <c r="D228" s="21"/>
       <c r="E228" s="1"/>
       <c r="F228" s="2"/>
       <c r="G228" s="3">
@@ -7721,7 +7878,7 @@
       <c r="J228" s="15"/>
       <c r="K228" s="15"/>
       <c r="L228" s="6"/>
-      <c r="M228" s="52" t="s">
+      <c r="M228" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N228" s="8"/>
@@ -7729,9 +7886,9 @@
     </row>
     <row r="229" spans="1:15" ht="13.5" thickBot="1">
       <c r="A229" s="1"/>
-      <c r="B229" s="50"/>
-      <c r="C229" s="50"/>
-      <c r="D229" s="50"/>
+      <c r="B229" s="21"/>
+      <c r="C229" s="21"/>
+      <c r="D229" s="21"/>
       <c r="E229" s="1"/>
       <c r="F229" s="2"/>
       <c r="G229" s="3">
@@ -7747,7 +7904,7 @@
       <c r="J229" s="15"/>
       <c r="K229" s="15"/>
       <c r="L229" s="6"/>
-      <c r="M229" s="52" t="s">
+      <c r="M229" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N229" s="8"/>
@@ -7755,9 +7912,9 @@
     </row>
     <row r="230" spans="1:15" ht="13.5" thickBot="1">
       <c r="A230" s="1"/>
-      <c r="B230" s="50"/>
-      <c r="C230" s="50"/>
-      <c r="D230" s="50"/>
+      <c r="B230" s="21"/>
+      <c r="C230" s="21"/>
+      <c r="D230" s="21"/>
       <c r="E230" s="1"/>
       <c r="F230" s="2"/>
       <c r="G230" s="3">
@@ -7773,7 +7930,7 @@
       <c r="J230" s="15"/>
       <c r="K230" s="15"/>
       <c r="L230" s="6"/>
-      <c r="M230" s="52" t="s">
+      <c r="M230" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N230" s="8"/>
@@ -7781,9 +7938,9 @@
     </row>
     <row r="231" spans="1:15" ht="13.5" thickBot="1">
       <c r="A231" s="1"/>
-      <c r="B231" s="50"/>
-      <c r="C231" s="50"/>
-      <c r="D231" s="50"/>
+      <c r="B231" s="21"/>
+      <c r="C231" s="21"/>
+      <c r="D231" s="21"/>
       <c r="E231" s="1"/>
       <c r="F231" s="2"/>
       <c r="G231" s="3">
@@ -7799,7 +7956,7 @@
       <c r="J231" s="15"/>
       <c r="K231" s="15"/>
       <c r="L231" s="6"/>
-      <c r="M231" s="52" t="s">
+      <c r="M231" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N231" s="8"/>
@@ -7807,9 +7964,9 @@
     </row>
     <row r="232" spans="1:15" ht="13.5" thickBot="1">
       <c r="A232" s="1"/>
-      <c r="B232" s="50"/>
-      <c r="C232" s="50"/>
-      <c r="D232" s="50"/>
+      <c r="B232" s="21"/>
+      <c r="C232" s="21"/>
+      <c r="D232" s="21"/>
       <c r="E232" s="1"/>
       <c r="F232" s="2"/>
       <c r="G232" s="3">
@@ -7825,7 +7982,7 @@
       <c r="J232" s="15"/>
       <c r="K232" s="15"/>
       <c r="L232" s="6"/>
-      <c r="M232" s="52" t="s">
+      <c r="M232" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N232" s="8"/>
@@ -7833,9 +7990,9 @@
     </row>
     <row r="233" spans="1:15" ht="13.5" thickBot="1">
       <c r="A233" s="1"/>
-      <c r="B233" s="50"/>
-      <c r="C233" s="50"/>
-      <c r="D233" s="50"/>
+      <c r="B233" s="21"/>
+      <c r="C233" s="21"/>
+      <c r="D233" s="21"/>
       <c r="E233" s="1"/>
       <c r="F233" s="2"/>
       <c r="G233" s="3">
@@ -7851,7 +8008,7 @@
       <c r="J233" s="15"/>
       <c r="K233" s="15"/>
       <c r="L233" s="6"/>
-      <c r="M233" s="52" t="s">
+      <c r="M233" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N233" s="8"/>
@@ -7859,9 +8016,9 @@
     </row>
     <row r="234" spans="1:15" ht="13.5" thickBot="1">
       <c r="A234" s="1"/>
-      <c r="B234" s="50"/>
-      <c r="C234" s="50"/>
-      <c r="D234" s="50"/>
+      <c r="B234" s="21"/>
+      <c r="C234" s="21"/>
+      <c r="D234" s="21"/>
       <c r="E234" s="1"/>
       <c r="F234" s="2"/>
       <c r="G234" s="3">
@@ -7877,7 +8034,7 @@
       <c r="J234" s="15"/>
       <c r="K234" s="15"/>
       <c r="L234" s="6"/>
-      <c r="M234" s="52" t="s">
+      <c r="M234" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N234" s="8"/>
@@ -7885,9 +8042,9 @@
     </row>
     <row r="235" spans="1:15" ht="13.5" thickBot="1">
       <c r="A235" s="1"/>
-      <c r="B235" s="50"/>
-      <c r="C235" s="50"/>
-      <c r="D235" s="50"/>
+      <c r="B235" s="21"/>
+      <c r="C235" s="21"/>
+      <c r="D235" s="21"/>
       <c r="E235" s="1"/>
       <c r="F235" s="2"/>
       <c r="G235" s="3">
@@ -7903,7 +8060,7 @@
       <c r="J235" s="15"/>
       <c r="K235" s="15"/>
       <c r="L235" s="6"/>
-      <c r="M235" s="52" t="s">
+      <c r="M235" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N235" s="8"/>
@@ -7911,9 +8068,9 @@
     </row>
     <row r="236" spans="1:15" ht="13.5" thickBot="1">
       <c r="A236" s="1"/>
-      <c r="B236" s="50"/>
-      <c r="C236" s="50"/>
-      <c r="D236" s="50"/>
+      <c r="B236" s="21"/>
+      <c r="C236" s="21"/>
+      <c r="D236" s="21"/>
       <c r="E236" s="1"/>
       <c r="F236" s="2"/>
       <c r="G236" s="3">
@@ -7929,7 +8086,7 @@
       <c r="J236" s="15"/>
       <c r="K236" s="15"/>
       <c r="L236" s="6"/>
-      <c r="M236" s="52" t="s">
+      <c r="M236" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N236" s="8"/>
@@ -7937,9 +8094,9 @@
     </row>
     <row r="237" spans="1:15" ht="13.5" thickBot="1">
       <c r="A237" s="1"/>
-      <c r="B237" s="50"/>
-      <c r="C237" s="50"/>
-      <c r="D237" s="50"/>
+      <c r="B237" s="21"/>
+      <c r="C237" s="21"/>
+      <c r="D237" s="21"/>
       <c r="E237" s="1"/>
       <c r="F237" s="2"/>
       <c r="G237" s="3">
@@ -7955,7 +8112,7 @@
       <c r="J237" s="15"/>
       <c r="K237" s="15"/>
       <c r="L237" s="6"/>
-      <c r="M237" s="52" t="s">
+      <c r="M237" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N237" s="8"/>
@@ -7963,9 +8120,9 @@
     </row>
     <row r="238" spans="1:15" ht="13.5" thickBot="1">
       <c r="A238" s="1"/>
-      <c r="B238" s="50"/>
-      <c r="C238" s="50"/>
-      <c r="D238" s="50"/>
+      <c r="B238" s="21"/>
+      <c r="C238" s="21"/>
+      <c r="D238" s="21"/>
       <c r="E238" s="1"/>
       <c r="F238" s="2"/>
       <c r="G238" s="3">
@@ -7981,7 +8138,7 @@
       <c r="J238" s="15"/>
       <c r="K238" s="15"/>
       <c r="L238" s="6"/>
-      <c r="M238" s="52" t="s">
+      <c r="M238" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N238" s="8"/>
@@ -7989,9 +8146,9 @@
     </row>
     <row r="239" spans="1:15" ht="13.5" thickBot="1">
       <c r="A239" s="1"/>
-      <c r="B239" s="50"/>
-      <c r="C239" s="50"/>
-      <c r="D239" s="50"/>
+      <c r="B239" s="21"/>
+      <c r="C239" s="21"/>
+      <c r="D239" s="21"/>
       <c r="E239" s="1"/>
       <c r="F239" s="2"/>
       <c r="G239" s="3">
@@ -8007,7 +8164,7 @@
       <c r="J239" s="15"/>
       <c r="K239" s="15"/>
       <c r="L239" s="6"/>
-      <c r="M239" s="52" t="s">
+      <c r="M239" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N239" s="8"/>
@@ -8015,9 +8172,9 @@
     </row>
     <row r="240" spans="1:15" ht="13.5" thickBot="1">
       <c r="A240" s="1"/>
-      <c r="B240" s="50"/>
-      <c r="C240" s="50"/>
-      <c r="D240" s="50"/>
+      <c r="B240" s="21"/>
+      <c r="C240" s="21"/>
+      <c r="D240" s="21"/>
       <c r="E240" s="1"/>
       <c r="F240" s="2"/>
       <c r="G240" s="3">
@@ -8033,7 +8190,7 @@
       <c r="J240" s="15"/>
       <c r="K240" s="15"/>
       <c r="L240" s="6"/>
-      <c r="M240" s="52" t="s">
+      <c r="M240" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N240" s="8"/>
@@ -8041,9 +8198,9 @@
     </row>
     <row r="241" spans="1:15" ht="13.5" thickBot="1">
       <c r="A241" s="1"/>
-      <c r="B241" s="50"/>
-      <c r="C241" s="50"/>
-      <c r="D241" s="50"/>
+      <c r="B241" s="21"/>
+      <c r="C241" s="21"/>
+      <c r="D241" s="21"/>
       <c r="E241" s="1"/>
       <c r="F241" s="2"/>
       <c r="G241" s="3">
@@ -8059,7 +8216,7 @@
       <c r="J241" s="15"/>
       <c r="K241" s="15"/>
       <c r="L241" s="6"/>
-      <c r="M241" s="52" t="s">
+      <c r="M241" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N241" s="8"/>
@@ -8067,9 +8224,9 @@
     </row>
     <row r="242" spans="1:15" ht="13.5" thickBot="1">
       <c r="A242" s="1"/>
-      <c r="B242" s="50"/>
-      <c r="C242" s="50"/>
-      <c r="D242" s="50"/>
+      <c r="B242" s="21"/>
+      <c r="C242" s="21"/>
+      <c r="D242" s="21"/>
       <c r="E242" s="1"/>
       <c r="F242" s="2"/>
       <c r="G242" s="3">
@@ -8085,7 +8242,7 @@
       <c r="J242" s="15"/>
       <c r="K242" s="15"/>
       <c r="L242" s="6"/>
-      <c r="M242" s="52" t="s">
+      <c r="M242" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N242" s="8"/>
@@ -8093,9 +8250,9 @@
     </row>
     <row r="243" spans="1:15" ht="13.5" thickBot="1">
       <c r="A243" s="1"/>
-      <c r="B243" s="50"/>
-      <c r="C243" s="50"/>
-      <c r="D243" s="50"/>
+      <c r="B243" s="21"/>
+      <c r="C243" s="21"/>
+      <c r="D243" s="21"/>
       <c r="E243" s="1"/>
       <c r="F243" s="2"/>
       <c r="G243" s="3">
@@ -8111,7 +8268,7 @@
       <c r="J243" s="15"/>
       <c r="K243" s="15"/>
       <c r="L243" s="6"/>
-      <c r="M243" s="52" t="s">
+      <c r="M243" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N243" s="8"/>
@@ -8119,9 +8276,9 @@
     </row>
     <row r="244" spans="1:15" ht="13.5" thickBot="1">
       <c r="A244" s="1"/>
-      <c r="B244" s="50"/>
-      <c r="C244" s="50"/>
-      <c r="D244" s="50"/>
+      <c r="B244" s="21"/>
+      <c r="C244" s="21"/>
+      <c r="D244" s="21"/>
       <c r="E244" s="1"/>
       <c r="F244" s="2"/>
       <c r="G244" s="3">
@@ -8137,7 +8294,7 @@
       <c r="J244" s="15"/>
       <c r="K244" s="15"/>
       <c r="L244" s="6"/>
-      <c r="M244" s="52" t="s">
+      <c r="M244" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N244" s="8"/>
@@ -8145,9 +8302,9 @@
     </row>
     <row r="245" spans="1:15" ht="13.5" thickBot="1">
       <c r="A245" s="1"/>
-      <c r="B245" s="50"/>
-      <c r="C245" s="50"/>
-      <c r="D245" s="50"/>
+      <c r="B245" s="21"/>
+      <c r="C245" s="21"/>
+      <c r="D245" s="21"/>
       <c r="E245" s="1"/>
       <c r="F245" s="2"/>
       <c r="G245" s="3">
@@ -8163,7 +8320,7 @@
       <c r="J245" s="15"/>
       <c r="K245" s="15"/>
       <c r="L245" s="6"/>
-      <c r="M245" s="52" t="s">
+      <c r="M245" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N245" s="8"/>
@@ -8171,9 +8328,9 @@
     </row>
     <row r="246" spans="1:15" ht="13.5" thickBot="1">
       <c r="A246" s="1"/>
-      <c r="B246" s="50"/>
-      <c r="C246" s="50"/>
-      <c r="D246" s="50"/>
+      <c r="B246" s="21"/>
+      <c r="C246" s="21"/>
+      <c r="D246" s="21"/>
       <c r="E246" s="1"/>
       <c r="F246" s="2"/>
       <c r="G246" s="3">
@@ -8189,7 +8346,7 @@
       <c r="J246" s="15"/>
       <c r="K246" s="15"/>
       <c r="L246" s="6"/>
-      <c r="M246" s="52" t="s">
+      <c r="M246" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N246" s="8"/>
@@ -8197,9 +8354,9 @@
     </row>
     <row r="247" spans="1:15" ht="13.5" thickBot="1">
       <c r="A247" s="1"/>
-      <c r="B247" s="50"/>
-      <c r="C247" s="50"/>
-      <c r="D247" s="50"/>
+      <c r="B247" s="21"/>
+      <c r="C247" s="21"/>
+      <c r="D247" s="21"/>
       <c r="E247" s="1"/>
       <c r="F247" s="2"/>
       <c r="G247" s="3">
@@ -8215,7 +8372,7 @@
       <c r="J247" s="15"/>
       <c r="K247" s="15"/>
       <c r="L247" s="6"/>
-      <c r="M247" s="52" t="s">
+      <c r="M247" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N247" s="8"/>
@@ -8223,9 +8380,9 @@
     </row>
     <row r="248" spans="1:15" ht="13.5" thickBot="1">
       <c r="A248" s="1"/>
-      <c r="B248" s="50"/>
-      <c r="C248" s="50"/>
-      <c r="D248" s="50"/>
+      <c r="B248" s="21"/>
+      <c r="C248" s="21"/>
+      <c r="D248" s="21"/>
       <c r="E248" s="1"/>
       <c r="F248" s="2"/>
       <c r="G248" s="3">
@@ -8241,7 +8398,7 @@
       <c r="J248" s="15"/>
       <c r="K248" s="15"/>
       <c r="L248" s="6"/>
-      <c r="M248" s="52" t="s">
+      <c r="M248" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N248" s="8"/>
@@ -8249,9 +8406,9 @@
     </row>
     <row r="249" spans="1:15" ht="13.5" thickBot="1">
       <c r="A249" s="1"/>
-      <c r="B249" s="50"/>
-      <c r="C249" s="50"/>
-      <c r="D249" s="50"/>
+      <c r="B249" s="21"/>
+      <c r="C249" s="21"/>
+      <c r="D249" s="21"/>
       <c r="E249" s="1"/>
       <c r="F249" s="2"/>
       <c r="G249" s="3">
@@ -8267,7 +8424,7 @@
       <c r="J249" s="15"/>
       <c r="K249" s="15"/>
       <c r="L249" s="6"/>
-      <c r="M249" s="52" t="s">
+      <c r="M249" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N249" s="8"/>
@@ -8275,9 +8432,9 @@
     </row>
     <row r="250" spans="1:15" ht="13.5" thickBot="1">
       <c r="A250" s="1"/>
-      <c r="B250" s="50"/>
-      <c r="C250" s="50"/>
-      <c r="D250" s="50"/>
+      <c r="B250" s="21"/>
+      <c r="C250" s="21"/>
+      <c r="D250" s="21"/>
       <c r="E250" s="1"/>
       <c r="F250" s="2"/>
       <c r="G250" s="3">
@@ -8293,7 +8450,7 @@
       <c r="J250" s="15"/>
       <c r="K250" s="15"/>
       <c r="L250" s="6"/>
-      <c r="M250" s="52" t="s">
+      <c r="M250" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N250" s="8"/>
@@ -8301,9 +8458,9 @@
     </row>
     <row r="251" spans="1:15" ht="13.5" thickBot="1">
       <c r="A251" s="1"/>
-      <c r="B251" s="50"/>
-      <c r="C251" s="50"/>
-      <c r="D251" s="50"/>
+      <c r="B251" s="21"/>
+      <c r="C251" s="21"/>
+      <c r="D251" s="21"/>
       <c r="E251" s="1"/>
       <c r="F251" s="2"/>
       <c r="G251" s="3">
@@ -8319,7 +8476,7 @@
       <c r="J251" s="15"/>
       <c r="K251" s="15"/>
       <c r="L251" s="6"/>
-      <c r="M251" s="52" t="s">
+      <c r="M251" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N251" s="8"/>
@@ -8327,9 +8484,9 @@
     </row>
     <row r="252" spans="1:15" ht="13.5" thickBot="1">
       <c r="A252" s="1"/>
-      <c r="B252" s="50"/>
-      <c r="C252" s="50"/>
-      <c r="D252" s="50"/>
+      <c r="B252" s="21"/>
+      <c r="C252" s="21"/>
+      <c r="D252" s="21"/>
       <c r="E252" s="1"/>
       <c r="F252" s="2"/>
       <c r="G252" s="3">
@@ -8345,7 +8502,7 @@
       <c r="J252" s="15"/>
       <c r="K252" s="15"/>
       <c r="L252" s="6"/>
-      <c r="M252" s="52" t="s">
+      <c r="M252" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N252" s="8"/>
@@ -8353,9 +8510,9 @@
     </row>
     <row r="253" spans="1:15" ht="13.5" thickBot="1">
       <c r="A253" s="1"/>
-      <c r="B253" s="50"/>
-      <c r="C253" s="50"/>
-      <c r="D253" s="50"/>
+      <c r="B253" s="21"/>
+      <c r="C253" s="21"/>
+      <c r="D253" s="21"/>
       <c r="E253" s="1"/>
       <c r="F253" s="2"/>
       <c r="G253" s="3">
@@ -8371,7 +8528,7 @@
       <c r="J253" s="15"/>
       <c r="K253" s="15"/>
       <c r="L253" s="6"/>
-      <c r="M253" s="52" t="s">
+      <c r="M253" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N253" s="8"/>
@@ -8379,9 +8536,9 @@
     </row>
     <row r="254" spans="1:15" ht="13.5" thickBot="1">
       <c r="A254" s="1"/>
-      <c r="B254" s="50"/>
-      <c r="C254" s="50"/>
-      <c r="D254" s="50"/>
+      <c r="B254" s="21"/>
+      <c r="C254" s="21"/>
+      <c r="D254" s="21"/>
       <c r="E254" s="1"/>
       <c r="F254" s="2"/>
       <c r="G254" s="3">
@@ -8397,7 +8554,7 @@
       <c r="J254" s="15"/>
       <c r="K254" s="15"/>
       <c r="L254" s="6"/>
-      <c r="M254" s="52" t="s">
+      <c r="M254" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N254" s="8"/>
@@ -8405,9 +8562,9 @@
     </row>
     <row r="255" spans="1:15" ht="13.5" thickBot="1">
       <c r="A255" s="1"/>
-      <c r="B255" s="50"/>
-      <c r="C255" s="50"/>
-      <c r="D255" s="50"/>
+      <c r="B255" s="21"/>
+      <c r="C255" s="21"/>
+      <c r="D255" s="21"/>
       <c r="E255" s="1"/>
       <c r="F255" s="2"/>
       <c r="G255" s="3">
@@ -8423,7 +8580,7 @@
       <c r="J255" s="15"/>
       <c r="K255" s="15"/>
       <c r="L255" s="6"/>
-      <c r="M255" s="52" t="s">
+      <c r="M255" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N255" s="8"/>
@@ -8431,9 +8588,9 @@
     </row>
     <row r="256" spans="1:15" ht="13.5" thickBot="1">
       <c r="A256" s="1"/>
-      <c r="B256" s="50"/>
-      <c r="C256" s="50"/>
-      <c r="D256" s="50"/>
+      <c r="B256" s="21"/>
+      <c r="C256" s="21"/>
+      <c r="D256" s="21"/>
       <c r="E256" s="1"/>
       <c r="F256" s="2"/>
       <c r="G256" s="3">
@@ -8449,7 +8606,7 @@
       <c r="J256" s="15"/>
       <c r="K256" s="15"/>
       <c r="L256" s="6"/>
-      <c r="M256" s="52" t="s">
+      <c r="M256" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N256" s="8"/>
@@ -8457,9 +8614,9 @@
     </row>
     <row r="257" spans="1:15" ht="13.5" thickBot="1">
       <c r="A257" s="1"/>
-      <c r="B257" s="50"/>
-      <c r="C257" s="50"/>
-      <c r="D257" s="50"/>
+      <c r="B257" s="21"/>
+      <c r="C257" s="21"/>
+      <c r="D257" s="21"/>
       <c r="E257" s="1"/>
       <c r="F257" s="2"/>
       <c r="G257" s="3">
@@ -8475,7 +8632,7 @@
       <c r="J257" s="15"/>
       <c r="K257" s="15"/>
       <c r="L257" s="6"/>
-      <c r="M257" s="52" t="s">
+      <c r="M257" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N257" s="8"/>
@@ -8483,9 +8640,9 @@
     </row>
     <row r="258" spans="1:15" ht="13.5" thickBot="1">
       <c r="A258" s="1"/>
-      <c r="B258" s="50"/>
-      <c r="C258" s="50"/>
-      <c r="D258" s="50"/>
+      <c r="B258" s="21"/>
+      <c r="C258" s="21"/>
+      <c r="D258" s="21"/>
       <c r="E258" s="1"/>
       <c r="F258" s="2"/>
       <c r="G258" s="3">
@@ -8501,7 +8658,7 @@
       <c r="J258" s="15"/>
       <c r="K258" s="15"/>
       <c r="L258" s="6"/>
-      <c r="M258" s="52" t="s">
+      <c r="M258" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N258" s="8"/>
@@ -8509,9 +8666,9 @@
     </row>
     <row r="259" spans="1:15" ht="13.5" thickBot="1">
       <c r="A259" s="1"/>
-      <c r="B259" s="50"/>
-      <c r="C259" s="50"/>
-      <c r="D259" s="50"/>
+      <c r="B259" s="21"/>
+      <c r="C259" s="21"/>
+      <c r="D259" s="21"/>
       <c r="E259" s="1"/>
       <c r="F259" s="2"/>
       <c r="G259" s="3">
@@ -8527,7 +8684,7 @@
       <c r="J259" s="15"/>
       <c r="K259" s="15"/>
       <c r="L259" s="6"/>
-      <c r="M259" s="52" t="s">
+      <c r="M259" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N259" s="8"/>
@@ -8535,9 +8692,9 @@
     </row>
     <row r="260" spans="1:15" ht="13.5" thickBot="1">
       <c r="A260" s="1"/>
-      <c r="B260" s="50"/>
-      <c r="C260" s="50"/>
-      <c r="D260" s="50"/>
+      <c r="B260" s="21"/>
+      <c r="C260" s="21"/>
+      <c r="D260" s="21"/>
       <c r="E260" s="1"/>
       <c r="F260" s="2"/>
       <c r="G260" s="3">
@@ -8553,7 +8710,7 @@
       <c r="J260" s="15"/>
       <c r="K260" s="15"/>
       <c r="L260" s="6"/>
-      <c r="M260" s="52" t="s">
+      <c r="M260" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N260" s="8"/>
@@ -8561,9 +8718,9 @@
     </row>
     <row r="261" spans="1:15" ht="13.5" thickBot="1">
       <c r="A261" s="1"/>
-      <c r="B261" s="50"/>
-      <c r="C261" s="50"/>
-      <c r="D261" s="50"/>
+      <c r="B261" s="21"/>
+      <c r="C261" s="21"/>
+      <c r="D261" s="21"/>
       <c r="E261" s="1"/>
       <c r="F261" s="2"/>
       <c r="G261" s="3">
@@ -8579,7 +8736,7 @@
       <c r="J261" s="15"/>
       <c r="K261" s="15"/>
       <c r="L261" s="6"/>
-      <c r="M261" s="52" t="s">
+      <c r="M261" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N261" s="8"/>
@@ -8587,9 +8744,9 @@
     </row>
     <row r="262" spans="1:15" ht="13.5" thickBot="1">
       <c r="A262" s="1"/>
-      <c r="B262" s="50"/>
-      <c r="C262" s="50"/>
-      <c r="D262" s="50"/>
+      <c r="B262" s="21"/>
+      <c r="C262" s="21"/>
+      <c r="D262" s="21"/>
       <c r="E262" s="1"/>
       <c r="F262" s="2"/>
       <c r="G262" s="3">
@@ -8605,7 +8762,7 @@
       <c r="J262" s="15"/>
       <c r="K262" s="15"/>
       <c r="L262" s="6"/>
-      <c r="M262" s="52" t="s">
+      <c r="M262" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N262" s="8"/>
@@ -8613,9 +8770,9 @@
     </row>
     <row r="263" spans="1:15" ht="13.5" thickBot="1">
       <c r="A263" s="1"/>
-      <c r="B263" s="50"/>
-      <c r="C263" s="50"/>
-      <c r="D263" s="50"/>
+      <c r="B263" s="21"/>
+      <c r="C263" s="21"/>
+      <c r="D263" s="21"/>
       <c r="E263" s="1"/>
       <c r="F263" s="2"/>
       <c r="G263" s="3">
@@ -8631,7 +8788,7 @@
       <c r="J263" s="15"/>
       <c r="K263" s="15"/>
       <c r="L263" s="6"/>
-      <c r="M263" s="52" t="s">
+      <c r="M263" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N263" s="8"/>
@@ -8639,9 +8796,9 @@
     </row>
     <row r="264" spans="1:15" ht="13.5" thickBot="1">
       <c r="A264" s="1"/>
-      <c r="B264" s="50"/>
-      <c r="C264" s="50"/>
-      <c r="D264" s="50"/>
+      <c r="B264" s="21"/>
+      <c r="C264" s="21"/>
+      <c r="D264" s="21"/>
       <c r="E264" s="1"/>
       <c r="F264" s="2"/>
       <c r="G264" s="3">
@@ -8657,7 +8814,7 @@
       <c r="J264" s="15"/>
       <c r="K264" s="15"/>
       <c r="L264" s="6"/>
-      <c r="M264" s="52" t="s">
+      <c r="M264" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N264" s="8"/>
@@ -8665,9 +8822,9 @@
     </row>
     <row r="265" spans="1:15" ht="13.5" thickBot="1">
       <c r="A265" s="1"/>
-      <c r="B265" s="50"/>
-      <c r="C265" s="50"/>
-      <c r="D265" s="50"/>
+      <c r="B265" s="21"/>
+      <c r="C265" s="21"/>
+      <c r="D265" s="21"/>
       <c r="E265" s="1"/>
       <c r="F265" s="2"/>
       <c r="G265" s="3">
@@ -8683,7 +8840,7 @@
       <c r="J265" s="15"/>
       <c r="K265" s="15"/>
       <c r="L265" s="6"/>
-      <c r="M265" s="52" t="s">
+      <c r="M265" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N265" s="8"/>
@@ -8691,9 +8848,9 @@
     </row>
     <row r="266" spans="1:15" ht="13.5" thickBot="1">
       <c r="A266" s="1"/>
-      <c r="B266" s="50"/>
-      <c r="C266" s="50"/>
-      <c r="D266" s="50"/>
+      <c r="B266" s="21"/>
+      <c r="C266" s="21"/>
+      <c r="D266" s="21"/>
       <c r="E266" s="1"/>
       <c r="F266" s="2"/>
       <c r="G266" s="3">
@@ -8709,7 +8866,7 @@
       <c r="J266" s="15"/>
       <c r="K266" s="15"/>
       <c r="L266" s="6"/>
-      <c r="M266" s="52" t="s">
+      <c r="M266" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N266" s="8"/>
@@ -8717,9 +8874,9 @@
     </row>
     <row r="267" spans="1:15" ht="13.5" thickBot="1">
       <c r="A267" s="1"/>
-      <c r="B267" s="50"/>
-      <c r="C267" s="50"/>
-      <c r="D267" s="50"/>
+      <c r="B267" s="21"/>
+      <c r="C267" s="21"/>
+      <c r="D267" s="21"/>
       <c r="E267" s="1"/>
       <c r="F267" s="2"/>
       <c r="G267" s="3">
@@ -8735,7 +8892,7 @@
       <c r="J267" s="15"/>
       <c r="K267" s="15"/>
       <c r="L267" s="6"/>
-      <c r="M267" s="52" t="s">
+      <c r="M267" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N267" s="8"/>
@@ -8743,9 +8900,9 @@
     </row>
     <row r="268" spans="1:15" ht="13.5" thickBot="1">
       <c r="A268" s="1"/>
-      <c r="B268" s="50"/>
-      <c r="C268" s="50"/>
-      <c r="D268" s="50"/>
+      <c r="B268" s="21"/>
+      <c r="C268" s="21"/>
+      <c r="D268" s="21"/>
       <c r="E268" s="1"/>
       <c r="F268" s="2"/>
       <c r="G268" s="3">
@@ -8761,7 +8918,7 @@
       <c r="J268" s="15"/>
       <c r="K268" s="15"/>
       <c r="L268" s="6"/>
-      <c r="M268" s="52" t="s">
+      <c r="M268" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N268" s="8"/>
@@ -8769,9 +8926,9 @@
     </row>
     <row r="269" spans="1:15" ht="13.5" thickBot="1">
       <c r="A269" s="1"/>
-      <c r="B269" s="50"/>
-      <c r="C269" s="50"/>
-      <c r="D269" s="50"/>
+      <c r="B269" s="21"/>
+      <c r="C269" s="21"/>
+      <c r="D269" s="21"/>
       <c r="E269" s="1"/>
       <c r="F269" s="2"/>
       <c r="G269" s="3">
@@ -8787,7 +8944,7 @@
       <c r="J269" s="15"/>
       <c r="K269" s="15"/>
       <c r="L269" s="6"/>
-      <c r="M269" s="52" t="s">
+      <c r="M269" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N269" s="8"/>
@@ -8795,9 +8952,9 @@
     </row>
     <row r="270" spans="1:15" ht="13.5" thickBot="1">
       <c r="A270" s="1"/>
-      <c r="B270" s="50"/>
-      <c r="C270" s="50"/>
-      <c r="D270" s="50"/>
+      <c r="B270" s="21"/>
+      <c r="C270" s="21"/>
+      <c r="D270" s="21"/>
       <c r="E270" s="1"/>
       <c r="F270" s="2"/>
       <c r="G270" s="3">
@@ -8813,7 +8970,7 @@
       <c r="J270" s="15"/>
       <c r="K270" s="15"/>
       <c r="L270" s="6"/>
-      <c r="M270" s="52" t="s">
+      <c r="M270" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N270" s="8"/>
@@ -8821,9 +8978,9 @@
     </row>
     <row r="271" spans="1:15" ht="13.5" thickBot="1">
       <c r="A271" s="1"/>
-      <c r="B271" s="50"/>
-      <c r="C271" s="50"/>
-      <c r="D271" s="50"/>
+      <c r="B271" s="21"/>
+      <c r="C271" s="21"/>
+      <c r="D271" s="21"/>
       <c r="E271" s="1"/>
       <c r="F271" s="2"/>
       <c r="G271" s="3">
@@ -8839,7 +8996,7 @@
       <c r="J271" s="15"/>
       <c r="K271" s="15"/>
       <c r="L271" s="6"/>
-      <c r="M271" s="52" t="s">
+      <c r="M271" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N271" s="8"/>
@@ -8847,9 +9004,9 @@
     </row>
     <row r="272" spans="1:15" ht="13.5" thickBot="1">
       <c r="A272" s="1"/>
-      <c r="B272" s="50"/>
-      <c r="C272" s="50"/>
-      <c r="D272" s="50"/>
+      <c r="B272" s="21"/>
+      <c r="C272" s="21"/>
+      <c r="D272" s="21"/>
       <c r="E272" s="1"/>
       <c r="F272" s="2"/>
       <c r="G272" s="3">
@@ -8865,7 +9022,7 @@
       <c r="J272" s="15"/>
       <c r="K272" s="15"/>
       <c r="L272" s="6"/>
-      <c r="M272" s="52" t="s">
+      <c r="M272" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N272" s="8"/>
@@ -8873,9 +9030,9 @@
     </row>
     <row r="273" spans="1:15" ht="13.5" thickBot="1">
       <c r="A273" s="1"/>
-      <c r="B273" s="50"/>
-      <c r="C273" s="50"/>
-      <c r="D273" s="50"/>
+      <c r="B273" s="21"/>
+      <c r="C273" s="21"/>
+      <c r="D273" s="21"/>
       <c r="E273" s="1"/>
       <c r="F273" s="2"/>
       <c r="G273" s="3">
@@ -8891,7 +9048,7 @@
       <c r="J273" s="15"/>
       <c r="K273" s="15"/>
       <c r="L273" s="6"/>
-      <c r="M273" s="52" t="s">
+      <c r="M273" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N273" s="8"/>
@@ -8899,9 +9056,9 @@
     </row>
     <row r="274" spans="1:15" ht="13.5" thickBot="1">
       <c r="A274" s="1"/>
-      <c r="B274" s="50"/>
-      <c r="C274" s="50"/>
-      <c r="D274" s="50"/>
+      <c r="B274" s="21"/>
+      <c r="C274" s="21"/>
+      <c r="D274" s="21"/>
       <c r="E274" s="1"/>
       <c r="F274" s="2"/>
       <c r="G274" s="3">
@@ -8917,7 +9074,7 @@
       <c r="J274" s="15"/>
       <c r="K274" s="15"/>
       <c r="L274" s="6"/>
-      <c r="M274" s="52" t="s">
+      <c r="M274" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N274" s="8"/>
@@ -8925,9 +9082,9 @@
     </row>
     <row r="275" spans="1:15" ht="13.5" thickBot="1">
       <c r="A275" s="1"/>
-      <c r="B275" s="50"/>
-      <c r="C275" s="50"/>
-      <c r="D275" s="50"/>
+      <c r="B275" s="21"/>
+      <c r="C275" s="21"/>
+      <c r="D275" s="21"/>
       <c r="E275" s="1"/>
       <c r="F275" s="2"/>
       <c r="G275" s="3">
@@ -8943,7 +9100,7 @@
       <c r="J275" s="15"/>
       <c r="K275" s="15"/>
       <c r="L275" s="6"/>
-      <c r="M275" s="52" t="s">
+      <c r="M275" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N275" s="8"/>
@@ -8951,9 +9108,9 @@
     </row>
     <row r="276" spans="1:15" ht="13.5" thickBot="1">
       <c r="A276" s="1"/>
-      <c r="B276" s="50"/>
-      <c r="C276" s="50"/>
-      <c r="D276" s="50"/>
+      <c r="B276" s="21"/>
+      <c r="C276" s="21"/>
+      <c r="D276" s="21"/>
       <c r="E276" s="1"/>
       <c r="F276" s="2"/>
       <c r="G276" s="3">
@@ -8969,7 +9126,7 @@
       <c r="J276" s="15"/>
       <c r="K276" s="15"/>
       <c r="L276" s="6"/>
-      <c r="M276" s="52" t="s">
+      <c r="M276" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N276" s="8"/>
@@ -8977,9 +9134,9 @@
     </row>
     <row r="277" spans="1:15" ht="13.5" thickBot="1">
       <c r="A277" s="1"/>
-      <c r="B277" s="50"/>
-      <c r="C277" s="50"/>
-      <c r="D277" s="50"/>
+      <c r="B277" s="21"/>
+      <c r="C277" s="21"/>
+      <c r="D277" s="21"/>
       <c r="E277" s="1"/>
       <c r="F277" s="2"/>
       <c r="G277" s="3">
@@ -8995,7 +9152,7 @@
       <c r="J277" s="15"/>
       <c r="K277" s="15"/>
       <c r="L277" s="6"/>
-      <c r="M277" s="52" t="s">
+      <c r="M277" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N277" s="8"/>
@@ -9003,9 +9160,9 @@
     </row>
     <row r="278" spans="1:15" ht="13.5" thickBot="1">
       <c r="A278" s="1"/>
-      <c r="B278" s="50"/>
-      <c r="C278" s="50"/>
-      <c r="D278" s="50"/>
+      <c r="B278" s="21"/>
+      <c r="C278" s="21"/>
+      <c r="D278" s="21"/>
       <c r="E278" s="1"/>
       <c r="F278" s="2"/>
       <c r="G278" s="3">
@@ -9021,7 +9178,7 @@
       <c r="J278" s="15"/>
       <c r="K278" s="15"/>
       <c r="L278" s="6"/>
-      <c r="M278" s="52" t="s">
+      <c r="M278" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N278" s="8"/>
@@ -9029,9 +9186,9 @@
     </row>
     <row r="279" spans="1:15" ht="13.5" thickBot="1">
       <c r="A279" s="1"/>
-      <c r="B279" s="50"/>
-      <c r="C279" s="50"/>
-      <c r="D279" s="50"/>
+      <c r="B279" s="21"/>
+      <c r="C279" s="21"/>
+      <c r="D279" s="21"/>
       <c r="E279" s="1"/>
       <c r="F279" s="2"/>
       <c r="G279" s="3">
@@ -9047,7 +9204,7 @@
       <c r="J279" s="15"/>
       <c r="K279" s="15"/>
       <c r="L279" s="6"/>
-      <c r="M279" s="52" t="s">
+      <c r="M279" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N279" s="8"/>
@@ -9055,9 +9212,9 @@
     </row>
     <row r="280" spans="1:15" ht="13.5" thickBot="1">
       <c r="A280" s="1"/>
-      <c r="B280" s="50"/>
-      <c r="C280" s="50"/>
-      <c r="D280" s="50"/>
+      <c r="B280" s="21"/>
+      <c r="C280" s="21"/>
+      <c r="D280" s="21"/>
       <c r="E280" s="1"/>
       <c r="F280" s="2"/>
       <c r="G280" s="3">
@@ -9073,7 +9230,7 @@
       <c r="J280" s="15"/>
       <c r="K280" s="15"/>
       <c r="L280" s="6"/>
-      <c r="M280" s="52" t="s">
+      <c r="M280" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N280" s="8"/>
@@ -9081,9 +9238,9 @@
     </row>
     <row r="281" spans="1:15" ht="13.5" thickBot="1">
       <c r="A281" s="1"/>
-      <c r="B281" s="50"/>
-      <c r="C281" s="50"/>
-      <c r="D281" s="50"/>
+      <c r="B281" s="21"/>
+      <c r="C281" s="21"/>
+      <c r="D281" s="21"/>
       <c r="E281" s="1"/>
       <c r="F281" s="2"/>
       <c r="G281" s="3">
@@ -9099,7 +9256,7 @@
       <c r="J281" s="15"/>
       <c r="K281" s="15"/>
       <c r="L281" s="6"/>
-      <c r="M281" s="52" t="s">
+      <c r="M281" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N281" s="8"/>
@@ -9107,9 +9264,9 @@
     </row>
     <row r="282" spans="1:15" ht="13.5" thickBot="1">
       <c r="A282" s="1"/>
-      <c r="B282" s="50"/>
-      <c r="C282" s="50"/>
-      <c r="D282" s="50"/>
+      <c r="B282" s="21"/>
+      <c r="C282" s="21"/>
+      <c r="D282" s="21"/>
       <c r="E282" s="1"/>
       <c r="F282" s="2"/>
       <c r="G282" s="3">
@@ -9125,7 +9282,7 @@
       <c r="J282" s="15"/>
       <c r="K282" s="15"/>
       <c r="L282" s="6"/>
-      <c r="M282" s="52" t="s">
+      <c r="M282" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N282" s="8"/>
@@ -9133,9 +9290,9 @@
     </row>
     <row r="283" spans="1:15" ht="13.5" thickBot="1">
       <c r="A283" s="1"/>
-      <c r="B283" s="50"/>
-      <c r="C283" s="50"/>
-      <c r="D283" s="50"/>
+      <c r="B283" s="21"/>
+      <c r="C283" s="21"/>
+      <c r="D283" s="21"/>
       <c r="E283" s="1"/>
       <c r="F283" s="2"/>
       <c r="G283" s="3">
@@ -9151,7 +9308,7 @@
       <c r="J283" s="15"/>
       <c r="K283" s="15"/>
       <c r="L283" s="6"/>
-      <c r="M283" s="52" t="s">
+      <c r="M283" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N283" s="8"/>
@@ -9159,9 +9316,9 @@
     </row>
     <row r="284" spans="1:15" ht="13.5" thickBot="1">
       <c r="A284" s="1"/>
-      <c r="B284" s="50"/>
-      <c r="C284" s="50"/>
-      <c r="D284" s="50"/>
+      <c r="B284" s="21"/>
+      <c r="C284" s="21"/>
+      <c r="D284" s="21"/>
       <c r="E284" s="1"/>
       <c r="F284" s="2"/>
       <c r="G284" s="3">
@@ -9177,7 +9334,7 @@
       <c r="J284" s="15"/>
       <c r="K284" s="15"/>
       <c r="L284" s="6"/>
-      <c r="M284" s="52" t="s">
+      <c r="M284" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N284" s="8"/>
@@ -9185,9 +9342,9 @@
     </row>
     <row r="285" spans="1:15" ht="13.5" thickBot="1">
       <c r="A285" s="1"/>
-      <c r="B285" s="50"/>
-      <c r="C285" s="50"/>
-      <c r="D285" s="50"/>
+      <c r="B285" s="21"/>
+      <c r="C285" s="21"/>
+      <c r="D285" s="21"/>
       <c r="E285" s="1"/>
       <c r="F285" s="2"/>
       <c r="G285" s="3">
@@ -9203,7 +9360,7 @@
       <c r="J285" s="15"/>
       <c r="K285" s="15"/>
       <c r="L285" s="6"/>
-      <c r="M285" s="52" t="s">
+      <c r="M285" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N285" s="8"/>
@@ -9211,9 +9368,9 @@
     </row>
     <row r="286" spans="1:15" ht="13.5" thickBot="1">
       <c r="A286" s="1"/>
-      <c r="B286" s="50"/>
-      <c r="C286" s="50"/>
-      <c r="D286" s="50"/>
+      <c r="B286" s="21"/>
+      <c r="C286" s="21"/>
+      <c r="D286" s="21"/>
       <c r="E286" s="1"/>
       <c r="F286" s="2"/>
       <c r="G286" s="3">
@@ -9229,7 +9386,7 @@
       <c r="J286" s="15"/>
       <c r="K286" s="15"/>
       <c r="L286" s="6"/>
-      <c r="M286" s="52" t="s">
+      <c r="M286" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N286" s="8"/>
@@ -9237,9 +9394,9 @@
     </row>
     <row r="287" spans="1:15" ht="13.5" thickBot="1">
       <c r="A287" s="1"/>
-      <c r="B287" s="50"/>
-      <c r="C287" s="50"/>
-      <c r="D287" s="50"/>
+      <c r="B287" s="21"/>
+      <c r="C287" s="21"/>
+      <c r="D287" s="21"/>
       <c r="E287" s="1"/>
       <c r="F287" s="2"/>
       <c r="G287" s="3">
@@ -9255,7 +9412,7 @@
       <c r="J287" s="15"/>
       <c r="K287" s="15"/>
       <c r="L287" s="6"/>
-      <c r="M287" s="52" t="s">
+      <c r="M287" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N287" s="8"/>
@@ -9263,9 +9420,9 @@
     </row>
     <row r="288" spans="1:15" ht="13.5" thickBot="1">
       <c r="A288" s="1"/>
-      <c r="B288" s="50"/>
-      <c r="C288" s="50"/>
-      <c r="D288" s="50"/>
+      <c r="B288" s="21"/>
+      <c r="C288" s="21"/>
+      <c r="D288" s="21"/>
       <c r="E288" s="1"/>
       <c r="F288" s="2"/>
       <c r="G288" s="3">
@@ -9281,7 +9438,7 @@
       <c r="J288" s="15"/>
       <c r="K288" s="15"/>
       <c r="L288" s="6"/>
-      <c r="M288" s="52" t="s">
+      <c r="M288" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N288" s="8"/>
@@ -9289,9 +9446,9 @@
     </row>
     <row r="289" spans="1:15" ht="13.5" thickBot="1">
       <c r="A289" s="1"/>
-      <c r="B289" s="50"/>
-      <c r="C289" s="50"/>
-      <c r="D289" s="50"/>
+      <c r="B289" s="21"/>
+      <c r="C289" s="21"/>
+      <c r="D289" s="21"/>
       <c r="E289" s="1"/>
       <c r="F289" s="2"/>
       <c r="G289" s="3">
@@ -9307,7 +9464,7 @@
       <c r="J289" s="15"/>
       <c r="K289" s="15"/>
       <c r="L289" s="6"/>
-      <c r="M289" s="52" t="s">
+      <c r="M289" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N289" s="8"/>
@@ -9315,9 +9472,9 @@
     </row>
     <row r="290" spans="1:15" ht="13.5" thickBot="1">
       <c r="A290" s="1"/>
-      <c r="B290" s="50"/>
-      <c r="C290" s="50"/>
-      <c r="D290" s="50"/>
+      <c r="B290" s="21"/>
+      <c r="C290" s="21"/>
+      <c r="D290" s="21"/>
       <c r="E290" s="1"/>
       <c r="F290" s="2"/>
       <c r="G290" s="3">
@@ -9333,7 +9490,7 @@
       <c r="J290" s="15"/>
       <c r="K290" s="15"/>
       <c r="L290" s="6"/>
-      <c r="M290" s="52" t="s">
+      <c r="M290" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N290" s="8"/>
@@ -9341,9 +9498,9 @@
     </row>
     <row r="291" spans="1:15" ht="13.5" thickBot="1">
       <c r="A291" s="1"/>
-      <c r="B291" s="50"/>
-      <c r="C291" s="50"/>
-      <c r="D291" s="50"/>
+      <c r="B291" s="21"/>
+      <c r="C291" s="21"/>
+      <c r="D291" s="21"/>
       <c r="E291" s="1"/>
       <c r="F291" s="2"/>
       <c r="G291" s="3">
@@ -9359,7 +9516,7 @@
       <c r="J291" s="15"/>
       <c r="K291" s="15"/>
       <c r="L291" s="6"/>
-      <c r="M291" s="52" t="s">
+      <c r="M291" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N291" s="8"/>
@@ -9367,9 +9524,9 @@
     </row>
     <row r="292" spans="1:15" ht="13.5" thickBot="1">
       <c r="A292" s="1"/>
-      <c r="B292" s="50"/>
-      <c r="C292" s="50"/>
-      <c r="D292" s="50"/>
+      <c r="B292" s="21"/>
+      <c r="C292" s="21"/>
+      <c r="D292" s="21"/>
       <c r="E292" s="1"/>
       <c r="F292" s="2"/>
       <c r="G292" s="3">
@@ -9385,7 +9542,7 @@
       <c r="J292" s="15"/>
       <c r="K292" s="15"/>
       <c r="L292" s="6"/>
-      <c r="M292" s="52" t="s">
+      <c r="M292" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N292" s="8"/>
@@ -9393,9 +9550,9 @@
     </row>
     <row r="293" spans="1:15" ht="13.5" thickBot="1">
       <c r="A293" s="1"/>
-      <c r="B293" s="50"/>
-      <c r="C293" s="50"/>
-      <c r="D293" s="50"/>
+      <c r="B293" s="21"/>
+      <c r="C293" s="21"/>
+      <c r="D293" s="21"/>
       <c r="E293" s="1"/>
       <c r="F293" s="2"/>
       <c r="G293" s="3">
@@ -9411,7 +9568,7 @@
       <c r="J293" s="15"/>
       <c r="K293" s="15"/>
       <c r="L293" s="6"/>
-      <c r="M293" s="52" t="s">
+      <c r="M293" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N293" s="8"/>
@@ -9419,9 +9576,9 @@
     </row>
     <row r="294" spans="1:15" ht="13.5" thickBot="1">
       <c r="A294" s="1"/>
-      <c r="B294" s="50"/>
-      <c r="C294" s="50"/>
-      <c r="D294" s="50"/>
+      <c r="B294" s="21"/>
+      <c r="C294" s="21"/>
+      <c r="D294" s="21"/>
       <c r="E294" s="1"/>
       <c r="F294" s="2"/>
       <c r="G294" s="3">
@@ -9437,7 +9594,7 @@
       <c r="J294" s="15"/>
       <c r="K294" s="15"/>
       <c r="L294" s="6"/>
-      <c r="M294" s="52" t="s">
+      <c r="M294" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N294" s="8"/>
@@ -9445,9 +9602,9 @@
     </row>
     <row r="295" spans="1:15" ht="13.5" thickBot="1">
       <c r="A295" s="1"/>
-      <c r="B295" s="50"/>
-      <c r="C295" s="50"/>
-      <c r="D295" s="50"/>
+      <c r="B295" s="21"/>
+      <c r="C295" s="21"/>
+      <c r="D295" s="21"/>
       <c r="E295" s="1"/>
       <c r="F295" s="2"/>
       <c r="G295" s="3">
@@ -9463,7 +9620,7 @@
       <c r="J295" s="15"/>
       <c r="K295" s="15"/>
       <c r="L295" s="6"/>
-      <c r="M295" s="52" t="s">
+      <c r="M295" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N295" s="8"/>
@@ -9471,9 +9628,9 @@
     </row>
     <row r="296" spans="1:15" ht="13.5" thickBot="1">
       <c r="A296" s="1"/>
-      <c r="B296" s="50"/>
-      <c r="C296" s="50"/>
-      <c r="D296" s="50"/>
+      <c r="B296" s="21"/>
+      <c r="C296" s="21"/>
+      <c r="D296" s="21"/>
       <c r="E296" s="1"/>
       <c r="F296" s="2"/>
       <c r="G296" s="3">
@@ -9489,7 +9646,7 @@
       <c r="J296" s="15"/>
       <c r="K296" s="15"/>
       <c r="L296" s="6"/>
-      <c r="M296" s="52" t="s">
+      <c r="M296" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N296" s="8"/>
@@ -9497,9 +9654,9 @@
     </row>
     <row r="297" spans="1:15" ht="13.5" thickBot="1">
       <c r="A297" s="1"/>
-      <c r="B297" s="50"/>
-      <c r="C297" s="50"/>
-      <c r="D297" s="50"/>
+      <c r="B297" s="21"/>
+      <c r="C297" s="21"/>
+      <c r="D297" s="21"/>
       <c r="E297" s="1"/>
       <c r="F297" s="2"/>
       <c r="G297" s="3">
@@ -9515,7 +9672,7 @@
       <c r="J297" s="15"/>
       <c r="K297" s="15"/>
       <c r="L297" s="6"/>
-      <c r="M297" s="52" t="s">
+      <c r="M297" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N297" s="8"/>
@@ -9523,9 +9680,9 @@
     </row>
     <row r="298" spans="1:15" ht="13.5" thickBot="1">
       <c r="A298" s="1"/>
-      <c r="B298" s="50"/>
-      <c r="C298" s="50"/>
-      <c r="D298" s="50"/>
+      <c r="B298" s="21"/>
+      <c r="C298" s="21"/>
+      <c r="D298" s="21"/>
       <c r="E298" s="1"/>
       <c r="F298" s="2"/>
       <c r="G298" s="3">
@@ -9541,7 +9698,7 @@
       <c r="J298" s="15"/>
       <c r="K298" s="15"/>
       <c r="L298" s="6"/>
-      <c r="M298" s="52" t="s">
+      <c r="M298" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N298" s="8"/>
@@ -9549,9 +9706,9 @@
     </row>
     <row r="299" spans="1:15" ht="13.5" thickBot="1">
       <c r="A299" s="1"/>
-      <c r="B299" s="50"/>
-      <c r="C299" s="50"/>
-      <c r="D299" s="50"/>
+      <c r="B299" s="21"/>
+      <c r="C299" s="21"/>
+      <c r="D299" s="21"/>
       <c r="E299" s="1"/>
       <c r="F299" s="2"/>
       <c r="G299" s="3">
@@ -9567,7 +9724,7 @@
       <c r="J299" s="15"/>
       <c r="K299" s="15"/>
       <c r="L299" s="6"/>
-      <c r="M299" s="52" t="s">
+      <c r="M299" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N299" s="8"/>
@@ -9575,9 +9732,9 @@
     </row>
     <row r="300" spans="1:15" ht="13.5" thickBot="1">
       <c r="A300" s="1"/>
-      <c r="B300" s="50"/>
-      <c r="C300" s="50"/>
-      <c r="D300" s="50"/>
+      <c r="B300" s="21"/>
+      <c r="C300" s="21"/>
+      <c r="D300" s="21"/>
       <c r="E300" s="1"/>
       <c r="F300" s="2"/>
       <c r="G300" s="3">
@@ -9593,7 +9750,7 @@
       <c r="J300" s="15"/>
       <c r="K300" s="15"/>
       <c r="L300" s="6"/>
-      <c r="M300" s="52" t="s">
+      <c r="M300" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N300" s="8"/>
@@ -9601,9 +9758,9 @@
     </row>
     <row r="301" spans="1:15" ht="13.5" thickBot="1">
       <c r="A301" s="1"/>
-      <c r="B301" s="50"/>
-      <c r="C301" s="50"/>
-      <c r="D301" s="50"/>
+      <c r="B301" s="21"/>
+      <c r="C301" s="21"/>
+      <c r="D301" s="21"/>
       <c r="E301" s="1"/>
       <c r="F301" s="2"/>
       <c r="G301" s="3">
@@ -9619,7 +9776,7 @@
       <c r="J301" s="15"/>
       <c r="K301" s="15"/>
       <c r="L301" s="6"/>
-      <c r="M301" s="52" t="s">
+      <c r="M301" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N301" s="8"/>
@@ -9627,9 +9784,9 @@
     </row>
     <row r="302" spans="1:15" ht="13.5" thickBot="1">
       <c r="A302" s="1"/>
-      <c r="B302" s="50"/>
-      <c r="C302" s="50"/>
-      <c r="D302" s="50"/>
+      <c r="B302" s="21"/>
+      <c r="C302" s="21"/>
+      <c r="D302" s="21"/>
       <c r="E302" s="1"/>
       <c r="F302" s="2"/>
       <c r="G302" s="3">
@@ -9645,7 +9802,7 @@
       <c r="J302" s="15"/>
       <c r="K302" s="15"/>
       <c r="L302" s="6"/>
-      <c r="M302" s="52" t="s">
+      <c r="M302" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N302" s="8"/>
@@ -9653,9 +9810,9 @@
     </row>
     <row r="303" spans="1:15" ht="13.5" thickBot="1">
       <c r="A303" s="1"/>
-      <c r="B303" s="50"/>
-      <c r="C303" s="50"/>
-      <c r="D303" s="50"/>
+      <c r="B303" s="21"/>
+      <c r="C303" s="21"/>
+      <c r="D303" s="21"/>
       <c r="E303" s="1"/>
       <c r="F303" s="2"/>
       <c r="G303" s="3">
@@ -9671,7 +9828,7 @@
       <c r="J303" s="15"/>
       <c r="K303" s="15"/>
       <c r="L303" s="6"/>
-      <c r="M303" s="52" t="s">
+      <c r="M303" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N303" s="8"/>
@@ -9679,9 +9836,9 @@
     </row>
     <row r="304" spans="1:15" ht="13.5" thickBot="1">
       <c r="A304" s="1"/>
-      <c r="B304" s="50"/>
-      <c r="C304" s="50"/>
-      <c r="D304" s="50"/>
+      <c r="B304" s="21"/>
+      <c r="C304" s="21"/>
+      <c r="D304" s="21"/>
       <c r="E304" s="1"/>
       <c r="F304" s="2"/>
       <c r="G304" s="3">
@@ -9697,7 +9854,7 @@
       <c r="J304" s="15"/>
       <c r="K304" s="15"/>
       <c r="L304" s="6"/>
-      <c r="M304" s="52" t="s">
+      <c r="M304" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N304" s="8"/>
@@ -9705,9 +9862,9 @@
     </row>
     <row r="305" spans="1:15" ht="13.5" thickBot="1">
       <c r="A305" s="1"/>
-      <c r="B305" s="50"/>
-      <c r="C305" s="50"/>
-      <c r="D305" s="50"/>
+      <c r="B305" s="21"/>
+      <c r="C305" s="21"/>
+      <c r="D305" s="21"/>
       <c r="E305" s="1"/>
       <c r="F305" s="2"/>
       <c r="G305" s="3">
@@ -9723,7 +9880,7 @@
       <c r="J305" s="15"/>
       <c r="K305" s="15"/>
       <c r="L305" s="6"/>
-      <c r="M305" s="52" t="s">
+      <c r="M305" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N305" s="8"/>
@@ -9731,9 +9888,9 @@
     </row>
     <row r="306" spans="1:15" ht="13.5" thickBot="1">
       <c r="A306" s="1"/>
-      <c r="B306" s="50"/>
-      <c r="C306" s="50"/>
-      <c r="D306" s="50"/>
+      <c r="B306" s="21"/>
+      <c r="C306" s="21"/>
+      <c r="D306" s="21"/>
       <c r="E306" s="1"/>
       <c r="F306" s="2"/>
       <c r="G306" s="3">
@@ -9749,7 +9906,7 @@
       <c r="J306" s="15"/>
       <c r="K306" s="15"/>
       <c r="L306" s="6"/>
-      <c r="M306" s="52" t="s">
+      <c r="M306" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N306" s="8"/>
@@ -9757,9 +9914,9 @@
     </row>
     <row r="307" spans="1:15" ht="13.5" thickBot="1">
       <c r="A307" s="1"/>
-      <c r="B307" s="50"/>
-      <c r="C307" s="50"/>
-      <c r="D307" s="50"/>
+      <c r="B307" s="21"/>
+      <c r="C307" s="21"/>
+      <c r="D307" s="21"/>
       <c r="E307" s="1"/>
       <c r="F307" s="2"/>
       <c r="G307" s="3">
@@ -9775,7 +9932,7 @@
       <c r="J307" s="15"/>
       <c r="K307" s="15"/>
       <c r="L307" s="6"/>
-      <c r="M307" s="52" t="s">
+      <c r="M307" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N307" s="8"/>
@@ -9783,9 +9940,9 @@
     </row>
     <row r="308" spans="1:15" ht="13.5" thickBot="1">
       <c r="A308" s="1"/>
-      <c r="B308" s="50"/>
-      <c r="C308" s="50"/>
-      <c r="D308" s="50"/>
+      <c r="B308" s="21"/>
+      <c r="C308" s="21"/>
+      <c r="D308" s="21"/>
       <c r="E308" s="1"/>
       <c r="F308" s="2"/>
       <c r="G308" s="3">
@@ -9801,7 +9958,7 @@
       <c r="J308" s="15"/>
       <c r="K308" s="15"/>
       <c r="L308" s="6"/>
-      <c r="M308" s="52" t="s">
+      <c r="M308" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N308" s="8"/>
@@ -9809,9 +9966,9 @@
     </row>
     <row r="309" spans="1:15" ht="13.5" thickBot="1">
       <c r="A309" s="1"/>
-      <c r="B309" s="50"/>
-      <c r="C309" s="50"/>
-      <c r="D309" s="50"/>
+      <c r="B309" s="21"/>
+      <c r="C309" s="21"/>
+      <c r="D309" s="21"/>
       <c r="E309" s="1"/>
       <c r="F309" s="2"/>
       <c r="G309" s="3">
@@ -9827,7 +9984,7 @@
       <c r="J309" s="15"/>
       <c r="K309" s="15"/>
       <c r="L309" s="6"/>
-      <c r="M309" s="52" t="s">
+      <c r="M309" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N309" s="8"/>
@@ -9835,9 +9992,9 @@
     </row>
     <row r="310" spans="1:15" ht="13.5" thickBot="1">
       <c r="A310" s="1"/>
-      <c r="B310" s="50"/>
-      <c r="C310" s="50"/>
-      <c r="D310" s="50"/>
+      <c r="B310" s="21"/>
+      <c r="C310" s="21"/>
+      <c r="D310" s="21"/>
       <c r="E310" s="1"/>
       <c r="F310" s="2"/>
       <c r="G310" s="3">
@@ -9853,7 +10010,7 @@
       <c r="J310" s="15"/>
       <c r="K310" s="15"/>
       <c r="L310" s="6"/>
-      <c r="M310" s="52" t="s">
+      <c r="M310" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N310" s="8"/>
@@ -9861,9 +10018,9 @@
     </row>
     <row r="311" spans="1:15" ht="13.5" thickBot="1">
       <c r="A311" s="1"/>
-      <c r="B311" s="50"/>
-      <c r="C311" s="50"/>
-      <c r="D311" s="50"/>
+      <c r="B311" s="21"/>
+      <c r="C311" s="21"/>
+      <c r="D311" s="21"/>
       <c r="E311" s="1"/>
       <c r="F311" s="2"/>
       <c r="G311" s="3">
@@ -9879,7 +10036,7 @@
       <c r="J311" s="15"/>
       <c r="K311" s="15"/>
       <c r="L311" s="6"/>
-      <c r="M311" s="52" t="s">
+      <c r="M311" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N311" s="8"/>
@@ -9887,9 +10044,9 @@
     </row>
     <row r="312" spans="1:15" ht="13.5" thickBot="1">
       <c r="A312" s="1"/>
-      <c r="B312" s="50"/>
-      <c r="C312" s="50"/>
-      <c r="D312" s="50"/>
+      <c r="B312" s="21"/>
+      <c r="C312" s="21"/>
+      <c r="D312" s="21"/>
       <c r="E312" s="1"/>
       <c r="F312" s="2"/>
       <c r="G312" s="3">
@@ -9905,7 +10062,7 @@
       <c r="J312" s="15"/>
       <c r="K312" s="15"/>
       <c r="L312" s="6"/>
-      <c r="M312" s="52" t="s">
+      <c r="M312" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N312" s="8"/>
@@ -9913,9 +10070,9 @@
     </row>
     <row r="313" spans="1:15" ht="13.5" thickBot="1">
       <c r="A313" s="1"/>
-      <c r="B313" s="50"/>
-      <c r="C313" s="50"/>
-      <c r="D313" s="50"/>
+      <c r="B313" s="21"/>
+      <c r="C313" s="21"/>
+      <c r="D313" s="21"/>
       <c r="E313" s="1"/>
       <c r="F313" s="2"/>
       <c r="G313" s="3">
@@ -9931,7 +10088,7 @@
       <c r="J313" s="15"/>
       <c r="K313" s="15"/>
       <c r="L313" s="6"/>
-      <c r="M313" s="52" t="s">
+      <c r="M313" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N313" s="8"/>
@@ -9939,9 +10096,9 @@
     </row>
     <row r="314" spans="1:15" ht="13.5" thickBot="1">
       <c r="A314" s="1"/>
-      <c r="B314" s="50"/>
-      <c r="C314" s="50"/>
-      <c r="D314" s="50"/>
+      <c r="B314" s="21"/>
+      <c r="C314" s="21"/>
+      <c r="D314" s="21"/>
       <c r="E314" s="1"/>
       <c r="F314" s="2"/>
       <c r="G314" s="3">
@@ -9957,7 +10114,7 @@
       <c r="J314" s="15"/>
       <c r="K314" s="15"/>
       <c r="L314" s="6"/>
-      <c r="M314" s="52" t="s">
+      <c r="M314" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N314" s="8"/>
@@ -9965,9 +10122,9 @@
     </row>
     <row r="315" spans="1:15" ht="13.5" thickBot="1">
       <c r="A315" s="1"/>
-      <c r="B315" s="50"/>
-      <c r="C315" s="50"/>
-      <c r="D315" s="50"/>
+      <c r="B315" s="21"/>
+      <c r="C315" s="21"/>
+      <c r="D315" s="21"/>
       <c r="E315" s="1"/>
       <c r="F315" s="2"/>
       <c r="G315" s="3">
@@ -9983,7 +10140,7 @@
       <c r="J315" s="15"/>
       <c r="K315" s="15"/>
       <c r="L315" s="6"/>
-      <c r="M315" s="52" t="s">
+      <c r="M315" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N315" s="8"/>
@@ -9991,9 +10148,9 @@
     </row>
     <row r="316" spans="1:15" ht="13.5" thickBot="1">
       <c r="A316" s="1"/>
-      <c r="B316" s="50"/>
-      <c r="C316" s="50"/>
-      <c r="D316" s="50"/>
+      <c r="B316" s="21"/>
+      <c r="C316" s="21"/>
+      <c r="D316" s="21"/>
       <c r="E316" s="1"/>
       <c r="F316" s="2"/>
       <c r="G316" s="3">
@@ -10009,7 +10166,7 @@
       <c r="J316" s="15"/>
       <c r="K316" s="15"/>
       <c r="L316" s="6"/>
-      <c r="M316" s="52" t="s">
+      <c r="M316" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N316" s="8"/>
@@ -10017,9 +10174,9 @@
     </row>
     <row r="317" spans="1:15" ht="13.5" thickBot="1">
       <c r="A317" s="1"/>
-      <c r="B317" s="50"/>
-      <c r="C317" s="50"/>
-      <c r="D317" s="50"/>
+      <c r="B317" s="21"/>
+      <c r="C317" s="21"/>
+      <c r="D317" s="21"/>
       <c r="E317" s="1"/>
       <c r="F317" s="2"/>
       <c r="G317" s="3">
@@ -10035,7 +10192,7 @@
       <c r="J317" s="15"/>
       <c r="K317" s="15"/>
       <c r="L317" s="6"/>
-      <c r="M317" s="52" t="s">
+      <c r="M317" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N317" s="8"/>
@@ -10043,9 +10200,9 @@
     </row>
     <row r="318" spans="1:15" ht="13.5" thickBot="1">
       <c r="A318" s="1"/>
-      <c r="B318" s="50"/>
-      <c r="C318" s="50"/>
-      <c r="D318" s="50"/>
+      <c r="B318" s="21"/>
+      <c r="C318" s="21"/>
+      <c r="D318" s="21"/>
       <c r="E318" s="1"/>
       <c r="F318" s="2"/>
       <c r="G318" s="3">
@@ -10061,7 +10218,7 @@
       <c r="J318" s="15"/>
       <c r="K318" s="15"/>
       <c r="L318" s="6"/>
-      <c r="M318" s="52" t="s">
+      <c r="M318" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N318" s="8"/>
@@ -10069,9 +10226,9 @@
     </row>
     <row r="319" spans="1:15" ht="13.5" thickBot="1">
       <c r="A319" s="1"/>
-      <c r="B319" s="50"/>
-      <c r="C319" s="50"/>
-      <c r="D319" s="50"/>
+      <c r="B319" s="21"/>
+      <c r="C319" s="21"/>
+      <c r="D319" s="21"/>
       <c r="E319" s="1"/>
       <c r="F319" s="2"/>
       <c r="G319" s="3">
@@ -10087,7 +10244,7 @@
       <c r="J319" s="15"/>
       <c r="K319" s="15"/>
       <c r="L319" s="6"/>
-      <c r="M319" s="52" t="s">
+      <c r="M319" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N319" s="8"/>
@@ -10095,9 +10252,9 @@
     </row>
     <row r="320" spans="1:15" ht="13.5" thickBot="1">
       <c r="A320" s="1"/>
-      <c r="B320" s="50"/>
-      <c r="C320" s="50"/>
-      <c r="D320" s="50"/>
+      <c r="B320" s="21"/>
+      <c r="C320" s="21"/>
+      <c r="D320" s="21"/>
       <c r="E320" s="1"/>
       <c r="F320" s="2"/>
       <c r="G320" s="3">
@@ -10113,7 +10270,7 @@
       <c r="J320" s="15"/>
       <c r="K320" s="15"/>
       <c r="L320" s="6"/>
-      <c r="M320" s="52" t="s">
+      <c r="M320" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N320" s="8"/>
@@ -10121,9 +10278,9 @@
     </row>
     <row r="321" spans="1:15" ht="13.5" thickBot="1">
       <c r="A321" s="1"/>
-      <c r="B321" s="50"/>
-      <c r="C321" s="50"/>
-      <c r="D321" s="50"/>
+      <c r="B321" s="21"/>
+      <c r="C321" s="21"/>
+      <c r="D321" s="21"/>
       <c r="E321" s="1"/>
       <c r="F321" s="2"/>
       <c r="G321" s="3">
@@ -10139,7 +10296,7 @@
       <c r="J321" s="15"/>
       <c r="K321" s="15"/>
       <c r="L321" s="6"/>
-      <c r="M321" s="52" t="s">
+      <c r="M321" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N321" s="8"/>
@@ -10147,9 +10304,9 @@
     </row>
     <row r="322" spans="1:15" ht="13.5" thickBot="1">
       <c r="A322" s="1"/>
-      <c r="B322" s="50"/>
-      <c r="C322" s="50"/>
-      <c r="D322" s="50"/>
+      <c r="B322" s="21"/>
+      <c r="C322" s="21"/>
+      <c r="D322" s="21"/>
       <c r="E322" s="1"/>
       <c r="F322" s="2"/>
       <c r="G322" s="3">
@@ -10165,7 +10322,7 @@
       <c r="J322" s="15"/>
       <c r="K322" s="15"/>
       <c r="L322" s="6"/>
-      <c r="M322" s="52" t="s">
+      <c r="M322" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N322" s="8"/>
@@ -10173,9 +10330,9 @@
     </row>
     <row r="323" spans="1:15" ht="13.5" thickBot="1">
       <c r="A323" s="1"/>
-      <c r="B323" s="50"/>
-      <c r="C323" s="50"/>
-      <c r="D323" s="50"/>
+      <c r="B323" s="21"/>
+      <c r="C323" s="21"/>
+      <c r="D323" s="21"/>
       <c r="E323" s="1"/>
       <c r="F323" s="2"/>
       <c r="G323" s="3">
@@ -10191,7 +10348,7 @@
       <c r="J323" s="15"/>
       <c r="K323" s="15"/>
       <c r="L323" s="6"/>
-      <c r="M323" s="52" t="s">
+      <c r="M323" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N323" s="8"/>
@@ -10199,9 +10356,9 @@
     </row>
     <row r="324" spans="1:15" ht="13.5" thickBot="1">
       <c r="A324" s="1"/>
-      <c r="B324" s="50"/>
-      <c r="C324" s="50"/>
-      <c r="D324" s="50"/>
+      <c r="B324" s="21"/>
+      <c r="C324" s="21"/>
+      <c r="D324" s="21"/>
       <c r="E324" s="1"/>
       <c r="F324" s="2"/>
       <c r="G324" s="3">
@@ -10217,7 +10374,7 @@
       <c r="J324" s="15"/>
       <c r="K324" s="15"/>
       <c r="L324" s="6"/>
-      <c r="M324" s="52" t="s">
+      <c r="M324" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N324" s="8"/>
@@ -10225,9 +10382,9 @@
     </row>
     <row r="325" spans="1:15" ht="13.5" thickBot="1">
       <c r="A325" s="1"/>
-      <c r="B325" s="50"/>
-      <c r="C325" s="50"/>
-      <c r="D325" s="50"/>
+      <c r="B325" s="21"/>
+      <c r="C325" s="21"/>
+      <c r="D325" s="21"/>
       <c r="E325" s="1"/>
       <c r="F325" s="2"/>
       <c r="G325" s="3">
@@ -10243,7 +10400,7 @@
       <c r="J325" s="15"/>
       <c r="K325" s="15"/>
       <c r="L325" s="6"/>
-      <c r="M325" s="52" t="s">
+      <c r="M325" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N325" s="8"/>
@@ -10251,9 +10408,9 @@
     </row>
     <row r="326" spans="1:15" ht="13.5" thickBot="1">
       <c r="A326" s="1"/>
-      <c r="B326" s="50"/>
-      <c r="C326" s="50"/>
-      <c r="D326" s="50"/>
+      <c r="B326" s="21"/>
+      <c r="C326" s="21"/>
+      <c r="D326" s="21"/>
       <c r="E326" s="1"/>
       <c r="F326" s="2"/>
       <c r="G326" s="3">
@@ -10269,7 +10426,7 @@
       <c r="J326" s="15"/>
       <c r="K326" s="15"/>
       <c r="L326" s="6"/>
-      <c r="M326" s="52" t="s">
+      <c r="M326" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N326" s="8"/>
@@ -10277,9 +10434,9 @@
     </row>
     <row r="327" spans="1:15" ht="13.5" thickBot="1">
       <c r="A327" s="1"/>
-      <c r="B327" s="50"/>
-      <c r="C327" s="50"/>
-      <c r="D327" s="50"/>
+      <c r="B327" s="21"/>
+      <c r="C327" s="21"/>
+      <c r="D327" s="21"/>
       <c r="E327" s="1"/>
       <c r="F327" s="2"/>
       <c r="G327" s="3">
@@ -10295,7 +10452,7 @@
       <c r="J327" s="15"/>
       <c r="K327" s="15"/>
       <c r="L327" s="6"/>
-      <c r="M327" s="52" t="s">
+      <c r="M327" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N327" s="8"/>
@@ -10303,9 +10460,9 @@
     </row>
     <row r="328" spans="1:15" ht="13.5" thickBot="1">
       <c r="A328" s="1"/>
-      <c r="B328" s="50"/>
-      <c r="C328" s="50"/>
-      <c r="D328" s="50"/>
+      <c r="B328" s="21"/>
+      <c r="C328" s="21"/>
+      <c r="D328" s="21"/>
       <c r="E328" s="1"/>
       <c r="F328" s="2"/>
       <c r="G328" s="3">
@@ -10321,7 +10478,7 @@
       <c r="J328" s="15"/>
       <c r="K328" s="15"/>
       <c r="L328" s="6"/>
-      <c r="M328" s="52" t="s">
+      <c r="M328" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N328" s="8"/>
@@ -10329,9 +10486,9 @@
     </row>
     <row r="329" spans="1:15" ht="13.5" thickBot="1">
       <c r="A329" s="1"/>
-      <c r="B329" s="50"/>
-      <c r="C329" s="50"/>
-      <c r="D329" s="50"/>
+      <c r="B329" s="21"/>
+      <c r="C329" s="21"/>
+      <c r="D329" s="21"/>
       <c r="E329" s="1"/>
       <c r="F329" s="2"/>
       <c r="G329" s="3">
@@ -10347,7 +10504,7 @@
       <c r="J329" s="15"/>
       <c r="K329" s="15"/>
       <c r="L329" s="6"/>
-      <c r="M329" s="52" t="s">
+      <c r="M329" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N329" s="8"/>
@@ -10355,9 +10512,9 @@
     </row>
     <row r="330" spans="1:15" ht="13.5" thickBot="1">
       <c r="A330" s="1"/>
-      <c r="B330" s="50"/>
-      <c r="C330" s="50"/>
-      <c r="D330" s="50"/>
+      <c r="B330" s="21"/>
+      <c r="C330" s="21"/>
+      <c r="D330" s="21"/>
       <c r="E330" s="1"/>
       <c r="F330" s="2"/>
       <c r="G330" s="3">
@@ -10373,7 +10530,7 @@
       <c r="J330" s="15"/>
       <c r="K330" s="15"/>
       <c r="L330" s="6"/>
-      <c r="M330" s="52" t="s">
+      <c r="M330" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N330" s="8"/>
@@ -10381,9 +10538,9 @@
     </row>
     <row r="331" spans="1:15" ht="13.5" thickBot="1">
       <c r="A331" s="1"/>
-      <c r="B331" s="50"/>
-      <c r="C331" s="50"/>
-      <c r="D331" s="50"/>
+      <c r="B331" s="21"/>
+      <c r="C331" s="21"/>
+      <c r="D331" s="21"/>
       <c r="E331" s="1"/>
       <c r="F331" s="2"/>
       <c r="G331" s="3">
@@ -10399,7 +10556,7 @@
       <c r="J331" s="15"/>
       <c r="K331" s="15"/>
       <c r="L331" s="6"/>
-      <c r="M331" s="52" t="s">
+      <c r="M331" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N331" s="8"/>
@@ -10407,9 +10564,9 @@
     </row>
     <row r="332" spans="1:15" ht="13.5" thickBot="1">
       <c r="A332" s="1"/>
-      <c r="B332" s="50"/>
-      <c r="C332" s="50"/>
-      <c r="D332" s="50"/>
+      <c r="B332" s="21"/>
+      <c r="C332" s="21"/>
+      <c r="D332" s="21"/>
       <c r="E332" s="1"/>
       <c r="F332" s="2"/>
       <c r="G332" s="3">
@@ -10425,7 +10582,7 @@
       <c r="J332" s="15"/>
       <c r="K332" s="15"/>
       <c r="L332" s="6"/>
-      <c r="M332" s="52" t="s">
+      <c r="M332" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N332" s="8"/>
@@ -10433,9 +10590,9 @@
     </row>
     <row r="333" spans="1:15" ht="13.5" thickBot="1">
       <c r="A333" s="1"/>
-      <c r="B333" s="50"/>
-      <c r="C333" s="50"/>
-      <c r="D333" s="50"/>
+      <c r="B333" s="21"/>
+      <c r="C333" s="21"/>
+      <c r="D333" s="21"/>
       <c r="E333" s="1"/>
       <c r="F333" s="2"/>
       <c r="G333" s="3">
@@ -10451,7 +10608,7 @@
       <c r="J333" s="15"/>
       <c r="K333" s="15"/>
       <c r="L333" s="6"/>
-      <c r="M333" s="52" t="s">
+      <c r="M333" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N333" s="8"/>
@@ -10459,9 +10616,9 @@
     </row>
     <row r="334" spans="1:15" ht="13.5" thickBot="1">
       <c r="A334" s="1"/>
-      <c r="B334" s="50"/>
-      <c r="C334" s="50"/>
-      <c r="D334" s="50"/>
+      <c r="B334" s="21"/>
+      <c r="C334" s="21"/>
+      <c r="D334" s="21"/>
       <c r="E334" s="1"/>
       <c r="F334" s="2"/>
       <c r="G334" s="3">
@@ -10477,7 +10634,7 @@
       <c r="J334" s="15"/>
       <c r="K334" s="15"/>
       <c r="L334" s="6"/>
-      <c r="M334" s="52" t="s">
+      <c r="M334" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N334" s="8"/>
@@ -10485,9 +10642,9 @@
     </row>
     <row r="335" spans="1:15" ht="13.5" thickBot="1">
       <c r="A335" s="1"/>
-      <c r="B335" s="50"/>
-      <c r="C335" s="50"/>
-      <c r="D335" s="50"/>
+      <c r="B335" s="21"/>
+      <c r="C335" s="21"/>
+      <c r="D335" s="21"/>
       <c r="E335" s="1"/>
       <c r="F335" s="2"/>
       <c r="G335" s="3">
@@ -10503,7 +10660,7 @@
       <c r="J335" s="15"/>
       <c r="K335" s="15"/>
       <c r="L335" s="6"/>
-      <c r="M335" s="52" t="s">
+      <c r="M335" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N335" s="8"/>
@@ -10511,9 +10668,9 @@
     </row>
     <row r="336" spans="1:15" ht="13.5" thickBot="1">
       <c r="A336" s="1"/>
-      <c r="B336" s="50"/>
-      <c r="C336" s="50"/>
-      <c r="D336" s="50"/>
+      <c r="B336" s="21"/>
+      <c r="C336" s="21"/>
+      <c r="D336" s="21"/>
       <c r="E336" s="1"/>
       <c r="F336" s="2"/>
       <c r="G336" s="3">
@@ -10529,7 +10686,7 @@
       <c r="J336" s="15"/>
       <c r="K336" s="15"/>
       <c r="L336" s="6"/>
-      <c r="M336" s="52" t="s">
+      <c r="M336" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N336" s="8"/>
@@ -10537,9 +10694,9 @@
     </row>
     <row r="337" spans="1:15" ht="13.5" thickBot="1">
       <c r="A337" s="1"/>
-      <c r="B337" s="50"/>
-      <c r="C337" s="50"/>
-      <c r="D337" s="50"/>
+      <c r="B337" s="21"/>
+      <c r="C337" s="21"/>
+      <c r="D337" s="21"/>
       <c r="E337" s="1"/>
       <c r="F337" s="2"/>
       <c r="G337" s="3">
@@ -10555,7 +10712,7 @@
       <c r="J337" s="15"/>
       <c r="K337" s="15"/>
       <c r="L337" s="6"/>
-      <c r="M337" s="52" t="s">
+      <c r="M337" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N337" s="8"/>
@@ -10563,9 +10720,9 @@
     </row>
     <row r="338" spans="1:15" ht="13.5" thickBot="1">
       <c r="A338" s="1"/>
-      <c r="B338" s="50"/>
-      <c r="C338" s="50"/>
-      <c r="D338" s="50"/>
+      <c r="B338" s="21"/>
+      <c r="C338" s="21"/>
+      <c r="D338" s="21"/>
       <c r="E338" s="1"/>
       <c r="F338" s="2"/>
       <c r="G338" s="3">
@@ -10581,7 +10738,7 @@
       <c r="J338" s="15"/>
       <c r="K338" s="15"/>
       <c r="L338" s="6"/>
-      <c r="M338" s="52" t="s">
+      <c r="M338" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N338" s="8"/>
@@ -10589,9 +10746,9 @@
     </row>
     <row r="339" spans="1:15" ht="13.5" thickBot="1">
       <c r="A339" s="1"/>
-      <c r="B339" s="50"/>
-      <c r="C339" s="50"/>
-      <c r="D339" s="50"/>
+      <c r="B339" s="21"/>
+      <c r="C339" s="21"/>
+      <c r="D339" s="21"/>
       <c r="E339" s="1"/>
       <c r="F339" s="2"/>
       <c r="G339" s="3">
@@ -10607,7 +10764,7 @@
       <c r="J339" s="15"/>
       <c r="K339" s="15"/>
       <c r="L339" s="6"/>
-      <c r="M339" s="52" t="s">
+      <c r="M339" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N339" s="8"/>
@@ -10615,9 +10772,9 @@
     </row>
     <row r="340" spans="1:15" ht="13.5" thickBot="1">
       <c r="A340" s="1"/>
-      <c r="B340" s="50"/>
-      <c r="C340" s="50"/>
-      <c r="D340" s="50"/>
+      <c r="B340" s="21"/>
+      <c r="C340" s="21"/>
+      <c r="D340" s="21"/>
       <c r="E340" s="1"/>
       <c r="F340" s="2"/>
       <c r="G340" s="3">
@@ -10633,7 +10790,7 @@
       <c r="J340" s="15"/>
       <c r="K340" s="15"/>
       <c r="L340" s="6"/>
-      <c r="M340" s="52" t="s">
+      <c r="M340" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N340" s="8"/>
@@ -10641,9 +10798,9 @@
     </row>
     <row r="341" spans="1:15" ht="13.5" thickBot="1">
       <c r="A341" s="1"/>
-      <c r="B341" s="50"/>
-      <c r="C341" s="50"/>
-      <c r="D341" s="50"/>
+      <c r="B341" s="21"/>
+      <c r="C341" s="21"/>
+      <c r="D341" s="21"/>
       <c r="E341" s="1"/>
       <c r="F341" s="2"/>
       <c r="G341" s="3">
@@ -10659,7 +10816,7 @@
       <c r="J341" s="15"/>
       <c r="K341" s="15"/>
       <c r="L341" s="6"/>
-      <c r="M341" s="52" t="s">
+      <c r="M341" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N341" s="8"/>
@@ -10667,9 +10824,9 @@
     </row>
     <row r="342" spans="1:15" ht="13.5" thickBot="1">
       <c r="A342" s="1"/>
-      <c r="B342" s="50"/>
-      <c r="C342" s="50"/>
-      <c r="D342" s="50"/>
+      <c r="B342" s="21"/>
+      <c r="C342" s="21"/>
+      <c r="D342" s="21"/>
       <c r="E342" s="1"/>
       <c r="F342" s="2"/>
       <c r="G342" s="3">
@@ -10685,7 +10842,7 @@
       <c r="J342" s="15"/>
       <c r="K342" s="15"/>
       <c r="L342" s="6"/>
-      <c r="M342" s="52" t="s">
+      <c r="M342" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N342" s="8"/>
@@ -10693,9 +10850,9 @@
     </row>
     <row r="343" spans="1:15" ht="13.5" thickBot="1">
       <c r="A343" s="1"/>
-      <c r="B343" s="50"/>
-      <c r="C343" s="50"/>
-      <c r="D343" s="50"/>
+      <c r="B343" s="21"/>
+      <c r="C343" s="21"/>
+      <c r="D343" s="21"/>
       <c r="E343" s="1"/>
       <c r="F343" s="2"/>
       <c r="G343" s="3">
@@ -10711,7 +10868,7 @@
       <c r="J343" s="15"/>
       <c r="K343" s="15"/>
       <c r="L343" s="6"/>
-      <c r="M343" s="52" t="s">
+      <c r="M343" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N343" s="8"/>
@@ -10719,9 +10876,9 @@
     </row>
     <row r="344" spans="1:15" ht="13.5" thickBot="1">
       <c r="A344" s="1"/>
-      <c r="B344" s="50"/>
-      <c r="C344" s="50"/>
-      <c r="D344" s="50"/>
+      <c r="B344" s="21"/>
+      <c r="C344" s="21"/>
+      <c r="D344" s="21"/>
       <c r="E344" s="1"/>
       <c r="F344" s="2"/>
       <c r="G344" s="3">
@@ -10737,7 +10894,7 @@
       <c r="J344" s="15"/>
       <c r="K344" s="15"/>
       <c r="L344" s="6"/>
-      <c r="M344" s="52" t="s">
+      <c r="M344" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N344" s="8"/>
@@ -10745,9 +10902,9 @@
     </row>
     <row r="345" spans="1:15" ht="13.5" thickBot="1">
       <c r="A345" s="1"/>
-      <c r="B345" s="50"/>
-      <c r="C345" s="50"/>
-      <c r="D345" s="50"/>
+      <c r="B345" s="21"/>
+      <c r="C345" s="21"/>
+      <c r="D345" s="21"/>
       <c r="E345" s="1"/>
       <c r="F345" s="2"/>
       <c r="G345" s="3">
@@ -10763,7 +10920,7 @@
       <c r="J345" s="15"/>
       <c r="K345" s="15"/>
       <c r="L345" s="6"/>
-      <c r="M345" s="52" t="s">
+      <c r="M345" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N345" s="8"/>
@@ -10771,9 +10928,9 @@
     </row>
     <row r="346" spans="1:15" ht="13.5" thickBot="1">
       <c r="A346" s="1"/>
-      <c r="B346" s="50"/>
-      <c r="C346" s="50"/>
-      <c r="D346" s="50"/>
+      <c r="B346" s="21"/>
+      <c r="C346" s="21"/>
+      <c r="D346" s="21"/>
       <c r="E346" s="1"/>
       <c r="F346" s="2"/>
       <c r="G346" s="3">
@@ -10789,7 +10946,7 @@
       <c r="J346" s="15"/>
       <c r="K346" s="15"/>
       <c r="L346" s="6"/>
-      <c r="M346" s="52" t="s">
+      <c r="M346" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N346" s="8"/>
@@ -10797,9 +10954,9 @@
     </row>
     <row r="347" spans="1:15" ht="13.5" thickBot="1">
       <c r="A347" s="1"/>
-      <c r="B347" s="50"/>
-      <c r="C347" s="50"/>
-      <c r="D347" s="50"/>
+      <c r="B347" s="21"/>
+      <c r="C347" s="21"/>
+      <c r="D347" s="21"/>
       <c r="E347" s="1"/>
       <c r="F347" s="2"/>
       <c r="G347" s="3">
@@ -10815,7 +10972,7 @@
       <c r="J347" s="15"/>
       <c r="K347" s="15"/>
       <c r="L347" s="6"/>
-      <c r="M347" s="52" t="s">
+      <c r="M347" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N347" s="8"/>
@@ -10823,9 +10980,9 @@
     </row>
     <row r="348" spans="1:15" ht="13.5" thickBot="1">
       <c r="A348" s="1"/>
-      <c r="B348" s="50"/>
-      <c r="C348" s="50"/>
-      <c r="D348" s="50"/>
+      <c r="B348" s="21"/>
+      <c r="C348" s="21"/>
+      <c r="D348" s="21"/>
       <c r="E348" s="1"/>
       <c r="F348" s="2"/>
       <c r="G348" s="3">
@@ -10841,7 +10998,7 @@
       <c r="J348" s="15"/>
       <c r="K348" s="15"/>
       <c r="L348" s="6"/>
-      <c r="M348" s="52" t="s">
+      <c r="M348" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N348" s="8"/>
@@ -10849,9 +11006,9 @@
     </row>
     <row r="349" spans="1:15" ht="13.5" thickBot="1">
       <c r="A349" s="1"/>
-      <c r="B349" s="50"/>
-      <c r="C349" s="50"/>
-      <c r="D349" s="50"/>
+      <c r="B349" s="21"/>
+      <c r="C349" s="21"/>
+      <c r="D349" s="21"/>
       <c r="E349" s="1"/>
       <c r="F349" s="2"/>
       <c r="G349" s="3">
@@ -10867,7 +11024,7 @@
       <c r="J349" s="15"/>
       <c r="K349" s="15"/>
       <c r="L349" s="6"/>
-      <c r="M349" s="52" t="s">
+      <c r="M349" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N349" s="8"/>
@@ -10875,9 +11032,9 @@
     </row>
     <row r="350" spans="1:15" ht="13.5" thickBot="1">
       <c r="A350" s="1"/>
-      <c r="B350" s="50"/>
-      <c r="C350" s="50"/>
-      <c r="D350" s="50"/>
+      <c r="B350" s="21"/>
+      <c r="C350" s="21"/>
+      <c r="D350" s="21"/>
       <c r="E350" s="1"/>
       <c r="F350" s="2"/>
       <c r="G350" s="3">
@@ -10893,7 +11050,7 @@
       <c r="J350" s="15"/>
       <c r="K350" s="15"/>
       <c r="L350" s="6"/>
-      <c r="M350" s="52" t="s">
+      <c r="M350" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N350" s="8"/>
@@ -10901,9 +11058,9 @@
     </row>
     <row r="351" spans="1:15" ht="13.5" thickBot="1">
       <c r="A351" s="1"/>
-      <c r="B351" s="50"/>
-      <c r="C351" s="50"/>
-      <c r="D351" s="50"/>
+      <c r="B351" s="21"/>
+      <c r="C351" s="21"/>
+      <c r="D351" s="21"/>
       <c r="E351" s="1"/>
       <c r="F351" s="2"/>
       <c r="G351" s="3">
@@ -10919,7 +11076,7 @@
       <c r="J351" s="15"/>
       <c r="K351" s="15"/>
       <c r="L351" s="6"/>
-      <c r="M351" s="52" t="s">
+      <c r="M351" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N351" s="8"/>
@@ -10927,9 +11084,9 @@
     </row>
     <row r="352" spans="1:15" ht="13.5" thickBot="1">
       <c r="A352" s="1"/>
-      <c r="B352" s="50"/>
-      <c r="C352" s="50"/>
-      <c r="D352" s="50"/>
+      <c r="B352" s="21"/>
+      <c r="C352" s="21"/>
+      <c r="D352" s="21"/>
       <c r="E352" s="1"/>
       <c r="F352" s="2"/>
       <c r="G352" s="3">
@@ -10945,7 +11102,7 @@
       <c r="J352" s="15"/>
       <c r="K352" s="15"/>
       <c r="L352" s="6"/>
-      <c r="M352" s="52" t="s">
+      <c r="M352" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N352" s="8"/>
@@ -10953,9 +11110,9 @@
     </row>
     <row r="353" spans="1:15" ht="13.5" thickBot="1">
       <c r="A353" s="1"/>
-      <c r="B353" s="50"/>
-      <c r="C353" s="50"/>
-      <c r="D353" s="50"/>
+      <c r="B353" s="21"/>
+      <c r="C353" s="21"/>
+      <c r="D353" s="21"/>
       <c r="E353" s="1"/>
       <c r="F353" s="2"/>
       <c r="G353" s="3">
@@ -10971,7 +11128,7 @@
       <c r="J353" s="15"/>
       <c r="K353" s="15"/>
       <c r="L353" s="6"/>
-      <c r="M353" s="52" t="s">
+      <c r="M353" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N353" s="8"/>
@@ -10979,9 +11136,9 @@
     </row>
     <row r="354" spans="1:15" ht="13.5" thickBot="1">
       <c r="A354" s="1"/>
-      <c r="B354" s="50"/>
-      <c r="C354" s="50"/>
-      <c r="D354" s="50"/>
+      <c r="B354" s="21"/>
+      <c r="C354" s="21"/>
+      <c r="D354" s="21"/>
       <c r="E354" s="1"/>
       <c r="F354" s="2"/>
       <c r="G354" s="3">
@@ -10997,7 +11154,7 @@
       <c r="J354" s="15"/>
       <c r="K354" s="15"/>
       <c r="L354" s="6"/>
-      <c r="M354" s="52" t="s">
+      <c r="M354" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N354" s="8"/>
@@ -11005,9 +11162,9 @@
     </row>
     <row r="355" spans="1:15" ht="13.5" thickBot="1">
       <c r="A355" s="1"/>
-      <c r="B355" s="50"/>
-      <c r="C355" s="50"/>
-      <c r="D355" s="50"/>
+      <c r="B355" s="21"/>
+      <c r="C355" s="21"/>
+      <c r="D355" s="21"/>
       <c r="E355" s="1"/>
       <c r="F355" s="2"/>
       <c r="G355" s="3">
@@ -11023,7 +11180,7 @@
       <c r="J355" s="15"/>
       <c r="K355" s="15"/>
       <c r="L355" s="6"/>
-      <c r="M355" s="52" t="s">
+      <c r="M355" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N355" s="8"/>
@@ -11031,9 +11188,9 @@
     </row>
     <row r="356" spans="1:15" ht="13.5" thickBot="1">
       <c r="A356" s="1"/>
-      <c r="B356" s="50"/>
-      <c r="C356" s="50"/>
-      <c r="D356" s="50"/>
+      <c r="B356" s="21"/>
+      <c r="C356" s="21"/>
+      <c r="D356" s="21"/>
       <c r="E356" s="1"/>
       <c r="F356" s="2"/>
       <c r="G356" s="3">
@@ -11049,7 +11206,7 @@
       <c r="J356" s="15"/>
       <c r="K356" s="15"/>
       <c r="L356" s="6"/>
-      <c r="M356" s="52" t="s">
+      <c r="M356" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N356" s="8"/>
@@ -11057,9 +11214,9 @@
     </row>
     <row r="357" spans="1:15" ht="13.5" thickBot="1">
       <c r="A357" s="1"/>
-      <c r="B357" s="50"/>
-      <c r="C357" s="50"/>
-      <c r="D357" s="50"/>
+      <c r="B357" s="21"/>
+      <c r="C357" s="21"/>
+      <c r="D357" s="21"/>
       <c r="E357" s="1"/>
       <c r="F357" s="2"/>
       <c r="G357" s="3">
@@ -11075,7 +11232,7 @@
       <c r="J357" s="15"/>
       <c r="K357" s="15"/>
       <c r="L357" s="6"/>
-      <c r="M357" s="52" t="s">
+      <c r="M357" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N357" s="8"/>
@@ -11083,9 +11240,9 @@
     </row>
     <row r="358" spans="1:15" ht="13.5" thickBot="1">
       <c r="A358" s="1"/>
-      <c r="B358" s="50"/>
-      <c r="C358" s="50"/>
-      <c r="D358" s="50"/>
+      <c r="B358" s="21"/>
+      <c r="C358" s="21"/>
+      <c r="D358" s="21"/>
       <c r="E358" s="1"/>
       <c r="F358" s="2"/>
       <c r="G358" s="3">
@@ -11101,7 +11258,7 @@
       <c r="J358" s="15"/>
       <c r="K358" s="15"/>
       <c r="L358" s="6"/>
-      <c r="M358" s="52" t="s">
+      <c r="M358" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N358" s="8"/>
@@ -11109,9 +11266,9 @@
     </row>
     <row r="359" spans="1:15" ht="13.5" thickBot="1">
       <c r="A359" s="1"/>
-      <c r="B359" s="50"/>
-      <c r="C359" s="50"/>
-      <c r="D359" s="50"/>
+      <c r="B359" s="21"/>
+      <c r="C359" s="21"/>
+      <c r="D359" s="21"/>
       <c r="E359" s="1"/>
       <c r="F359" s="2"/>
       <c r="G359" s="3">
@@ -11127,7 +11284,7 @@
       <c r="J359" s="15"/>
       <c r="K359" s="15"/>
       <c r="L359" s="6"/>
-      <c r="M359" s="52" t="s">
+      <c r="M359" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N359" s="8"/>
@@ -11135,9 +11292,9 @@
     </row>
     <row r="360" spans="1:15" ht="13.5" thickBot="1">
       <c r="A360" s="1"/>
-      <c r="B360" s="50"/>
-      <c r="C360" s="50"/>
-      <c r="D360" s="50"/>
+      <c r="B360" s="21"/>
+      <c r="C360" s="21"/>
+      <c r="D360" s="21"/>
       <c r="E360" s="1"/>
       <c r="F360" s="2"/>
       <c r="G360" s="3">
@@ -11153,7 +11310,7 @@
       <c r="J360" s="15"/>
       <c r="K360" s="15"/>
       <c r="L360" s="6"/>
-      <c r="M360" s="52" t="s">
+      <c r="M360" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N360" s="8"/>
@@ -11161,9 +11318,9 @@
     </row>
     <row r="361" spans="1:15" ht="13.5" thickBot="1">
       <c r="A361" s="1"/>
-      <c r="B361" s="50"/>
-      <c r="C361" s="50"/>
-      <c r="D361" s="50"/>
+      <c r="B361" s="21"/>
+      <c r="C361" s="21"/>
+      <c r="D361" s="21"/>
       <c r="E361" s="1"/>
       <c r="F361" s="2"/>
       <c r="G361" s="3">
@@ -11179,7 +11336,7 @@
       <c r="J361" s="15"/>
       <c r="K361" s="15"/>
       <c r="L361" s="6"/>
-      <c r="M361" s="52" t="s">
+      <c r="M361" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N361" s="8"/>
@@ -11187,9 +11344,9 @@
     </row>
     <row r="362" spans="1:15" ht="13.5" thickBot="1">
       <c r="A362" s="1"/>
-      <c r="B362" s="50"/>
-      <c r="C362" s="50"/>
-      <c r="D362" s="50"/>
+      <c r="B362" s="21"/>
+      <c r="C362" s="21"/>
+      <c r="D362" s="21"/>
       <c r="E362" s="1"/>
       <c r="F362" s="2"/>
       <c r="G362" s="3">
@@ -11205,7 +11362,7 @@
       <c r="J362" s="15"/>
       <c r="K362" s="15"/>
       <c r="L362" s="6"/>
-      <c r="M362" s="52" t="s">
+      <c r="M362" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N362" s="8"/>
@@ -11213,9 +11370,9 @@
     </row>
     <row r="363" spans="1:15" ht="13.5" thickBot="1">
       <c r="A363" s="1"/>
-      <c r="B363" s="50"/>
-      <c r="C363" s="50"/>
-      <c r="D363" s="50"/>
+      <c r="B363" s="21"/>
+      <c r="C363" s="21"/>
+      <c r="D363" s="21"/>
       <c r="E363" s="1"/>
       <c r="F363" s="2"/>
       <c r="G363" s="3">
@@ -11231,7 +11388,7 @@
       <c r="J363" s="15"/>
       <c r="K363" s="15"/>
       <c r="L363" s="6"/>
-      <c r="M363" s="52" t="s">
+      <c r="M363" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N363" s="8"/>
@@ -11239,9 +11396,9 @@
     </row>
     <row r="364" spans="1:15" ht="13.5" thickBot="1">
       <c r="A364" s="1"/>
-      <c r="B364" s="50"/>
-      <c r="C364" s="50"/>
-      <c r="D364" s="50"/>
+      <c r="B364" s="21"/>
+      <c r="C364" s="21"/>
+      <c r="D364" s="21"/>
       <c r="E364" s="1"/>
       <c r="F364" s="2"/>
       <c r="G364" s="3">
@@ -11257,7 +11414,7 @@
       <c r="J364" s="15"/>
       <c r="K364" s="15"/>
       <c r="L364" s="6"/>
-      <c r="M364" s="52" t="s">
+      <c r="M364" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N364" s="8"/>
@@ -11265,9 +11422,9 @@
     </row>
     <row r="365" spans="1:15" ht="13.5" thickBot="1">
       <c r="A365" s="1"/>
-      <c r="B365" s="50"/>
-      <c r="C365" s="50"/>
-      <c r="D365" s="50"/>
+      <c r="B365" s="21"/>
+      <c r="C365" s="21"/>
+      <c r="D365" s="21"/>
       <c r="E365" s="1"/>
       <c r="F365" s="2"/>
       <c r="G365" s="3">
@@ -11283,7 +11440,7 @@
       <c r="J365" s="15"/>
       <c r="K365" s="15"/>
       <c r="L365" s="6"/>
-      <c r="M365" s="52" t="s">
+      <c r="M365" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N365" s="8"/>
@@ -11291,9 +11448,9 @@
     </row>
     <row r="366" spans="1:15" ht="13.5" thickBot="1">
       <c r="A366" s="1"/>
-      <c r="B366" s="50"/>
-      <c r="C366" s="50"/>
-      <c r="D366" s="50"/>
+      <c r="B366" s="21"/>
+      <c r="C366" s="21"/>
+      <c r="D366" s="21"/>
       <c r="E366" s="1"/>
       <c r="F366" s="2"/>
       <c r="G366" s="3">
@@ -11309,7 +11466,7 @@
       <c r="J366" s="15"/>
       <c r="K366" s="15"/>
       <c r="L366" s="6"/>
-      <c r="M366" s="52" t="s">
+      <c r="M366" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N366" s="8"/>
@@ -11317,9 +11474,9 @@
     </row>
     <row r="367" spans="1:15" ht="13.5" thickBot="1">
       <c r="A367" s="1"/>
-      <c r="B367" s="50"/>
-      <c r="C367" s="50"/>
-      <c r="D367" s="50"/>
+      <c r="B367" s="21"/>
+      <c r="C367" s="21"/>
+      <c r="D367" s="21"/>
       <c r="E367" s="1"/>
       <c r="F367" s="2"/>
       <c r="G367" s="3">
@@ -11335,7 +11492,7 @@
       <c r="J367" s="15"/>
       <c r="K367" s="15"/>
       <c r="L367" s="6"/>
-      <c r="M367" s="52" t="s">
+      <c r="M367" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N367" s="8"/>
@@ -11343,9 +11500,9 @@
     </row>
     <row r="368" spans="1:15" ht="13.5" thickBot="1">
       <c r="A368" s="1"/>
-      <c r="B368" s="50"/>
-      <c r="C368" s="50"/>
-      <c r="D368" s="50"/>
+      <c r="B368" s="21"/>
+      <c r="C368" s="21"/>
+      <c r="D368" s="21"/>
       <c r="E368" s="1"/>
       <c r="F368" s="2"/>
       <c r="G368" s="3">
@@ -11361,7 +11518,7 @@
       <c r="J368" s="15"/>
       <c r="K368" s="15"/>
       <c r="L368" s="6"/>
-      <c r="M368" s="52" t="s">
+      <c r="M368" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N368" s="8"/>
@@ -11369,9 +11526,9 @@
     </row>
     <row r="369" spans="1:15" ht="13.5" thickBot="1">
       <c r="A369" s="1"/>
-      <c r="B369" s="50"/>
-      <c r="C369" s="50"/>
-      <c r="D369" s="50"/>
+      <c r="B369" s="21"/>
+      <c r="C369" s="21"/>
+      <c r="D369" s="21"/>
       <c r="E369" s="1"/>
       <c r="F369" s="2"/>
       <c r="G369" s="3">
@@ -11387,7 +11544,7 @@
       <c r="J369" s="15"/>
       <c r="K369" s="15"/>
       <c r="L369" s="6"/>
-      <c r="M369" s="52" t="s">
+      <c r="M369" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N369" s="8"/>
@@ -11395,9 +11552,9 @@
     </row>
     <row r="370" spans="1:15" ht="13.5" thickBot="1">
       <c r="A370" s="1"/>
-      <c r="B370" s="50"/>
-      <c r="C370" s="50"/>
-      <c r="D370" s="50"/>
+      <c r="B370" s="21"/>
+      <c r="C370" s="21"/>
+      <c r="D370" s="21"/>
       <c r="E370" s="1"/>
       <c r="F370" s="2"/>
       <c r="G370" s="3">
@@ -11413,7 +11570,7 @@
       <c r="J370" s="15"/>
       <c r="K370" s="15"/>
       <c r="L370" s="6"/>
-      <c r="M370" s="52" t="s">
+      <c r="M370" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N370" s="8"/>
@@ -11421,9 +11578,9 @@
     </row>
     <row r="371" spans="1:15" ht="13.5" thickBot="1">
       <c r="A371" s="1"/>
-      <c r="B371" s="50"/>
-      <c r="C371" s="50"/>
-      <c r="D371" s="50"/>
+      <c r="B371" s="21"/>
+      <c r="C371" s="21"/>
+      <c r="D371" s="21"/>
       <c r="E371" s="1"/>
       <c r="F371" s="2"/>
       <c r="G371" s="3">
@@ -11439,7 +11596,7 @@
       <c r="J371" s="15"/>
       <c r="K371" s="15"/>
       <c r="L371" s="6"/>
-      <c r="M371" s="52" t="s">
+      <c r="M371" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N371" s="8"/>
@@ -11447,9 +11604,9 @@
     </row>
     <row r="372" spans="1:15" ht="13.5" thickBot="1">
       <c r="A372" s="1"/>
-      <c r="B372" s="50"/>
-      <c r="C372" s="50"/>
-      <c r="D372" s="50"/>
+      <c r="B372" s="21"/>
+      <c r="C372" s="21"/>
+      <c r="D372" s="21"/>
       <c r="E372" s="1"/>
       <c r="F372" s="2"/>
       <c r="G372" s="3">
@@ -11465,7 +11622,7 @@
       <c r="J372" s="15"/>
       <c r="K372" s="15"/>
       <c r="L372" s="6"/>
-      <c r="M372" s="52" t="s">
+      <c r="M372" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N372" s="8"/>
@@ -11473,9 +11630,9 @@
     </row>
     <row r="373" spans="1:15" ht="13.5" thickBot="1">
       <c r="A373" s="1"/>
-      <c r="B373" s="50"/>
-      <c r="C373" s="50"/>
-      <c r="D373" s="50"/>
+      <c r="B373" s="21"/>
+      <c r="C373" s="21"/>
+      <c r="D373" s="21"/>
       <c r="E373" s="1"/>
       <c r="F373" s="2"/>
       <c r="G373" s="3">
@@ -11491,7 +11648,7 @@
       <c r="J373" s="15"/>
       <c r="K373" s="15"/>
       <c r="L373" s="6"/>
-      <c r="M373" s="52" t="s">
+      <c r="M373" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N373" s="8"/>
@@ -11499,9 +11656,9 @@
     </row>
     <row r="374" spans="1:15" ht="13.5" thickBot="1">
       <c r="A374" s="1"/>
-      <c r="B374" s="50"/>
-      <c r="C374" s="50"/>
-      <c r="D374" s="50"/>
+      <c r="B374" s="21"/>
+      <c r="C374" s="21"/>
+      <c r="D374" s="21"/>
       <c r="E374" s="1"/>
       <c r="F374" s="2"/>
       <c r="G374" s="3">
@@ -11517,7 +11674,7 @@
       <c r="J374" s="15"/>
       <c r="K374" s="15"/>
       <c r="L374" s="6"/>
-      <c r="M374" s="52" t="s">
+      <c r="M374" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N374" s="8"/>
@@ -11525,9 +11682,9 @@
     </row>
     <row r="375" spans="1:15" ht="13.5" thickBot="1">
       <c r="A375" s="1"/>
-      <c r="B375" s="50"/>
-      <c r="C375" s="50"/>
-      <c r="D375" s="50"/>
+      <c r="B375" s="21"/>
+      <c r="C375" s="21"/>
+      <c r="D375" s="21"/>
       <c r="E375" s="1"/>
       <c r="F375" s="2"/>
       <c r="G375" s="3">
@@ -11543,7 +11700,7 @@
       <c r="J375" s="15"/>
       <c r="K375" s="15"/>
       <c r="L375" s="6"/>
-      <c r="M375" s="52" t="s">
+      <c r="M375" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N375" s="8"/>
@@ -11551,9 +11708,9 @@
     </row>
     <row r="376" spans="1:15" ht="13.5" thickBot="1">
       <c r="A376" s="1"/>
-      <c r="B376" s="50"/>
-      <c r="C376" s="50"/>
-      <c r="D376" s="50"/>
+      <c r="B376" s="21"/>
+      <c r="C376" s="21"/>
+      <c r="D376" s="21"/>
       <c r="E376" s="1"/>
       <c r="F376" s="2"/>
       <c r="G376" s="3">
@@ -11569,7 +11726,7 @@
       <c r="J376" s="15"/>
       <c r="K376" s="15"/>
       <c r="L376" s="6"/>
-      <c r="M376" s="52" t="s">
+      <c r="M376" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N376" s="8"/>
@@ -11577,9 +11734,9 @@
     </row>
     <row r="377" spans="1:15" ht="13.5" thickBot="1">
       <c r="A377" s="1"/>
-      <c r="B377" s="50"/>
-      <c r="C377" s="50"/>
-      <c r="D377" s="50"/>
+      <c r="B377" s="21"/>
+      <c r="C377" s="21"/>
+      <c r="D377" s="21"/>
       <c r="E377" s="1"/>
       <c r="F377" s="2"/>
       <c r="G377" s="3">
@@ -11595,7 +11752,7 @@
       <c r="J377" s="15"/>
       <c r="K377" s="15"/>
       <c r="L377" s="6"/>
-      <c r="M377" s="52" t="s">
+      <c r="M377" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N377" s="8"/>
@@ -11603,9 +11760,9 @@
     </row>
     <row r="378" spans="1:15" ht="13.5" thickBot="1">
       <c r="A378" s="1"/>
-      <c r="B378" s="50"/>
-      <c r="C378" s="50"/>
-      <c r="D378" s="50"/>
+      <c r="B378" s="21"/>
+      <c r="C378" s="21"/>
+      <c r="D378" s="21"/>
       <c r="E378" s="1"/>
       <c r="F378" s="2"/>
       <c r="G378" s="3">
@@ -11621,7 +11778,7 @@
       <c r="J378" s="15"/>
       <c r="K378" s="15"/>
       <c r="L378" s="6"/>
-      <c r="M378" s="52" t="s">
+      <c r="M378" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N378" s="8"/>
@@ -11629,9 +11786,9 @@
     </row>
     <row r="379" spans="1:15" ht="13.5" thickBot="1">
       <c r="A379" s="1"/>
-      <c r="B379" s="50"/>
-      <c r="C379" s="50"/>
-      <c r="D379" s="50"/>
+      <c r="B379" s="21"/>
+      <c r="C379" s="21"/>
+      <c r="D379" s="21"/>
       <c r="E379" s="1"/>
       <c r="F379" s="2"/>
       <c r="G379" s="3">
@@ -11647,7 +11804,7 @@
       <c r="J379" s="15"/>
       <c r="K379" s="15"/>
       <c r="L379" s="6"/>
-      <c r="M379" s="52" t="s">
+      <c r="M379" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N379" s="8"/>
@@ -11655,9 +11812,9 @@
     </row>
     <row r="380" spans="1:15" ht="13.5" thickBot="1">
       <c r="A380" s="1"/>
-      <c r="B380" s="50"/>
-      <c r="C380" s="50"/>
-      <c r="D380" s="50"/>
+      <c r="B380" s="21"/>
+      <c r="C380" s="21"/>
+      <c r="D380" s="21"/>
       <c r="E380" s="1"/>
       <c r="F380" s="2"/>
       <c r="G380" s="3">
@@ -11673,7 +11830,7 @@
       <c r="J380" s="15"/>
       <c r="K380" s="15"/>
       <c r="L380" s="6"/>
-      <c r="M380" s="52" t="s">
+      <c r="M380" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N380" s="8"/>
@@ -11681,9 +11838,9 @@
     </row>
     <row r="381" spans="1:15" ht="13.5" thickBot="1">
       <c r="A381" s="1"/>
-      <c r="B381" s="50"/>
-      <c r="C381" s="50"/>
-      <c r="D381" s="50"/>
+      <c r="B381" s="21"/>
+      <c r="C381" s="21"/>
+      <c r="D381" s="21"/>
       <c r="E381" s="1"/>
       <c r="F381" s="2"/>
       <c r="G381" s="3">
@@ -11699,7 +11856,7 @@
       <c r="J381" s="15"/>
       <c r="K381" s="15"/>
       <c r="L381" s="6"/>
-      <c r="M381" s="52" t="s">
+      <c r="M381" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N381" s="8"/>
@@ -11707,9 +11864,9 @@
     </row>
     <row r="382" spans="1:15" ht="13.5" thickBot="1">
       <c r="A382" s="1"/>
-      <c r="B382" s="50"/>
-      <c r="C382" s="50"/>
-      <c r="D382" s="50"/>
+      <c r="B382" s="21"/>
+      <c r="C382" s="21"/>
+      <c r="D382" s="21"/>
       <c r="E382" s="1"/>
       <c r="F382" s="2"/>
       <c r="G382" s="3">
@@ -11725,7 +11882,7 @@
       <c r="J382" s="15"/>
       <c r="K382" s="15"/>
       <c r="L382" s="6"/>
-      <c r="M382" s="52" t="s">
+      <c r="M382" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N382" s="8"/>
@@ -11733,9 +11890,9 @@
     </row>
     <row r="383" spans="1:15" ht="13.5" thickBot="1">
       <c r="A383" s="1"/>
-      <c r="B383" s="50"/>
-      <c r="C383" s="50"/>
-      <c r="D383" s="50"/>
+      <c r="B383" s="21"/>
+      <c r="C383" s="21"/>
+      <c r="D383" s="21"/>
       <c r="E383" s="1"/>
       <c r="F383" s="2"/>
       <c r="G383" s="3">
@@ -11751,7 +11908,7 @@
       <c r="J383" s="15"/>
       <c r="K383" s="15"/>
       <c r="L383" s="6"/>
-      <c r="M383" s="52" t="s">
+      <c r="M383" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N383" s="8"/>
@@ -11759,9 +11916,9 @@
     </row>
     <row r="384" spans="1:15" ht="13.5" thickBot="1">
       <c r="A384" s="1"/>
-      <c r="B384" s="50"/>
-      <c r="C384" s="50"/>
-      <c r="D384" s="50"/>
+      <c r="B384" s="21"/>
+      <c r="C384" s="21"/>
+      <c r="D384" s="21"/>
       <c r="E384" s="1"/>
       <c r="F384" s="2"/>
       <c r="G384" s="3">
@@ -11777,7 +11934,7 @@
       <c r="J384" s="15"/>
       <c r="K384" s="15"/>
       <c r="L384" s="6"/>
-      <c r="M384" s="52" t="s">
+      <c r="M384" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N384" s="8"/>
@@ -11785,9 +11942,9 @@
     </row>
     <row r="385" spans="1:15" ht="13.5" thickBot="1">
       <c r="A385" s="1"/>
-      <c r="B385" s="50"/>
-      <c r="C385" s="50"/>
-      <c r="D385" s="50"/>
+      <c r="B385" s="21"/>
+      <c r="C385" s="21"/>
+      <c r="D385" s="21"/>
       <c r="E385" s="1"/>
       <c r="F385" s="2"/>
       <c r="G385" s="3">
@@ -11803,7 +11960,7 @@
       <c r="J385" s="15"/>
       <c r="K385" s="15"/>
       <c r="L385" s="6"/>
-      <c r="M385" s="52" t="s">
+      <c r="M385" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N385" s="8"/>
@@ -11811,9 +11968,9 @@
     </row>
     <row r="386" spans="1:15" ht="13.5" thickBot="1">
       <c r="A386" s="1"/>
-      <c r="B386" s="50"/>
-      <c r="C386" s="50"/>
-      <c r="D386" s="50"/>
+      <c r="B386" s="21"/>
+      <c r="C386" s="21"/>
+      <c r="D386" s="21"/>
       <c r="E386" s="1"/>
       <c r="F386" s="2"/>
       <c r="G386" s="3">
@@ -11829,7 +11986,7 @@
       <c r="J386" s="15"/>
       <c r="K386" s="15"/>
       <c r="L386" s="6"/>
-      <c r="M386" s="52" t="s">
+      <c r="M386" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N386" s="8"/>
@@ -11837,9 +11994,9 @@
     </row>
     <row r="387" spans="1:15" ht="13.5" thickBot="1">
       <c r="A387" s="1"/>
-      <c r="B387" s="50"/>
-      <c r="C387" s="50"/>
-      <c r="D387" s="50"/>
+      <c r="B387" s="21"/>
+      <c r="C387" s="21"/>
+      <c r="D387" s="21"/>
       <c r="E387" s="1"/>
       <c r="F387" s="2"/>
       <c r="G387" s="3">
@@ -11855,7 +12012,7 @@
       <c r="J387" s="15"/>
       <c r="K387" s="15"/>
       <c r="L387" s="6"/>
-      <c r="M387" s="52" t="s">
+      <c r="M387" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N387" s="8"/>
@@ -11863,9 +12020,9 @@
     </row>
     <row r="388" spans="1:15" ht="13.5" thickBot="1">
       <c r="A388" s="1"/>
-      <c r="B388" s="50"/>
-      <c r="C388" s="50"/>
-      <c r="D388" s="50"/>
+      <c r="B388" s="21"/>
+      <c r="C388" s="21"/>
+      <c r="D388" s="21"/>
       <c r="E388" s="1"/>
       <c r="F388" s="2"/>
       <c r="G388" s="3">
@@ -11881,7 +12038,7 @@
       <c r="J388" s="15"/>
       <c r="K388" s="15"/>
       <c r="L388" s="6"/>
-      <c r="M388" s="52" t="s">
+      <c r="M388" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N388" s="8"/>
@@ -11889,9 +12046,9 @@
     </row>
     <row r="389" spans="1:15" ht="13.5" thickBot="1">
       <c r="A389" s="1"/>
-      <c r="B389" s="50"/>
-      <c r="C389" s="50"/>
-      <c r="D389" s="50"/>
+      <c r="B389" s="21"/>
+      <c r="C389" s="21"/>
+      <c r="D389" s="21"/>
       <c r="E389" s="1"/>
       <c r="F389" s="2"/>
       <c r="G389" s="3">
@@ -11907,7 +12064,7 @@
       <c r="J389" s="15"/>
       <c r="K389" s="15"/>
       <c r="L389" s="6"/>
-      <c r="M389" s="52" t="s">
+      <c r="M389" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N389" s="8"/>
@@ -11915,9 +12072,9 @@
     </row>
     <row r="390" spans="1:15" ht="13.5" thickBot="1">
       <c r="A390" s="1"/>
-      <c r="B390" s="50"/>
-      <c r="C390" s="50"/>
-      <c r="D390" s="50"/>
+      <c r="B390" s="21"/>
+      <c r="C390" s="21"/>
+      <c r="D390" s="21"/>
       <c r="E390" s="1"/>
       <c r="F390" s="2"/>
       <c r="G390" s="3">
@@ -11933,7 +12090,7 @@
       <c r="J390" s="15"/>
       <c r="K390" s="15"/>
       <c r="L390" s="6"/>
-      <c r="M390" s="52" t="s">
+      <c r="M390" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N390" s="8"/>
@@ -11941,9 +12098,9 @@
     </row>
     <row r="391" spans="1:15" ht="13.5" thickBot="1">
       <c r="A391" s="1"/>
-      <c r="B391" s="50"/>
-      <c r="C391" s="50"/>
-      <c r="D391" s="50"/>
+      <c r="B391" s="21"/>
+      <c r="C391" s="21"/>
+      <c r="D391" s="21"/>
       <c r="E391" s="1"/>
       <c r="F391" s="2"/>
       <c r="G391" s="3">
@@ -11959,7 +12116,7 @@
       <c r="J391" s="15"/>
       <c r="K391" s="15"/>
       <c r="L391" s="6"/>
-      <c r="M391" s="52" t="s">
+      <c r="M391" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N391" s="8"/>
@@ -11967,9 +12124,9 @@
     </row>
     <row r="392" spans="1:15" ht="13.5" thickBot="1">
       <c r="A392" s="1"/>
-      <c r="B392" s="50"/>
-      <c r="C392" s="50"/>
-      <c r="D392" s="50"/>
+      <c r="B392" s="21"/>
+      <c r="C392" s="21"/>
+      <c r="D392" s="21"/>
       <c r="E392" s="1"/>
       <c r="F392" s="2"/>
       <c r="G392" s="3">
@@ -11985,7 +12142,7 @@
       <c r="J392" s="15"/>
       <c r="K392" s="15"/>
       <c r="L392" s="6"/>
-      <c r="M392" s="52" t="s">
+      <c r="M392" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N392" s="8"/>
@@ -11993,9 +12150,9 @@
     </row>
     <row r="393" spans="1:15" ht="13.5" thickBot="1">
       <c r="A393" s="1"/>
-      <c r="B393" s="50"/>
-      <c r="C393" s="50"/>
-      <c r="D393" s="50"/>
+      <c r="B393" s="21"/>
+      <c r="C393" s="21"/>
+      <c r="D393" s="21"/>
       <c r="E393" s="1"/>
       <c r="F393" s="2"/>
       <c r="G393" s="3">
@@ -12011,7 +12168,7 @@
       <c r="J393" s="15"/>
       <c r="K393" s="15"/>
       <c r="L393" s="6"/>
-      <c r="M393" s="52" t="s">
+      <c r="M393" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N393" s="8"/>
@@ -12019,9 +12176,9 @@
     </row>
     <row r="394" spans="1:15" ht="13.5" thickBot="1">
       <c r="A394" s="1"/>
-      <c r="B394" s="50"/>
-      <c r="C394" s="50"/>
-      <c r="D394" s="50"/>
+      <c r="B394" s="21"/>
+      <c r="C394" s="21"/>
+      <c r="D394" s="21"/>
       <c r="E394" s="1"/>
       <c r="F394" s="2"/>
       <c r="G394" s="3">
@@ -12037,7 +12194,7 @@
       <c r="J394" s="15"/>
       <c r="K394" s="15"/>
       <c r="L394" s="6"/>
-      <c r="M394" s="52" t="s">
+      <c r="M394" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N394" s="8"/>
@@ -12045,9 +12202,9 @@
     </row>
     <row r="395" spans="1:15" ht="13.5" thickBot="1">
       <c r="A395" s="1"/>
-      <c r="B395" s="50"/>
-      <c r="C395" s="50"/>
-      <c r="D395" s="50"/>
+      <c r="B395" s="21"/>
+      <c r="C395" s="21"/>
+      <c r="D395" s="21"/>
       <c r="E395" s="1"/>
       <c r="F395" s="2"/>
       <c r="G395" s="3">
@@ -12063,7 +12220,7 @@
       <c r="J395" s="15"/>
       <c r="K395" s="15"/>
       <c r="L395" s="6"/>
-      <c r="M395" s="52" t="s">
+      <c r="M395" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N395" s="8"/>
@@ -12071,9 +12228,9 @@
     </row>
     <row r="396" spans="1:15" ht="13.5" thickBot="1">
       <c r="A396" s="1"/>
-      <c r="B396" s="50"/>
-      <c r="C396" s="50"/>
-      <c r="D396" s="50"/>
+      <c r="B396" s="21"/>
+      <c r="C396" s="21"/>
+      <c r="D396" s="21"/>
       <c r="E396" s="1"/>
       <c r="F396" s="2"/>
       <c r="G396" s="3">
@@ -12089,7 +12246,7 @@
       <c r="J396" s="15"/>
       <c r="K396" s="15"/>
       <c r="L396" s="6"/>
-      <c r="M396" s="52" t="s">
+      <c r="M396" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N396" s="8"/>
@@ -12181,10 +12338,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="0.85546875" style="50" customWidth="1"/>
-    <col min="2" max="4" width="67.42578125" style="50" customWidth="1"/>
-    <col min="5" max="5" width="0.85546875" style="50" customWidth="1"/>
-    <col min="6" max="16384" width="12.5703125" style="50"/>
+    <col min="1" max="1" width="0.85546875" style="21" customWidth="1"/>
+    <col min="2" max="4" width="67.42578125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="0.85546875" style="21" customWidth="1"/>
+    <col min="6" max="16384" width="12.5703125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="6" customHeight="1">
@@ -12196,49 +12353,49 @@
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="27" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="51" t="s">
         <v>67</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="19.5" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="22"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="43.5" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="60">
+      <c r="B6" s="25">
         <v>44691</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="26" t="s">
         <v>73</v>
       </c>
       <c r="E6" s="1"/>
@@ -12247,14 +12404,14 @@
       <c r="A7" s="1"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
-      <c r="D7" s="61"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="43.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
-      <c r="D8" s="61"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="1"/>
     </row>
   </sheetData>
@@ -12335,7 +12492,7 @@
       <c r="Z1" s="16"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="60" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -12349,7 +12506,7 @@
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="39"/>
+      <c r="A3" s="61"/>
       <c r="C3" s="19" t="s">
         <v>34</v>
       </c>
@@ -12358,37 +12515,37 @@
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="39"/>
+      <c r="A4" s="61"/>
       <c r="C4" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="39"/>
+      <c r="A5" s="61"/>
       <c r="C5" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="39"/>
+      <c r="A6" s="61"/>
       <c r="C6" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="39"/>
+      <c r="A7" s="61"/>
       <c r="C7" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="39"/>
+      <c r="A8" s="61"/>
       <c r="C8" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="40"/>
+      <c r="A9" s="62"/>
       <c r="C9" s="18" t="s">
         <v>31</v>
       </c>
@@ -12400,7 +12557,7 @@
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="63" t="s">
         <v>72</v>
       </c>
       <c r="C13" s="18" t="s">
@@ -12408,31 +12565,31 @@
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="39"/>
+      <c r="A14" s="61"/>
       <c r="C14" s="18" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="39"/>
+      <c r="A15" s="61"/>
       <c r="C15" s="18" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="39"/>
+      <c r="A16" s="61"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="39"/>
+      <c r="A17" s="61"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="39"/>
+      <c r="A18" s="61"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="39"/>
+      <c r="A19" s="61"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="40"/>
+      <c r="A20" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Documentation/Personnelle/Monteiro Rui - Journaux - ProjetWeb.xlsx
+++ b/Documentation/Personnelle/Monteiro Rui - Journaux - ProjetWeb.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="136">
   <si>
     <t>JOURNAL DE TRAVAIL</t>
   </si>
@@ -766,6 +766,22 @@
   </si>
   <si>
     <t>1. Mise à jour du journal de travail</t>
+  </si>
+  <si>
+    <t>Réparation de la fonction de création d'annonces</t>
+  </si>
+  <si>
+    <t>1. Correction des erreures leur de l'enregistrement d'annonce</t>
+  </si>
+  <si>
+    <t>Fonctions et affichage d'une page Admin pour les annonces</t>
+  </si>
+  <si>
+    <t>1. Création des fonction pour l'effacement d'une annonce 
+2. Réalisation d'une page Admin pour voir toutes les annonces</t>
+  </si>
+  <si>
+    <t>Réalisation du journal de travail pour les jours précedents</t>
   </si>
 </sst>
 </file>
@@ -1544,8 +1560,8 @@
   </sheetPr>
   <dimension ref="A1:O396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="N62" sqref="N62"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1684,11 +1700,11 @@
       </c>
       <c r="C6" s="28">
         <f>SUM(I33:I396)</f>
-        <v>1.4861111111111103</v>
+        <v>1.0972222222222212</v>
       </c>
       <c r="D6" s="28">
         <f>B6+C6</f>
-        <v>2.7270833333333329</v>
+        <v>2.3381944444444436</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2">
@@ -3438,78 +3454,100 @@
       </c>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" ht="13.5" thickBot="1">
+    <row r="58" spans="1:15" ht="26.25" thickBot="1">
       <c r="A58" s="1"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
       <c r="D58" s="21"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="2"/>
+      <c r="F58" s="2">
+        <v>44719</v>
+      </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>0.5625</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I58" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="6"/>
+      <c r="K58" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="M58" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N58" s="8"/>
+      <c r="N58" s="8" t="s">
+        <v>132</v>
+      </c>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" ht="13.5" thickBot="1">
+    <row r="59" spans="1:15" ht="26.25" thickBot="1">
       <c r="A59" s="1"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
       <c r="D59" s="21"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="2"/>
+      <c r="F59" s="2">
+        <v>44721</v>
+      </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I59" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.944444444444442E-2</v>
       </c>
       <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="6"/>
+      <c r="K59" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="M59" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N59" s="8"/>
+      <c r="N59" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" ht="13.5" thickBot="1">
+    <row r="60" spans="1:15" ht="26.25" thickBot="1">
       <c r="A60" s="1"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
       <c r="D60" s="21"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="2"/>
+      <c r="F60" s="2">
+        <v>44722</v>
+      </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>0.5625</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="I60" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="6"/>
+      <c r="K60" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="M60" s="23" t="s">
         <v>13</v>
       </c>
@@ -3522,16 +3560,18 @@
       <c r="C61" s="21"/>
       <c r="D61" s="21"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="2"/>
+      <c r="F61" s="2">
+        <v>44722</v>
+      </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.56944444444444442</v>
       </c>
       <c r="J61" s="15"/>
       <c r="K61" s="15"/>

--- a/Documentation/Personnelle/Monteiro Rui - Journaux - ProjetWeb.xlsx
+++ b/Documentation/Personnelle/Monteiro Rui - Journaux - ProjetWeb.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rui-Miguel.MONTEIRO\Desktop\Projects\CPNV\Anubis-V2\Documentation\Personnelle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Pojetos\CPNV\Anubis-V2\Documentation\Personnelle\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B33360-057C-44D5-BDDC-29D66905E2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8205"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Travail" sheetId="1" r:id="rId1"/>
     <sheet name="Bord" sheetId="2" r:id="rId2"/>
     <sheet name="⚙️ Settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="139">
   <si>
     <t>JOURNAL DE TRAVAIL</t>
   </si>
@@ -783,17 +796,28 @@
   <si>
     <t>Réalisation du journal de travail pour les jours précedents</t>
   </si>
+  <si>
+    <t>Affichage des annonces</t>
+  </si>
+  <si>
+    <t>1. Tentative de correction de l'affichage des annonces</t>
+  </si>
+  <si>
+    <t>1. Correction de l'affichage des annonces, une div CSS importante pour l'affichage par ligne n'avais pas été copiée lors du changement donc j'ai du retrouver le template pour tou reverifier et faire tous les tests
+2. Mise en forme de l'image pour l'affichage 
+3. Changement du script SQL car le champ pour l'image avait une limite trop petite</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
     <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1552,7 +1576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00FFFF"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1561,10 +1585,10 @@
   <dimension ref="A1:O396"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="0.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
@@ -1579,7 +1603,7 @@
     <col min="16" max="16384" width="12.5703125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="6" customHeight="1" thickBot="1">
+    <row r="1" spans="1:15" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1596,7 +1620,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="27" customHeight="1" thickTop="1">
+    <row r="2" spans="1:15" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="29" t="s">
         <v>75</v>
@@ -1617,7 +1641,7 @@
       <c r="N2" s="31"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="27" customHeight="1" thickBot="1">
+    <row r="3" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="32"/>
       <c r="C3" s="33"/>
@@ -1634,7 +1658,7 @@
       <c r="N3" s="34"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="19.5" customHeight="1" thickTop="1">
+    <row r="4" spans="1:15" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="35" t="s">
         <v>107</v>
@@ -1675,7 +1699,7 @@
       </c>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
@@ -1692,7 +1716,7 @@
       <c r="N5" s="44"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="78" thickTop="1" thickBot="1">
+    <row r="6" spans="1:15" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="27">
         <f>SUM(I6:I30)</f>
@@ -1700,11 +1724,11 @@
       </c>
       <c r="C6" s="28">
         <f>SUM(I33:I396)</f>
-        <v>1.0972222222222212</v>
+        <v>1.826388888888888</v>
       </c>
       <c r="D6" s="28">
         <f>B6+C6</f>
-        <v>2.3381944444444436</v>
+        <v>3.0673611111111105</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2">
@@ -1737,7 +1761,7 @@
       </c>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" ht="39.75" thickTop="1" thickBot="1">
+    <row r="7" spans="1:15" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -1773,7 +1797,7 @@
       </c>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="39" thickBot="1">
+    <row r="8" spans="1:15" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -1809,7 +1833,7 @@
       </c>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="25.5">
+    <row r="9" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -1845,7 +1869,7 @@
       </c>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="12.75">
+    <row r="10" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -1881,7 +1905,7 @@
       </c>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="12.75">
+    <row r="11" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -1917,7 +1941,7 @@
       </c>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="25.5">
+    <row r="12" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -1953,7 +1977,7 @@
       </c>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="12.75">
+    <row r="13" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -1989,7 +2013,7 @@
       </c>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="25.5">
+    <row r="14" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -2025,7 +2049,7 @@
       </c>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="51">
+    <row r="15" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -2061,7 +2085,7 @@
       </c>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="25.5">
+    <row r="16" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -2097,7 +2121,7 @@
       </c>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" ht="12.75">
+    <row r="17" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -2133,7 +2157,7 @@
       </c>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" ht="25.5">
+    <row r="18" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -2169,7 +2193,7 @@
       </c>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" ht="12.75">
+    <row r="19" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -2203,7 +2227,7 @@
       </c>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" ht="12.75">
+    <row r="20" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -2230,7 +2254,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" ht="12.75">
+    <row r="21" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -2264,7 +2288,7 @@
       </c>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" ht="12.75">
+    <row r="22" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -2298,7 +2322,7 @@
       </c>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" ht="12.75">
+    <row r="23" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -2332,7 +2356,7 @@
       </c>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="12.75">
+    <row r="24" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -2366,7 +2390,7 @@
       </c>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" ht="38.25">
+    <row r="25" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -2400,7 +2424,7 @@
       </c>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" ht="25.5">
+    <row r="26" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -2434,7 +2458,7 @@
       </c>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" ht="25.5">
+    <row r="27" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
@@ -2468,7 +2492,7 @@
       </c>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" ht="12.75">
+    <row r="28" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
@@ -2502,7 +2526,7 @@
       </c>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" ht="25.5">
+    <row r="29" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -2536,7 +2560,7 @@
       </c>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" ht="77.25" thickBot="1">
+    <row r="30" spans="1:15" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -2570,7 +2594,7 @@
       </c>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" ht="15" customHeight="1" thickTop="1">
+    <row r="31" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -2589,7 +2613,7 @@
       <c r="N31" s="39"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" ht="13.5" thickBot="1">
+    <row r="32" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -2606,7 +2630,7 @@
       <c r="N32" s="42"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" ht="27" thickTop="1" thickBot="1">
+    <row r="33" spans="1:15" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -2640,7 +2664,7 @@
       </c>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" ht="26.25" thickBot="1">
+    <row r="34" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -2674,7 +2698,7 @@
       </c>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" ht="26.25" thickBot="1">
+    <row r="35" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -2708,7 +2732,7 @@
       </c>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" ht="51.75" thickBot="1">
+    <row r="36" spans="1:15" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
@@ -2742,7 +2766,7 @@
       </c>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" ht="26.25" thickBot="1">
+    <row r="37" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -2776,7 +2800,7 @@
       </c>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" ht="13.5" thickBot="1">
+    <row r="38" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
@@ -2810,7 +2834,7 @@
       </c>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" ht="13.5" thickBot="1">
+    <row r="39" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -2844,7 +2868,7 @@
       </c>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" ht="13.5" thickBot="1">
+    <row r="40" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -2878,7 +2902,7 @@
       </c>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" ht="13.5" thickBot="1">
+    <row r="41" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -2912,7 +2936,7 @@
       </c>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" ht="13.5" thickBot="1">
+    <row r="42" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -2946,7 +2970,7 @@
       </c>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" ht="13.5" thickBot="1">
+    <row r="43" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -2980,7 +3004,7 @@
       </c>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" ht="13.5" thickBot="1">
+    <row r="44" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -3014,7 +3038,7 @@
       </c>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" ht="13.5" thickBot="1">
+    <row r="45" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -3048,7 +3072,7 @@
       </c>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" ht="77.25" thickBot="1">
+    <row r="46" spans="1:15" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -3082,7 +3106,7 @@
       </c>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" ht="39" thickBot="1">
+    <row r="47" spans="1:15" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
@@ -3116,7 +3140,7 @@
       </c>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" ht="26.25" thickBot="1">
+    <row r="48" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
@@ -3150,7 +3174,7 @@
       </c>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" ht="13.5" thickBot="1">
+    <row r="49" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -3184,7 +3208,7 @@
       </c>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" ht="26.25" thickBot="1">
+    <row r="50" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -3218,7 +3242,7 @@
       </c>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" ht="13.5" thickBot="1">
+    <row r="51" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -3252,7 +3276,7 @@
       </c>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" ht="13.5" thickBot="1">
+    <row r="52" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -3286,7 +3310,7 @@
       </c>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" ht="13.5" thickBot="1">
+    <row r="53" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -3320,7 +3344,7 @@
       </c>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" ht="51.75" thickBot="1">
+    <row r="54" spans="1:15" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -3354,7 +3378,7 @@
       </c>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" ht="26.25" thickBot="1">
+    <row r="55" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -3386,7 +3410,7 @@
       <c r="N55" s="8"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" ht="51.75" thickBot="1">
+    <row r="56" spans="1:15" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -3420,7 +3444,7 @@
       </c>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" ht="13.5" thickBot="1">
+    <row r="57" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -3454,7 +3478,7 @@
       </c>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" ht="26.25" thickBot="1">
+    <row r="58" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -3488,7 +3512,7 @@
       </c>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" ht="26.25" thickBot="1">
+    <row r="59" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -3522,7 +3546,7 @@
       </c>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" ht="26.25" thickBot="1">
+    <row r="60" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -3554,7 +3578,7 @@
       <c r="N60" s="8"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" ht="13.5" thickBot="1">
+    <row r="61" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -3567,48 +3591,62 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="I61" s="4">
         <f t="shared" si="2"/>
-        <v>-0.56944444444444442</v>
+        <v>5.555555555555558E-2</v>
       </c>
       <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="6"/>
+      <c r="K61" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="M61" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N61" s="8"/>
+      <c r="N61" s="8" t="s">
+        <v>137</v>
+      </c>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" ht="13.5" thickBot="1">
+    <row r="62" spans="1:15" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
       <c r="D62" s="21"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="2"/>
+      <c r="F62" s="2">
+        <v>44723</v>
+      </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="I62" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="6"/>
+      <c r="K62" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="M62" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N62" s="8"/>
+      <c r="N62" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" ht="13.5" thickBot="1">
+    <row r="63" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -3634,7 +3672,7 @@
       <c r="N63" s="8"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" ht="13.5" thickBot="1">
+    <row r="64" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -3660,7 +3698,7 @@
       <c r="N64" s="8"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" ht="13.5" thickBot="1">
+    <row r="65" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -3686,7 +3724,7 @@
       <c r="N65" s="8"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" ht="13.5" thickBot="1">
+    <row r="66" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -3712,7 +3750,7 @@
       <c r="N66" s="8"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" ht="13.5" thickBot="1">
+    <row r="67" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -3738,7 +3776,7 @@
       <c r="N67" s="8"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" ht="13.5" thickBot="1">
+    <row r="68" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="21"/>
       <c r="C68" s="21"/>
@@ -3764,7 +3802,7 @@
       <c r="N68" s="8"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" ht="13.5" thickBot="1">
+    <row r="69" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="21"/>
       <c r="C69" s="21"/>
@@ -3790,7 +3828,7 @@
       <c r="N69" s="8"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" ht="13.5" thickBot="1">
+    <row r="70" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -3816,7 +3854,7 @@
       <c r="N70" s="8"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" ht="13.5" thickBot="1">
+    <row r="71" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -3842,7 +3880,7 @@
       <c r="N71" s="8"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" ht="13.5" thickBot="1">
+    <row r="72" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -3868,7 +3906,7 @@
       <c r="N72" s="8"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" ht="13.5" thickBot="1">
+    <row r="73" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -3894,7 +3932,7 @@
       <c r="N73" s="8"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" ht="13.5" thickBot="1">
+    <row r="74" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
@@ -3920,7 +3958,7 @@
       <c r="N74" s="8"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" ht="13.5" thickBot="1">
+    <row r="75" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -3946,7 +3984,7 @@
       <c r="N75" s="8"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" ht="13.5" thickBot="1">
+    <row r="76" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -3972,7 +4010,7 @@
       <c r="N76" s="8"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" ht="13.5" thickBot="1">
+    <row r="77" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
@@ -3998,7 +4036,7 @@
       <c r="N77" s="8"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" ht="13.5" thickBot="1">
+    <row r="78" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
@@ -4024,7 +4062,7 @@
       <c r="N78" s="8"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" ht="13.5" thickBot="1">
+    <row r="79" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -4050,7 +4088,7 @@
       <c r="N79" s="8"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" ht="13.5" thickBot="1">
+    <row r="80" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
@@ -4076,7 +4114,7 @@
       <c r="N80" s="8"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" ht="13.5" thickBot="1">
+    <row r="81" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
@@ -4102,7 +4140,7 @@
       <c r="N81" s="8"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" ht="13.5" thickBot="1">
+    <row r="82" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -4128,7 +4166,7 @@
       <c r="N82" s="8"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" ht="13.5" thickBot="1">
+    <row r="83" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
@@ -4154,7 +4192,7 @@
       <c r="N83" s="8"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" ht="13.5" thickBot="1">
+    <row r="84" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
@@ -4180,7 +4218,7 @@
       <c r="N84" s="8"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" ht="13.5" thickBot="1">
+    <row r="85" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -4206,7 +4244,7 @@
       <c r="N85" s="8"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" ht="13.5" thickBot="1">
+    <row r="86" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -4232,7 +4270,7 @@
       <c r="N86" s="8"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" ht="13.5" thickBot="1">
+    <row r="87" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -4258,7 +4296,7 @@
       <c r="N87" s="8"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" ht="13.5" thickBot="1">
+    <row r="88" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -4284,7 +4322,7 @@
       <c r="N88" s="8"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" ht="13.5" thickBot="1">
+    <row r="89" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -4310,7 +4348,7 @@
       <c r="N89" s="8"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" ht="13.5" thickBot="1">
+    <row r="90" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
@@ -4336,7 +4374,7 @@
       <c r="N90" s="8"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" ht="13.5" thickBot="1">
+    <row r="91" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -4362,7 +4400,7 @@
       <c r="N91" s="8"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" ht="13.5" thickBot="1">
+    <row r="92" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
@@ -4388,7 +4426,7 @@
       <c r="N92" s="8"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" ht="13.5" thickBot="1">
+    <row r="93" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
@@ -4414,7 +4452,7 @@
       <c r="N93" s="8"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" ht="13.5" thickBot="1">
+    <row r="94" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -4440,7 +4478,7 @@
       <c r="N94" s="8"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" ht="13.5" thickBot="1">
+    <row r="95" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -4466,7 +4504,7 @@
       <c r="N95" s="8"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" ht="13.5" thickBot="1">
+    <row r="96" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="21"/>
       <c r="C96" s="21"/>
@@ -4492,7 +4530,7 @@
       <c r="N96" s="8"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" ht="13.5" thickBot="1">
+    <row r="97" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="21"/>
       <c r="C97" s="21"/>
@@ -4518,7 +4556,7 @@
       <c r="N97" s="8"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" ht="13.5" thickBot="1">
+    <row r="98" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -4544,7 +4582,7 @@
       <c r="N98" s="8"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" ht="13.5" thickBot="1">
+    <row r="99" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="21"/>
       <c r="C99" s="21"/>
@@ -4570,7 +4608,7 @@
       <c r="N99" s="8"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" ht="13.5" thickBot="1">
+    <row r="100" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="21"/>
       <c r="C100" s="21"/>
@@ -4596,7 +4634,7 @@
       <c r="N100" s="8"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" ht="13.5" thickBot="1">
+    <row r="101" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -4622,7 +4660,7 @@
       <c r="N101" s="8"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" ht="13.5" thickBot="1">
+    <row r="102" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -4648,7 +4686,7 @@
       <c r="N102" s="8"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" ht="13.5" thickBot="1">
+    <row r="103" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -4674,7 +4712,7 @@
       <c r="N103" s="8"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" ht="13.5" thickBot="1">
+    <row r="104" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -4700,7 +4738,7 @@
       <c r="N104" s="8"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" ht="13.5" thickBot="1">
+    <row r="105" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -4726,7 +4764,7 @@
       <c r="N105" s="8"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" ht="13.5" thickBot="1">
+    <row r="106" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="21"/>
       <c r="C106" s="21"/>
@@ -4752,7 +4790,7 @@
       <c r="N106" s="8"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" ht="13.5" thickBot="1">
+    <row r="107" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="21"/>
       <c r="C107" s="21"/>
@@ -4778,7 +4816,7 @@
       <c r="N107" s="8"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" ht="13.5" thickBot="1">
+    <row r="108" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="21"/>
       <c r="C108" s="21"/>
@@ -4804,7 +4842,7 @@
       <c r="N108" s="8"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" ht="13.5" thickBot="1">
+    <row r="109" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="21"/>
       <c r="C109" s="21"/>
@@ -4830,7 +4868,7 @@
       <c r="N109" s="8"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" ht="13.5" thickBot="1">
+    <row r="110" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="21"/>
       <c r="C110" s="21"/>
@@ -4856,7 +4894,7 @@
       <c r="N110" s="8"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" ht="13.5" thickBot="1">
+    <row r="111" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="21"/>
       <c r="C111" s="21"/>
@@ -4882,7 +4920,7 @@
       <c r="N111" s="8"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" ht="13.5" thickBot="1">
+    <row r="112" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="21"/>
       <c r="C112" s="21"/>
@@ -4908,7 +4946,7 @@
       <c r="N112" s="8"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" ht="13.5" thickBot="1">
+    <row r="113" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="21"/>
       <c r="C113" s="21"/>
@@ -4934,7 +4972,7 @@
       <c r="N113" s="8"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" ht="13.5" thickBot="1">
+    <row r="114" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="21"/>
       <c r="C114" s="21"/>
@@ -4960,7 +4998,7 @@
       <c r="N114" s="8"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" ht="13.5" thickBot="1">
+    <row r="115" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="21"/>
       <c r="C115" s="21"/>
@@ -4986,7 +5024,7 @@
       <c r="N115" s="8"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" ht="13.5" thickBot="1">
+    <row r="116" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="21"/>
       <c r="C116" s="21"/>
@@ -5012,7 +5050,7 @@
       <c r="N116" s="8"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" ht="13.5" thickBot="1">
+    <row r="117" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="21"/>
       <c r="C117" s="21"/>
@@ -5038,7 +5076,7 @@
       <c r="N117" s="8"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" ht="13.5" thickBot="1">
+    <row r="118" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="21"/>
       <c r="C118" s="21"/>
@@ -5064,7 +5102,7 @@
       <c r="N118" s="8"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" ht="13.5" thickBot="1">
+    <row r="119" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="21"/>
       <c r="C119" s="21"/>
@@ -5090,7 +5128,7 @@
       <c r="N119" s="8"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" ht="13.5" thickBot="1">
+    <row r="120" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="21"/>
       <c r="C120" s="21"/>
@@ -5116,7 +5154,7 @@
       <c r="N120" s="8"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" ht="13.5" thickBot="1">
+    <row r="121" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="21"/>
       <c r="C121" s="21"/>
@@ -5142,7 +5180,7 @@
       <c r="N121" s="8"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" ht="13.5" thickBot="1">
+    <row r="122" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="21"/>
       <c r="C122" s="21"/>
@@ -5168,7 +5206,7 @@
       <c r="N122" s="8"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" ht="13.5" thickBot="1">
+    <row r="123" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="21"/>
       <c r="C123" s="21"/>
@@ -5194,7 +5232,7 @@
       <c r="N123" s="8"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" ht="13.5" thickBot="1">
+    <row r="124" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="21"/>
       <c r="C124" s="21"/>
@@ -5220,7 +5258,7 @@
       <c r="N124" s="8"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" ht="13.5" thickBot="1">
+    <row r="125" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="21"/>
       <c r="C125" s="21"/>
@@ -5246,7 +5284,7 @@
       <c r="N125" s="8"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" ht="13.5" thickBot="1">
+    <row r="126" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="21"/>
       <c r="C126" s="21"/>
@@ -5272,7 +5310,7 @@
       <c r="N126" s="8"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" ht="13.5" thickBot="1">
+    <row r="127" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="21"/>
       <c r="C127" s="21"/>
@@ -5298,7 +5336,7 @@
       <c r="N127" s="8"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" ht="13.5" thickBot="1">
+    <row r="128" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="21"/>
       <c r="C128" s="21"/>
@@ -5324,7 +5362,7 @@
       <c r="N128" s="8"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" ht="13.5" thickBot="1">
+    <row r="129" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="21"/>
       <c r="C129" s="21"/>
@@ -5350,7 +5388,7 @@
       <c r="N129" s="8"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" ht="13.5" thickBot="1">
+    <row r="130" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="21"/>
       <c r="C130" s="21"/>
@@ -5376,7 +5414,7 @@
       <c r="N130" s="8"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" ht="13.5" thickBot="1">
+    <row r="131" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="21"/>
       <c r="C131" s="21"/>
@@ -5402,7 +5440,7 @@
       <c r="N131" s="8"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" ht="13.5" thickBot="1">
+    <row r="132" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="21"/>
       <c r="C132" s="21"/>
@@ -5428,7 +5466,7 @@
       <c r="N132" s="8"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" ht="13.5" thickBot="1">
+    <row r="133" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="21"/>
       <c r="C133" s="21"/>
@@ -5454,7 +5492,7 @@
       <c r="N133" s="8"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" ht="13.5" thickBot="1">
+    <row r="134" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="21"/>
       <c r="C134" s="21"/>
@@ -5480,7 +5518,7 @@
       <c r="N134" s="8"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" ht="13.5" thickBot="1">
+    <row r="135" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="21"/>
       <c r="C135" s="21"/>
@@ -5506,7 +5544,7 @@
       <c r="N135" s="8"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" ht="13.5" thickBot="1">
+    <row r="136" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="21"/>
       <c r="C136" s="21"/>
@@ -5532,7 +5570,7 @@
       <c r="N136" s="8"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" ht="13.5" thickBot="1">
+    <row r="137" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="21"/>
       <c r="C137" s="21"/>
@@ -5558,7 +5596,7 @@
       <c r="N137" s="8"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" ht="13.5" thickBot="1">
+    <row r="138" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="21"/>
       <c r="C138" s="21"/>
@@ -5584,7 +5622,7 @@
       <c r="N138" s="8"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" ht="13.5" thickBot="1">
+    <row r="139" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="21"/>
       <c r="C139" s="21"/>
@@ -5610,7 +5648,7 @@
       <c r="N139" s="8"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" ht="13.5" thickBot="1">
+    <row r="140" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="21"/>
       <c r="C140" s="21"/>
@@ -5636,7 +5674,7 @@
       <c r="N140" s="8"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" ht="13.5" thickBot="1">
+    <row r="141" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="21"/>
       <c r="C141" s="21"/>
@@ -5662,7 +5700,7 @@
       <c r="N141" s="8"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" ht="13.5" thickBot="1">
+    <row r="142" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="21"/>
       <c r="C142" s="21"/>
@@ -5688,7 +5726,7 @@
       <c r="N142" s="8"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" ht="13.5" thickBot="1">
+    <row r="143" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="21"/>
       <c r="C143" s="21"/>
@@ -5714,7 +5752,7 @@
       <c r="N143" s="8"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" ht="13.5" thickBot="1">
+    <row r="144" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="21"/>
       <c r="C144" s="21"/>
@@ -5740,7 +5778,7 @@
       <c r="N144" s="8"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" ht="13.5" thickBot="1">
+    <row r="145" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="21"/>
       <c r="C145" s="21"/>
@@ -5766,7 +5804,7 @@
       <c r="N145" s="8"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" ht="13.5" thickBot="1">
+    <row r="146" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="21"/>
       <c r="C146" s="21"/>
@@ -5792,7 +5830,7 @@
       <c r="N146" s="8"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" ht="13.5" thickBot="1">
+    <row r="147" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="21"/>
       <c r="C147" s="21"/>
@@ -5818,7 +5856,7 @@
       <c r="N147" s="8"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" ht="13.5" thickBot="1">
+    <row r="148" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="21"/>
       <c r="C148" s="21"/>
@@ -5844,7 +5882,7 @@
       <c r="N148" s="8"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" ht="13.5" thickBot="1">
+    <row r="149" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="21"/>
       <c r="C149" s="21"/>
@@ -5870,7 +5908,7 @@
       <c r="N149" s="8"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" ht="13.5" thickBot="1">
+    <row r="150" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="21"/>
       <c r="C150" s="21"/>
@@ -5896,7 +5934,7 @@
       <c r="N150" s="8"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" ht="13.5" thickBot="1">
+    <row r="151" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="21"/>
       <c r="C151" s="21"/>
@@ -5922,7 +5960,7 @@
       <c r="N151" s="8"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" ht="13.5" thickBot="1">
+    <row r="152" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="21"/>
       <c r="C152" s="21"/>
@@ -5948,7 +5986,7 @@
       <c r="N152" s="8"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" ht="13.5" thickBot="1">
+    <row r="153" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="21"/>
       <c r="C153" s="21"/>
@@ -5974,7 +6012,7 @@
       <c r="N153" s="8"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" ht="13.5" thickBot="1">
+    <row r="154" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="21"/>
       <c r="C154" s="21"/>
@@ -6000,7 +6038,7 @@
       <c r="N154" s="8"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" ht="13.5" thickBot="1">
+    <row r="155" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="21"/>
       <c r="C155" s="21"/>
@@ -6026,7 +6064,7 @@
       <c r="N155" s="8"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" ht="13.5" thickBot="1">
+    <row r="156" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="21"/>
       <c r="C156" s="21"/>
@@ -6052,7 +6090,7 @@
       <c r="N156" s="8"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" ht="13.5" thickBot="1">
+    <row r="157" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="21"/>
       <c r="C157" s="21"/>
@@ -6078,7 +6116,7 @@
       <c r="N157" s="8"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" ht="13.5" thickBot="1">
+    <row r="158" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="21"/>
       <c r="C158" s="21"/>
@@ -6104,7 +6142,7 @@
       <c r="N158" s="8"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" ht="13.5" thickBot="1">
+    <row r="159" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="21"/>
       <c r="C159" s="21"/>
@@ -6130,7 +6168,7 @@
       <c r="N159" s="8"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" ht="13.5" thickBot="1">
+    <row r="160" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="21"/>
       <c r="C160" s="21"/>
@@ -6156,7 +6194,7 @@
       <c r="N160" s="8"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" ht="13.5" thickBot="1">
+    <row r="161" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="21"/>
       <c r="C161" s="21"/>
@@ -6182,7 +6220,7 @@
       <c r="N161" s="8"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" ht="13.5" thickBot="1">
+    <row r="162" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="21"/>
       <c r="C162" s="21"/>
@@ -6208,7 +6246,7 @@
       <c r="N162" s="8"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" ht="13.5" thickBot="1">
+    <row r="163" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="21"/>
       <c r="C163" s="21"/>
@@ -6234,7 +6272,7 @@
       <c r="N163" s="8"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" ht="13.5" thickBot="1">
+    <row r="164" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="21"/>
       <c r="C164" s="21"/>
@@ -6260,7 +6298,7 @@
       <c r="N164" s="8"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" ht="13.5" thickBot="1">
+    <row r="165" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="21"/>
       <c r="C165" s="21"/>
@@ -6286,7 +6324,7 @@
       <c r="N165" s="8"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" ht="13.5" thickBot="1">
+    <row r="166" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="21"/>
       <c r="C166" s="21"/>
@@ -6312,7 +6350,7 @@
       <c r="N166" s="8"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" ht="13.5" thickBot="1">
+    <row r="167" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="21"/>
       <c r="C167" s="21"/>
@@ -6338,7 +6376,7 @@
       <c r="N167" s="8"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15" ht="13.5" thickBot="1">
+    <row r="168" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="21"/>
       <c r="C168" s="21"/>
@@ -6364,7 +6402,7 @@
       <c r="N168" s="8"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15" ht="13.5" thickBot="1">
+    <row r="169" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="21"/>
       <c r="C169" s="21"/>
@@ -6390,7 +6428,7 @@
       <c r="N169" s="8"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15" ht="13.5" thickBot="1">
+    <row r="170" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="21"/>
       <c r="C170" s="21"/>
@@ -6416,7 +6454,7 @@
       <c r="N170" s="8"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15" ht="13.5" thickBot="1">
+    <row r="171" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="21"/>
       <c r="C171" s="21"/>
@@ -6442,7 +6480,7 @@
       <c r="N171" s="8"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15" ht="13.5" thickBot="1">
+    <row r="172" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="21"/>
       <c r="C172" s="21"/>
@@ -6468,7 +6506,7 @@
       <c r="N172" s="8"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15" ht="13.5" thickBot="1">
+    <row r="173" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="21"/>
       <c r="C173" s="21"/>
@@ -6494,7 +6532,7 @@
       <c r="N173" s="8"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15" ht="13.5" thickBot="1">
+    <row r="174" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="21"/>
       <c r="C174" s="21"/>
@@ -6520,7 +6558,7 @@
       <c r="N174" s="8"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" ht="13.5" thickBot="1">
+    <row r="175" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="21"/>
       <c r="C175" s="21"/>
@@ -6546,7 +6584,7 @@
       <c r="N175" s="8"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15" ht="13.5" thickBot="1">
+    <row r="176" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="21"/>
       <c r="C176" s="21"/>
@@ -6572,7 +6610,7 @@
       <c r="N176" s="8"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15" ht="13.5" thickBot="1">
+    <row r="177" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="21"/>
       <c r="C177" s="21"/>
@@ -6598,7 +6636,7 @@
       <c r="N177" s="8"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15" ht="13.5" thickBot="1">
+    <row r="178" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="21"/>
       <c r="C178" s="21"/>
@@ -6624,7 +6662,7 @@
       <c r="N178" s="8"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15" ht="13.5" thickBot="1">
+    <row r="179" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="21"/>
       <c r="C179" s="21"/>
@@ -6650,7 +6688,7 @@
       <c r="N179" s="8"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15" ht="13.5" thickBot="1">
+    <row r="180" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="21"/>
       <c r="C180" s="21"/>
@@ -6676,7 +6714,7 @@
       <c r="N180" s="8"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15" ht="13.5" thickBot="1">
+    <row r="181" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="21"/>
       <c r="C181" s="21"/>
@@ -6702,7 +6740,7 @@
       <c r="N181" s="8"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15" ht="13.5" thickBot="1">
+    <row r="182" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="21"/>
       <c r="C182" s="21"/>
@@ -6728,7 +6766,7 @@
       <c r="N182" s="8"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15" ht="13.5" thickBot="1">
+    <row r="183" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="21"/>
       <c r="C183" s="21"/>
@@ -6754,7 +6792,7 @@
       <c r="N183" s="8"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15" ht="13.5" thickBot="1">
+    <row r="184" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="21"/>
       <c r="C184" s="21"/>
@@ -6780,7 +6818,7 @@
       <c r="N184" s="8"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15" ht="13.5" thickBot="1">
+    <row r="185" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="21"/>
       <c r="C185" s="21"/>
@@ -6806,7 +6844,7 @@
       <c r="N185" s="8"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15" ht="13.5" thickBot="1">
+    <row r="186" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="21"/>
       <c r="C186" s="21"/>
@@ -6832,7 +6870,7 @@
       <c r="N186" s="8"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15" ht="13.5" thickBot="1">
+    <row r="187" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="21"/>
       <c r="C187" s="21"/>
@@ -6858,7 +6896,7 @@
       <c r="N187" s="8"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15" ht="13.5" thickBot="1">
+    <row r="188" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="21"/>
       <c r="C188" s="21"/>
@@ -6884,7 +6922,7 @@
       <c r="N188" s="8"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15" ht="13.5" thickBot="1">
+    <row r="189" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="21"/>
       <c r="C189" s="21"/>
@@ -6910,7 +6948,7 @@
       <c r="N189" s="8"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15" ht="13.5" thickBot="1">
+    <row r="190" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="21"/>
       <c r="C190" s="21"/>
@@ -6936,7 +6974,7 @@
       <c r="N190" s="8"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15" ht="13.5" thickBot="1">
+    <row r="191" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="21"/>
       <c r="C191" s="21"/>
@@ -6962,7 +7000,7 @@
       <c r="N191" s="8"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15" ht="13.5" thickBot="1">
+    <row r="192" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="21"/>
       <c r="C192" s="21"/>
@@ -6988,7 +7026,7 @@
       <c r="N192" s="8"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15" ht="13.5" thickBot="1">
+    <row r="193" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="21"/>
       <c r="C193" s="21"/>
@@ -7014,7 +7052,7 @@
       <c r="N193" s="8"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15" ht="13.5" thickBot="1">
+    <row r="194" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="21"/>
       <c r="C194" s="21"/>
@@ -7040,7 +7078,7 @@
       <c r="N194" s="8"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15" ht="13.5" thickBot="1">
+    <row r="195" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="21"/>
       <c r="C195" s="21"/>
@@ -7066,7 +7104,7 @@
       <c r="N195" s="8"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15" ht="13.5" thickBot="1">
+    <row r="196" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="21"/>
       <c r="C196" s="21"/>
@@ -7092,7 +7130,7 @@
       <c r="N196" s="8"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15" ht="13.5" thickBot="1">
+    <row r="197" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="21"/>
       <c r="C197" s="21"/>
@@ -7118,7 +7156,7 @@
       <c r="N197" s="8"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15" ht="13.5" thickBot="1">
+    <row r="198" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="21"/>
       <c r="C198" s="21"/>
@@ -7144,7 +7182,7 @@
       <c r="N198" s="8"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15" ht="13.5" thickBot="1">
+    <row r="199" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="21"/>
       <c r="C199" s="21"/>
@@ -7170,7 +7208,7 @@
       <c r="N199" s="8"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15" ht="13.5" thickBot="1">
+    <row r="200" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="21"/>
       <c r="C200" s="21"/>
@@ -7196,7 +7234,7 @@
       <c r="N200" s="8"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15" ht="13.5" thickBot="1">
+    <row r="201" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="21"/>
       <c r="C201" s="21"/>
@@ -7222,7 +7260,7 @@
       <c r="N201" s="8"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15" ht="13.5" thickBot="1">
+    <row r="202" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="21"/>
       <c r="C202" s="21"/>
@@ -7248,7 +7286,7 @@
       <c r="N202" s="8"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15" ht="13.5" thickBot="1">
+    <row r="203" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="21"/>
       <c r="C203" s="21"/>
@@ -7274,7 +7312,7 @@
       <c r="N203" s="8"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15" ht="13.5" thickBot="1">
+    <row r="204" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="21"/>
       <c r="C204" s="21"/>
@@ -7300,7 +7338,7 @@
       <c r="N204" s="8"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15" ht="13.5" thickBot="1">
+    <row r="205" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="21"/>
       <c r="C205" s="21"/>
@@ -7326,7 +7364,7 @@
       <c r="N205" s="8"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15" ht="13.5" thickBot="1">
+    <row r="206" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="21"/>
       <c r="C206" s="21"/>
@@ -7352,7 +7390,7 @@
       <c r="N206" s="8"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15" ht="13.5" thickBot="1">
+    <row r="207" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="21"/>
       <c r="C207" s="21"/>
@@ -7378,7 +7416,7 @@
       <c r="N207" s="8"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15" ht="13.5" thickBot="1">
+    <row r="208" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="21"/>
       <c r="C208" s="21"/>
@@ -7404,7 +7442,7 @@
       <c r="N208" s="8"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15" ht="13.5" thickBot="1">
+    <row r="209" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="21"/>
       <c r="C209" s="21"/>
@@ -7430,7 +7468,7 @@
       <c r="N209" s="8"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15" ht="13.5" thickBot="1">
+    <row r="210" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="21"/>
       <c r="C210" s="21"/>
@@ -7456,7 +7494,7 @@
       <c r="N210" s="8"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15" ht="13.5" thickBot="1">
+    <row r="211" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="21"/>
       <c r="C211" s="21"/>
@@ -7482,7 +7520,7 @@
       <c r="N211" s="8"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15" ht="13.5" thickBot="1">
+    <row r="212" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="21"/>
       <c r="C212" s="21"/>
@@ -7508,7 +7546,7 @@
       <c r="N212" s="8"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15" ht="13.5" thickBot="1">
+    <row r="213" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="21"/>
       <c r="C213" s="21"/>
@@ -7534,7 +7572,7 @@
       <c r="N213" s="8"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15" ht="13.5" thickBot="1">
+    <row r="214" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="21"/>
       <c r="C214" s="21"/>
@@ -7560,7 +7598,7 @@
       <c r="N214" s="8"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15" ht="13.5" thickBot="1">
+    <row r="215" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="21"/>
       <c r="C215" s="21"/>
@@ -7586,7 +7624,7 @@
       <c r="N215" s="8"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15" ht="13.5" thickBot="1">
+    <row r="216" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="21"/>
       <c r="C216" s="21"/>
@@ -7612,7 +7650,7 @@
       <c r="N216" s="8"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15" ht="13.5" thickBot="1">
+    <row r="217" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="21"/>
       <c r="C217" s="21"/>
@@ -7638,7 +7676,7 @@
       <c r="N217" s="8"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15" ht="13.5" thickBot="1">
+    <row r="218" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="21"/>
       <c r="C218" s="21"/>
@@ -7664,7 +7702,7 @@
       <c r="N218" s="8"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15" ht="13.5" thickBot="1">
+    <row r="219" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="21"/>
       <c r="C219" s="21"/>
@@ -7690,7 +7728,7 @@
       <c r="N219" s="8"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15" ht="13.5" thickBot="1">
+    <row r="220" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="21"/>
       <c r="C220" s="21"/>
@@ -7716,7 +7754,7 @@
       <c r="N220" s="8"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15" ht="13.5" thickBot="1">
+    <row r="221" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="21"/>
       <c r="C221" s="21"/>
@@ -7742,7 +7780,7 @@
       <c r="N221" s="8"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15" ht="13.5" thickBot="1">
+    <row r="222" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="21"/>
       <c r="C222" s="21"/>
@@ -7768,7 +7806,7 @@
       <c r="N222" s="8"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15" ht="13.5" thickBot="1">
+    <row r="223" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="21"/>
       <c r="C223" s="21"/>
@@ -7794,7 +7832,7 @@
       <c r="N223" s="8"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15" ht="13.5" thickBot="1">
+    <row r="224" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="21"/>
       <c r="C224" s="21"/>
@@ -7820,7 +7858,7 @@
       <c r="N224" s="8"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15" ht="13.5" thickBot="1">
+    <row r="225" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="21"/>
       <c r="C225" s="21"/>
@@ -7846,7 +7884,7 @@
       <c r="N225" s="8"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15" ht="13.5" thickBot="1">
+    <row r="226" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="21"/>
       <c r="C226" s="21"/>
@@ -7872,7 +7910,7 @@
       <c r="N226" s="8"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15" ht="13.5" thickBot="1">
+    <row r="227" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="21"/>
       <c r="C227" s="21"/>
@@ -7898,7 +7936,7 @@
       <c r="N227" s="8"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15" ht="13.5" thickBot="1">
+    <row r="228" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="21"/>
       <c r="C228" s="21"/>
@@ -7924,7 +7962,7 @@
       <c r="N228" s="8"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15" ht="13.5" thickBot="1">
+    <row r="229" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="21"/>
       <c r="C229" s="21"/>
@@ -7950,7 +7988,7 @@
       <c r="N229" s="8"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15" ht="13.5" thickBot="1">
+    <row r="230" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="21"/>
       <c r="C230" s="21"/>
@@ -7976,7 +8014,7 @@
       <c r="N230" s="8"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15" ht="13.5" thickBot="1">
+    <row r="231" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="21"/>
       <c r="C231" s="21"/>
@@ -8002,7 +8040,7 @@
       <c r="N231" s="8"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15" ht="13.5" thickBot="1">
+    <row r="232" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="21"/>
       <c r="C232" s="21"/>
@@ -8028,7 +8066,7 @@
       <c r="N232" s="8"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15" ht="13.5" thickBot="1">
+    <row r="233" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="21"/>
       <c r="C233" s="21"/>
@@ -8054,7 +8092,7 @@
       <c r="N233" s="8"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15" ht="13.5" thickBot="1">
+    <row r="234" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="21"/>
       <c r="C234" s="21"/>
@@ -8080,7 +8118,7 @@
       <c r="N234" s="8"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15" ht="13.5" thickBot="1">
+    <row r="235" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="21"/>
       <c r="C235" s="21"/>
@@ -8106,7 +8144,7 @@
       <c r="N235" s="8"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15" ht="13.5" thickBot="1">
+    <row r="236" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="21"/>
       <c r="C236" s="21"/>
@@ -8132,7 +8170,7 @@
       <c r="N236" s="8"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15" ht="13.5" thickBot="1">
+    <row r="237" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="21"/>
       <c r="C237" s="21"/>
@@ -8158,7 +8196,7 @@
       <c r="N237" s="8"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15" ht="13.5" thickBot="1">
+    <row r="238" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="21"/>
       <c r="C238" s="21"/>
@@ -8184,7 +8222,7 @@
       <c r="N238" s="8"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15" ht="13.5" thickBot="1">
+    <row r="239" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="21"/>
       <c r="C239" s="21"/>
@@ -8210,7 +8248,7 @@
       <c r="N239" s="8"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15" ht="13.5" thickBot="1">
+    <row r="240" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="21"/>
       <c r="C240" s="21"/>
@@ -8236,7 +8274,7 @@
       <c r="N240" s="8"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15" ht="13.5" thickBot="1">
+    <row r="241" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="21"/>
       <c r="C241" s="21"/>
@@ -8262,7 +8300,7 @@
       <c r="N241" s="8"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15" ht="13.5" thickBot="1">
+    <row r="242" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="21"/>
       <c r="C242" s="21"/>
@@ -8288,7 +8326,7 @@
       <c r="N242" s="8"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15" ht="13.5" thickBot="1">
+    <row r="243" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="21"/>
       <c r="C243" s="21"/>
@@ -8314,7 +8352,7 @@
       <c r="N243" s="8"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15" ht="13.5" thickBot="1">
+    <row r="244" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="21"/>
       <c r="C244" s="21"/>
@@ -8340,7 +8378,7 @@
       <c r="N244" s="8"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15" ht="13.5" thickBot="1">
+    <row r="245" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="21"/>
       <c r="C245" s="21"/>
@@ -8366,7 +8404,7 @@
       <c r="N245" s="8"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15" ht="13.5" thickBot="1">
+    <row r="246" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="21"/>
       <c r="C246" s="21"/>
@@ -8392,7 +8430,7 @@
       <c r="N246" s="8"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15" ht="13.5" thickBot="1">
+    <row r="247" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="21"/>
       <c r="C247" s="21"/>
@@ -8418,7 +8456,7 @@
       <c r="N247" s="8"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15" ht="13.5" thickBot="1">
+    <row r="248" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="21"/>
       <c r="C248" s="21"/>
@@ -8444,7 +8482,7 @@
       <c r="N248" s="8"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15" ht="13.5" thickBot="1">
+    <row r="249" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="21"/>
       <c r="C249" s="21"/>
@@ -8470,7 +8508,7 @@
       <c r="N249" s="8"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15" ht="13.5" thickBot="1">
+    <row r="250" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="21"/>
       <c r="C250" s="21"/>
@@ -8496,7 +8534,7 @@
       <c r="N250" s="8"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15" ht="13.5" thickBot="1">
+    <row r="251" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="21"/>
       <c r="C251" s="21"/>
@@ -8522,7 +8560,7 @@
       <c r="N251" s="8"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15" ht="13.5" thickBot="1">
+    <row r="252" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="21"/>
       <c r="C252" s="21"/>
@@ -8548,7 +8586,7 @@
       <c r="N252" s="8"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15" ht="13.5" thickBot="1">
+    <row r="253" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="21"/>
       <c r="C253" s="21"/>
@@ -8574,7 +8612,7 @@
       <c r="N253" s="8"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15" ht="13.5" thickBot="1">
+    <row r="254" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="21"/>
       <c r="C254" s="21"/>
@@ -8600,7 +8638,7 @@
       <c r="N254" s="8"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15" ht="13.5" thickBot="1">
+    <row r="255" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="21"/>
       <c r="C255" s="21"/>
@@ -8626,7 +8664,7 @@
       <c r="N255" s="8"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15" ht="13.5" thickBot="1">
+    <row r="256" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="21"/>
       <c r="C256" s="21"/>
@@ -8652,7 +8690,7 @@
       <c r="N256" s="8"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15" ht="13.5" thickBot="1">
+    <row r="257" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="21"/>
       <c r="C257" s="21"/>
@@ -8678,7 +8716,7 @@
       <c r="N257" s="8"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15" ht="13.5" thickBot="1">
+    <row r="258" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="21"/>
       <c r="C258" s="21"/>
@@ -8704,7 +8742,7 @@
       <c r="N258" s="8"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15" ht="13.5" thickBot="1">
+    <row r="259" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="21"/>
       <c r="C259" s="21"/>
@@ -8730,7 +8768,7 @@
       <c r="N259" s="8"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15" ht="13.5" thickBot="1">
+    <row r="260" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="21"/>
       <c r="C260" s="21"/>
@@ -8756,7 +8794,7 @@
       <c r="N260" s="8"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15" ht="13.5" thickBot="1">
+    <row r="261" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="21"/>
       <c r="C261" s="21"/>
@@ -8782,7 +8820,7 @@
       <c r="N261" s="8"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15" ht="13.5" thickBot="1">
+    <row r="262" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="21"/>
       <c r="C262" s="21"/>
@@ -8808,7 +8846,7 @@
       <c r="N262" s="8"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15" ht="13.5" thickBot="1">
+    <row r="263" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="21"/>
       <c r="C263" s="21"/>
@@ -8834,7 +8872,7 @@
       <c r="N263" s="8"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15" ht="13.5" thickBot="1">
+    <row r="264" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="21"/>
       <c r="C264" s="21"/>
@@ -8860,7 +8898,7 @@
       <c r="N264" s="8"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15" ht="13.5" thickBot="1">
+    <row r="265" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="21"/>
       <c r="C265" s="21"/>
@@ -8886,7 +8924,7 @@
       <c r="N265" s="8"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15" ht="13.5" thickBot="1">
+    <row r="266" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="21"/>
       <c r="C266" s="21"/>
@@ -8912,7 +8950,7 @@
       <c r="N266" s="8"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15" ht="13.5" thickBot="1">
+    <row r="267" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="21"/>
       <c r="C267" s="21"/>
@@ -8938,7 +8976,7 @@
       <c r="N267" s="8"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15" ht="13.5" thickBot="1">
+    <row r="268" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="21"/>
       <c r="C268" s="21"/>
@@ -8964,7 +9002,7 @@
       <c r="N268" s="8"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15" ht="13.5" thickBot="1">
+    <row r="269" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="21"/>
       <c r="C269" s="21"/>
@@ -8990,7 +9028,7 @@
       <c r="N269" s="8"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15" ht="13.5" thickBot="1">
+    <row r="270" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="21"/>
       <c r="C270" s="21"/>
@@ -9016,7 +9054,7 @@
       <c r="N270" s="8"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15" ht="13.5" thickBot="1">
+    <row r="271" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="21"/>
       <c r="C271" s="21"/>
@@ -9042,7 +9080,7 @@
       <c r="N271" s="8"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15" ht="13.5" thickBot="1">
+    <row r="272" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="21"/>
       <c r="C272" s="21"/>
@@ -9068,7 +9106,7 @@
       <c r="N272" s="8"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15" ht="13.5" thickBot="1">
+    <row r="273" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="21"/>
       <c r="C273" s="21"/>
@@ -9094,7 +9132,7 @@
       <c r="N273" s="8"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15" ht="13.5" thickBot="1">
+    <row r="274" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="21"/>
       <c r="C274" s="21"/>
@@ -9120,7 +9158,7 @@
       <c r="N274" s="8"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15" ht="13.5" thickBot="1">
+    <row r="275" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="21"/>
       <c r="C275" s="21"/>
@@ -9146,7 +9184,7 @@
       <c r="N275" s="8"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15" ht="13.5" thickBot="1">
+    <row r="276" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="21"/>
       <c r="C276" s="21"/>
@@ -9172,7 +9210,7 @@
       <c r="N276" s="8"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15" ht="13.5" thickBot="1">
+    <row r="277" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="21"/>
       <c r="C277" s="21"/>
@@ -9198,7 +9236,7 @@
       <c r="N277" s="8"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15" ht="13.5" thickBot="1">
+    <row r="278" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="21"/>
       <c r="C278" s="21"/>
@@ -9224,7 +9262,7 @@
       <c r="N278" s="8"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15" ht="13.5" thickBot="1">
+    <row r="279" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="21"/>
       <c r="C279" s="21"/>
@@ -9250,7 +9288,7 @@
       <c r="N279" s="8"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15" ht="13.5" thickBot="1">
+    <row r="280" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="21"/>
       <c r="C280" s="21"/>
@@ -9276,7 +9314,7 @@
       <c r="N280" s="8"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15" ht="13.5" thickBot="1">
+    <row r="281" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="21"/>
       <c r="C281" s="21"/>
@@ -9302,7 +9340,7 @@
       <c r="N281" s="8"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15" ht="13.5" thickBot="1">
+    <row r="282" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="21"/>
       <c r="C282" s="21"/>
@@ -9328,7 +9366,7 @@
       <c r="N282" s="8"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15" ht="13.5" thickBot="1">
+    <row r="283" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="21"/>
       <c r="C283" s="21"/>
@@ -9354,7 +9392,7 @@
       <c r="N283" s="8"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15" ht="13.5" thickBot="1">
+    <row r="284" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="21"/>
       <c r="C284" s="21"/>
@@ -9380,7 +9418,7 @@
       <c r="N284" s="8"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15" ht="13.5" thickBot="1">
+    <row r="285" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="21"/>
       <c r="C285" s="21"/>
@@ -9406,7 +9444,7 @@
       <c r="N285" s="8"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15" ht="13.5" thickBot="1">
+    <row r="286" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="21"/>
       <c r="C286" s="21"/>
@@ -9432,7 +9470,7 @@
       <c r="N286" s="8"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15" ht="13.5" thickBot="1">
+    <row r="287" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="21"/>
       <c r="C287" s="21"/>
@@ -9458,7 +9496,7 @@
       <c r="N287" s="8"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15" ht="13.5" thickBot="1">
+    <row r="288" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="21"/>
       <c r="C288" s="21"/>
@@ -9484,7 +9522,7 @@
       <c r="N288" s="8"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15" ht="13.5" thickBot="1">
+    <row r="289" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="21"/>
       <c r="C289" s="21"/>
@@ -9510,7 +9548,7 @@
       <c r="N289" s="8"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15" ht="13.5" thickBot="1">
+    <row r="290" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="21"/>
       <c r="C290" s="21"/>
@@ -9536,7 +9574,7 @@
       <c r="N290" s="8"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15" ht="13.5" thickBot="1">
+    <row r="291" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="21"/>
       <c r="C291" s="21"/>
@@ -9562,7 +9600,7 @@
       <c r="N291" s="8"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15" ht="13.5" thickBot="1">
+    <row r="292" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="21"/>
       <c r="C292" s="21"/>
@@ -9588,7 +9626,7 @@
       <c r="N292" s="8"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15" ht="13.5" thickBot="1">
+    <row r="293" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="21"/>
       <c r="C293" s="21"/>
@@ -9614,7 +9652,7 @@
       <c r="N293" s="8"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15" ht="13.5" thickBot="1">
+    <row r="294" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="21"/>
       <c r="C294" s="21"/>
@@ -9640,7 +9678,7 @@
       <c r="N294" s="8"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15" ht="13.5" thickBot="1">
+    <row r="295" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="21"/>
       <c r="C295" s="21"/>
@@ -9666,7 +9704,7 @@
       <c r="N295" s="8"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15" ht="13.5" thickBot="1">
+    <row r="296" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="21"/>
       <c r="C296" s="21"/>
@@ -9692,7 +9730,7 @@
       <c r="N296" s="8"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15" ht="13.5" thickBot="1">
+    <row r="297" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="21"/>
       <c r="C297" s="21"/>
@@ -9718,7 +9756,7 @@
       <c r="N297" s="8"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15" ht="13.5" thickBot="1">
+    <row r="298" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="21"/>
       <c r="C298" s="21"/>
@@ -9744,7 +9782,7 @@
       <c r="N298" s="8"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15" ht="13.5" thickBot="1">
+    <row r="299" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="21"/>
       <c r="C299" s="21"/>
@@ -9770,7 +9808,7 @@
       <c r="N299" s="8"/>
       <c r="O299" s="1"/>
     </row>
-    <row r="300" spans="1:15" ht="13.5" thickBot="1">
+    <row r="300" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="21"/>
       <c r="C300" s="21"/>
@@ -9796,7 +9834,7 @@
       <c r="N300" s="8"/>
       <c r="O300" s="1"/>
     </row>
-    <row r="301" spans="1:15" ht="13.5" thickBot="1">
+    <row r="301" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="21"/>
       <c r="C301" s="21"/>
@@ -9822,7 +9860,7 @@
       <c r="N301" s="8"/>
       <c r="O301" s="1"/>
     </row>
-    <row r="302" spans="1:15" ht="13.5" thickBot="1">
+    <row r="302" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="21"/>
       <c r="C302" s="21"/>
@@ -9848,7 +9886,7 @@
       <c r="N302" s="8"/>
       <c r="O302" s="1"/>
     </row>
-    <row r="303" spans="1:15" ht="13.5" thickBot="1">
+    <row r="303" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="21"/>
       <c r="C303" s="21"/>
@@ -9874,7 +9912,7 @@
       <c r="N303" s="8"/>
       <c r="O303" s="1"/>
     </row>
-    <row r="304" spans="1:15" ht="13.5" thickBot="1">
+    <row r="304" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="21"/>
       <c r="C304" s="21"/>
@@ -9900,7 +9938,7 @@
       <c r="N304" s="8"/>
       <c r="O304" s="1"/>
     </row>
-    <row r="305" spans="1:15" ht="13.5" thickBot="1">
+    <row r="305" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="21"/>
       <c r="C305" s="21"/>
@@ -9926,7 +9964,7 @@
       <c r="N305" s="8"/>
       <c r="O305" s="1"/>
     </row>
-    <row r="306" spans="1:15" ht="13.5" thickBot="1">
+    <row r="306" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="21"/>
       <c r="C306" s="21"/>
@@ -9952,7 +9990,7 @@
       <c r="N306" s="8"/>
       <c r="O306" s="1"/>
     </row>
-    <row r="307" spans="1:15" ht="13.5" thickBot="1">
+    <row r="307" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="21"/>
       <c r="C307" s="21"/>
@@ -9978,7 +10016,7 @@
       <c r="N307" s="8"/>
       <c r="O307" s="1"/>
     </row>
-    <row r="308" spans="1:15" ht="13.5" thickBot="1">
+    <row r="308" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="21"/>
       <c r="C308" s="21"/>
@@ -10004,7 +10042,7 @@
       <c r="N308" s="8"/>
       <c r="O308" s="1"/>
     </row>
-    <row r="309" spans="1:15" ht="13.5" thickBot="1">
+    <row r="309" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="21"/>
       <c r="C309" s="21"/>
@@ -10030,7 +10068,7 @@
       <c r="N309" s="8"/>
       <c r="O309" s="1"/>
     </row>
-    <row r="310" spans="1:15" ht="13.5" thickBot="1">
+    <row r="310" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="21"/>
       <c r="C310" s="21"/>
@@ -10056,7 +10094,7 @@
       <c r="N310" s="8"/>
       <c r="O310" s="1"/>
     </row>
-    <row r="311" spans="1:15" ht="13.5" thickBot="1">
+    <row r="311" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="21"/>
       <c r="C311" s="21"/>
@@ -10082,7 +10120,7 @@
       <c r="N311" s="8"/>
       <c r="O311" s="1"/>
     </row>
-    <row r="312" spans="1:15" ht="13.5" thickBot="1">
+    <row r="312" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="21"/>
       <c r="C312" s="21"/>
@@ -10108,7 +10146,7 @@
       <c r="N312" s="8"/>
       <c r="O312" s="1"/>
     </row>
-    <row r="313" spans="1:15" ht="13.5" thickBot="1">
+    <row r="313" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="21"/>
       <c r="C313" s="21"/>
@@ -10134,7 +10172,7 @@
       <c r="N313" s="8"/>
       <c r="O313" s="1"/>
     </row>
-    <row r="314" spans="1:15" ht="13.5" thickBot="1">
+    <row r="314" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="21"/>
       <c r="C314" s="21"/>
@@ -10160,7 +10198,7 @@
       <c r="N314" s="8"/>
       <c r="O314" s="1"/>
     </row>
-    <row r="315" spans="1:15" ht="13.5" thickBot="1">
+    <row r="315" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="21"/>
       <c r="C315" s="21"/>
@@ -10186,7 +10224,7 @@
       <c r="N315" s="8"/>
       <c r="O315" s="1"/>
     </row>
-    <row r="316" spans="1:15" ht="13.5" thickBot="1">
+    <row r="316" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="21"/>
       <c r="C316" s="21"/>
@@ -10212,7 +10250,7 @@
       <c r="N316" s="8"/>
       <c r="O316" s="1"/>
     </row>
-    <row r="317" spans="1:15" ht="13.5" thickBot="1">
+    <row r="317" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="21"/>
       <c r="C317" s="21"/>
@@ -10238,7 +10276,7 @@
       <c r="N317" s="8"/>
       <c r="O317" s="1"/>
     </row>
-    <row r="318" spans="1:15" ht="13.5" thickBot="1">
+    <row r="318" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="21"/>
       <c r="C318" s="21"/>
@@ -10264,7 +10302,7 @@
       <c r="N318" s="8"/>
       <c r="O318" s="1"/>
     </row>
-    <row r="319" spans="1:15" ht="13.5" thickBot="1">
+    <row r="319" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="21"/>
       <c r="C319" s="21"/>
@@ -10290,7 +10328,7 @@
       <c r="N319" s="8"/>
       <c r="O319" s="1"/>
     </row>
-    <row r="320" spans="1:15" ht="13.5" thickBot="1">
+    <row r="320" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="21"/>
       <c r="C320" s="21"/>
@@ -10316,7 +10354,7 @@
       <c r="N320" s="8"/>
       <c r="O320" s="1"/>
     </row>
-    <row r="321" spans="1:15" ht="13.5" thickBot="1">
+    <row r="321" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="21"/>
       <c r="C321" s="21"/>
@@ -10342,7 +10380,7 @@
       <c r="N321" s="8"/>
       <c r="O321" s="1"/>
     </row>
-    <row r="322" spans="1:15" ht="13.5" thickBot="1">
+    <row r="322" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="21"/>
       <c r="C322" s="21"/>
@@ -10368,7 +10406,7 @@
       <c r="N322" s="8"/>
       <c r="O322" s="1"/>
     </row>
-    <row r="323" spans="1:15" ht="13.5" thickBot="1">
+    <row r="323" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="21"/>
       <c r="C323" s="21"/>
@@ -10394,7 +10432,7 @@
       <c r="N323" s="8"/>
       <c r="O323" s="1"/>
     </row>
-    <row r="324" spans="1:15" ht="13.5" thickBot="1">
+    <row r="324" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="21"/>
       <c r="C324" s="21"/>
@@ -10420,7 +10458,7 @@
       <c r="N324" s="8"/>
       <c r="O324" s="1"/>
     </row>
-    <row r="325" spans="1:15" ht="13.5" thickBot="1">
+    <row r="325" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="21"/>
       <c r="C325" s="21"/>
@@ -10446,7 +10484,7 @@
       <c r="N325" s="8"/>
       <c r="O325" s="1"/>
     </row>
-    <row r="326" spans="1:15" ht="13.5" thickBot="1">
+    <row r="326" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="21"/>
       <c r="C326" s="21"/>
@@ -10472,7 +10510,7 @@
       <c r="N326" s="8"/>
       <c r="O326" s="1"/>
     </row>
-    <row r="327" spans="1:15" ht="13.5" thickBot="1">
+    <row r="327" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="21"/>
       <c r="C327" s="21"/>
@@ -10498,7 +10536,7 @@
       <c r="N327" s="8"/>
       <c r="O327" s="1"/>
     </row>
-    <row r="328" spans="1:15" ht="13.5" thickBot="1">
+    <row r="328" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="21"/>
       <c r="C328" s="21"/>
@@ -10524,7 +10562,7 @@
       <c r="N328" s="8"/>
       <c r="O328" s="1"/>
     </row>
-    <row r="329" spans="1:15" ht="13.5" thickBot="1">
+    <row r="329" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="21"/>
       <c r="C329" s="21"/>
@@ -10550,7 +10588,7 @@
       <c r="N329" s="8"/>
       <c r="O329" s="1"/>
     </row>
-    <row r="330" spans="1:15" ht="13.5" thickBot="1">
+    <row r="330" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="21"/>
       <c r="C330" s="21"/>
@@ -10576,7 +10614,7 @@
       <c r="N330" s="8"/>
       <c r="O330" s="1"/>
     </row>
-    <row r="331" spans="1:15" ht="13.5" thickBot="1">
+    <row r="331" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="21"/>
       <c r="C331" s="21"/>
@@ -10602,7 +10640,7 @@
       <c r="N331" s="8"/>
       <c r="O331" s="1"/>
     </row>
-    <row r="332" spans="1:15" ht="13.5" thickBot="1">
+    <row r="332" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="21"/>
       <c r="C332" s="21"/>
@@ -10628,7 +10666,7 @@
       <c r="N332" s="8"/>
       <c r="O332" s="1"/>
     </row>
-    <row r="333" spans="1:15" ht="13.5" thickBot="1">
+    <row r="333" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="21"/>
       <c r="C333" s="21"/>
@@ -10654,7 +10692,7 @@
       <c r="N333" s="8"/>
       <c r="O333" s="1"/>
     </row>
-    <row r="334" spans="1:15" ht="13.5" thickBot="1">
+    <row r="334" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="21"/>
       <c r="C334" s="21"/>
@@ -10680,7 +10718,7 @@
       <c r="N334" s="8"/>
       <c r="O334" s="1"/>
     </row>
-    <row r="335" spans="1:15" ht="13.5" thickBot="1">
+    <row r="335" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="21"/>
       <c r="C335" s="21"/>
@@ -10706,7 +10744,7 @@
       <c r="N335" s="8"/>
       <c r="O335" s="1"/>
     </row>
-    <row r="336" spans="1:15" ht="13.5" thickBot="1">
+    <row r="336" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="21"/>
       <c r="C336" s="21"/>
@@ -10732,7 +10770,7 @@
       <c r="N336" s="8"/>
       <c r="O336" s="1"/>
     </row>
-    <row r="337" spans="1:15" ht="13.5" thickBot="1">
+    <row r="337" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="21"/>
       <c r="C337" s="21"/>
@@ -10758,7 +10796,7 @@
       <c r="N337" s="8"/>
       <c r="O337" s="1"/>
     </row>
-    <row r="338" spans="1:15" ht="13.5" thickBot="1">
+    <row r="338" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="21"/>
       <c r="C338" s="21"/>
@@ -10784,7 +10822,7 @@
       <c r="N338" s="8"/>
       <c r="O338" s="1"/>
     </row>
-    <row r="339" spans="1:15" ht="13.5" thickBot="1">
+    <row r="339" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="21"/>
       <c r="C339" s="21"/>
@@ -10810,7 +10848,7 @@
       <c r="N339" s="8"/>
       <c r="O339" s="1"/>
     </row>
-    <row r="340" spans="1:15" ht="13.5" thickBot="1">
+    <row r="340" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="21"/>
       <c r="C340" s="21"/>
@@ -10836,7 +10874,7 @@
       <c r="N340" s="8"/>
       <c r="O340" s="1"/>
     </row>
-    <row r="341" spans="1:15" ht="13.5" thickBot="1">
+    <row r="341" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="21"/>
       <c r="C341" s="21"/>
@@ -10862,7 +10900,7 @@
       <c r="N341" s="8"/>
       <c r="O341" s="1"/>
     </row>
-    <row r="342" spans="1:15" ht="13.5" thickBot="1">
+    <row r="342" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="21"/>
       <c r="C342" s="21"/>
@@ -10888,7 +10926,7 @@
       <c r="N342" s="8"/>
       <c r="O342" s="1"/>
     </row>
-    <row r="343" spans="1:15" ht="13.5" thickBot="1">
+    <row r="343" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="21"/>
       <c r="C343" s="21"/>
@@ -10914,7 +10952,7 @@
       <c r="N343" s="8"/>
       <c r="O343" s="1"/>
     </row>
-    <row r="344" spans="1:15" ht="13.5" thickBot="1">
+    <row r="344" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="21"/>
       <c r="C344" s="21"/>
@@ -10940,7 +10978,7 @@
       <c r="N344" s="8"/>
       <c r="O344" s="1"/>
     </row>
-    <row r="345" spans="1:15" ht="13.5" thickBot="1">
+    <row r="345" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="21"/>
       <c r="C345" s="21"/>
@@ -10966,7 +11004,7 @@
       <c r="N345" s="8"/>
       <c r="O345" s="1"/>
     </row>
-    <row r="346" spans="1:15" ht="13.5" thickBot="1">
+    <row r="346" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="21"/>
       <c r="C346" s="21"/>
@@ -10992,7 +11030,7 @@
       <c r="N346" s="8"/>
       <c r="O346" s="1"/>
     </row>
-    <row r="347" spans="1:15" ht="13.5" thickBot="1">
+    <row r="347" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="21"/>
       <c r="C347" s="21"/>
@@ -11018,7 +11056,7 @@
       <c r="N347" s="8"/>
       <c r="O347" s="1"/>
     </row>
-    <row r="348" spans="1:15" ht="13.5" thickBot="1">
+    <row r="348" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="21"/>
       <c r="C348" s="21"/>
@@ -11044,7 +11082,7 @@
       <c r="N348" s="8"/>
       <c r="O348" s="1"/>
     </row>
-    <row r="349" spans="1:15" ht="13.5" thickBot="1">
+    <row r="349" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="21"/>
       <c r="C349" s="21"/>
@@ -11070,7 +11108,7 @@
       <c r="N349" s="8"/>
       <c r="O349" s="1"/>
     </row>
-    <row r="350" spans="1:15" ht="13.5" thickBot="1">
+    <row r="350" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="21"/>
       <c r="C350" s="21"/>
@@ -11096,7 +11134,7 @@
       <c r="N350" s="8"/>
       <c r="O350" s="1"/>
     </row>
-    <row r="351" spans="1:15" ht="13.5" thickBot="1">
+    <row r="351" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="21"/>
       <c r="C351" s="21"/>
@@ -11122,7 +11160,7 @@
       <c r="N351" s="8"/>
       <c r="O351" s="1"/>
     </row>
-    <row r="352" spans="1:15" ht="13.5" thickBot="1">
+    <row r="352" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="21"/>
       <c r="C352" s="21"/>
@@ -11148,7 +11186,7 @@
       <c r="N352" s="8"/>
       <c r="O352" s="1"/>
     </row>
-    <row r="353" spans="1:15" ht="13.5" thickBot="1">
+    <row r="353" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="21"/>
       <c r="C353" s="21"/>
@@ -11174,7 +11212,7 @@
       <c r="N353" s="8"/>
       <c r="O353" s="1"/>
     </row>
-    <row r="354" spans="1:15" ht="13.5" thickBot="1">
+    <row r="354" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="21"/>
       <c r="C354" s="21"/>
@@ -11200,7 +11238,7 @@
       <c r="N354" s="8"/>
       <c r="O354" s="1"/>
     </row>
-    <row r="355" spans="1:15" ht="13.5" thickBot="1">
+    <row r="355" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="21"/>
       <c r="C355" s="21"/>
@@ -11226,7 +11264,7 @@
       <c r="N355" s="8"/>
       <c r="O355" s="1"/>
     </row>
-    <row r="356" spans="1:15" ht="13.5" thickBot="1">
+    <row r="356" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="21"/>
       <c r="C356" s="21"/>
@@ -11252,7 +11290,7 @@
       <c r="N356" s="8"/>
       <c r="O356" s="1"/>
     </row>
-    <row r="357" spans="1:15" ht="13.5" thickBot="1">
+    <row r="357" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="21"/>
       <c r="C357" s="21"/>
@@ -11278,7 +11316,7 @@
       <c r="N357" s="8"/>
       <c r="O357" s="1"/>
     </row>
-    <row r="358" spans="1:15" ht="13.5" thickBot="1">
+    <row r="358" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="21"/>
       <c r="C358" s="21"/>
@@ -11304,7 +11342,7 @@
       <c r="N358" s="8"/>
       <c r="O358" s="1"/>
     </row>
-    <row r="359" spans="1:15" ht="13.5" thickBot="1">
+    <row r="359" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="21"/>
       <c r="C359" s="21"/>
@@ -11330,7 +11368,7 @@
       <c r="N359" s="8"/>
       <c r="O359" s="1"/>
     </row>
-    <row r="360" spans="1:15" ht="13.5" thickBot="1">
+    <row r="360" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="21"/>
       <c r="C360" s="21"/>
@@ -11356,7 +11394,7 @@
       <c r="N360" s="8"/>
       <c r="O360" s="1"/>
     </row>
-    <row r="361" spans="1:15" ht="13.5" thickBot="1">
+    <row r="361" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="21"/>
       <c r="C361" s="21"/>
@@ -11382,7 +11420,7 @@
       <c r="N361" s="8"/>
       <c r="O361" s="1"/>
     </row>
-    <row r="362" spans="1:15" ht="13.5" thickBot="1">
+    <row r="362" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="21"/>
       <c r="C362" s="21"/>
@@ -11408,7 +11446,7 @@
       <c r="N362" s="8"/>
       <c r="O362" s="1"/>
     </row>
-    <row r="363" spans="1:15" ht="13.5" thickBot="1">
+    <row r="363" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="21"/>
       <c r="C363" s="21"/>
@@ -11434,7 +11472,7 @@
       <c r="N363" s="8"/>
       <c r="O363" s="1"/>
     </row>
-    <row r="364" spans="1:15" ht="13.5" thickBot="1">
+    <row r="364" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="21"/>
       <c r="C364" s="21"/>
@@ -11460,7 +11498,7 @@
       <c r="N364" s="8"/>
       <c r="O364" s="1"/>
     </row>
-    <row r="365" spans="1:15" ht="13.5" thickBot="1">
+    <row r="365" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="21"/>
       <c r="C365" s="21"/>
@@ -11486,7 +11524,7 @@
       <c r="N365" s="8"/>
       <c r="O365" s="1"/>
     </row>
-    <row r="366" spans="1:15" ht="13.5" thickBot="1">
+    <row r="366" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="21"/>
       <c r="C366" s="21"/>
@@ -11512,7 +11550,7 @@
       <c r="N366" s="8"/>
       <c r="O366" s="1"/>
     </row>
-    <row r="367" spans="1:15" ht="13.5" thickBot="1">
+    <row r="367" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="21"/>
       <c r="C367" s="21"/>
@@ -11538,7 +11576,7 @@
       <c r="N367" s="8"/>
       <c r="O367" s="1"/>
     </row>
-    <row r="368" spans="1:15" ht="13.5" thickBot="1">
+    <row r="368" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="21"/>
       <c r="C368" s="21"/>
@@ -11564,7 +11602,7 @@
       <c r="N368" s="8"/>
       <c r="O368" s="1"/>
     </row>
-    <row r="369" spans="1:15" ht="13.5" thickBot="1">
+    <row r="369" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="21"/>
       <c r="C369" s="21"/>
@@ -11590,7 +11628,7 @@
       <c r="N369" s="8"/>
       <c r="O369" s="1"/>
     </row>
-    <row r="370" spans="1:15" ht="13.5" thickBot="1">
+    <row r="370" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="21"/>
       <c r="C370" s="21"/>
@@ -11616,7 +11654,7 @@
       <c r="N370" s="8"/>
       <c r="O370" s="1"/>
     </row>
-    <row r="371" spans="1:15" ht="13.5" thickBot="1">
+    <row r="371" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="21"/>
       <c r="C371" s="21"/>
@@ -11642,7 +11680,7 @@
       <c r="N371" s="8"/>
       <c r="O371" s="1"/>
     </row>
-    <row r="372" spans="1:15" ht="13.5" thickBot="1">
+    <row r="372" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="21"/>
       <c r="C372" s="21"/>
@@ -11668,7 +11706,7 @@
       <c r="N372" s="8"/>
       <c r="O372" s="1"/>
     </row>
-    <row r="373" spans="1:15" ht="13.5" thickBot="1">
+    <row r="373" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="21"/>
       <c r="C373" s="21"/>
@@ -11694,7 +11732,7 @@
       <c r="N373" s="8"/>
       <c r="O373" s="1"/>
     </row>
-    <row r="374" spans="1:15" ht="13.5" thickBot="1">
+    <row r="374" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="21"/>
       <c r="C374" s="21"/>
@@ -11720,7 +11758,7 @@
       <c r="N374" s="8"/>
       <c r="O374" s="1"/>
     </row>
-    <row r="375" spans="1:15" ht="13.5" thickBot="1">
+    <row r="375" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="21"/>
       <c r="C375" s="21"/>
@@ -11746,7 +11784,7 @@
       <c r="N375" s="8"/>
       <c r="O375" s="1"/>
     </row>
-    <row r="376" spans="1:15" ht="13.5" thickBot="1">
+    <row r="376" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="21"/>
       <c r="C376" s="21"/>
@@ -11772,7 +11810,7 @@
       <c r="N376" s="8"/>
       <c r="O376" s="1"/>
     </row>
-    <row r="377" spans="1:15" ht="13.5" thickBot="1">
+    <row r="377" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="21"/>
       <c r="C377" s="21"/>
@@ -11798,7 +11836,7 @@
       <c r="N377" s="8"/>
       <c r="O377" s="1"/>
     </row>
-    <row r="378" spans="1:15" ht="13.5" thickBot="1">
+    <row r="378" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="21"/>
       <c r="C378" s="21"/>
@@ -11824,7 +11862,7 @@
       <c r="N378" s="8"/>
       <c r="O378" s="1"/>
     </row>
-    <row r="379" spans="1:15" ht="13.5" thickBot="1">
+    <row r="379" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="21"/>
       <c r="C379" s="21"/>
@@ -11850,7 +11888,7 @@
       <c r="N379" s="8"/>
       <c r="O379" s="1"/>
     </row>
-    <row r="380" spans="1:15" ht="13.5" thickBot="1">
+    <row r="380" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="21"/>
       <c r="C380" s="21"/>
@@ -11876,7 +11914,7 @@
       <c r="N380" s="8"/>
       <c r="O380" s="1"/>
     </row>
-    <row r="381" spans="1:15" ht="13.5" thickBot="1">
+    <row r="381" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="21"/>
       <c r="C381" s="21"/>
@@ -11902,7 +11940,7 @@
       <c r="N381" s="8"/>
       <c r="O381" s="1"/>
     </row>
-    <row r="382" spans="1:15" ht="13.5" thickBot="1">
+    <row r="382" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="21"/>
       <c r="C382" s="21"/>
@@ -11928,7 +11966,7 @@
       <c r="N382" s="8"/>
       <c r="O382" s="1"/>
     </row>
-    <row r="383" spans="1:15" ht="13.5" thickBot="1">
+    <row r="383" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="21"/>
       <c r="C383" s="21"/>
@@ -11954,7 +11992,7 @@
       <c r="N383" s="8"/>
       <c r="O383" s="1"/>
     </row>
-    <row r="384" spans="1:15" ht="13.5" thickBot="1">
+    <row r="384" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="21"/>
       <c r="C384" s="21"/>
@@ -11980,7 +12018,7 @@
       <c r="N384" s="8"/>
       <c r="O384" s="1"/>
     </row>
-    <row r="385" spans="1:15" ht="13.5" thickBot="1">
+    <row r="385" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="21"/>
       <c r="C385" s="21"/>
@@ -12006,7 +12044,7 @@
       <c r="N385" s="8"/>
       <c r="O385" s="1"/>
     </row>
-    <row r="386" spans="1:15" ht="13.5" thickBot="1">
+    <row r="386" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="21"/>
       <c r="C386" s="21"/>
@@ -12032,7 +12070,7 @@
       <c r="N386" s="8"/>
       <c r="O386" s="1"/>
     </row>
-    <row r="387" spans="1:15" ht="13.5" thickBot="1">
+    <row r="387" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="21"/>
       <c r="C387" s="21"/>
@@ -12058,7 +12096,7 @@
       <c r="N387" s="8"/>
       <c r="O387" s="1"/>
     </row>
-    <row r="388" spans="1:15" ht="13.5" thickBot="1">
+    <row r="388" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="21"/>
       <c r="C388" s="21"/>
@@ -12084,7 +12122,7 @@
       <c r="N388" s="8"/>
       <c r="O388" s="1"/>
     </row>
-    <row r="389" spans="1:15" ht="13.5" thickBot="1">
+    <row r="389" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="21"/>
       <c r="C389" s="21"/>
@@ -12110,7 +12148,7 @@
       <c r="N389" s="8"/>
       <c r="O389" s="1"/>
     </row>
-    <row r="390" spans="1:15" ht="13.5" thickBot="1">
+    <row r="390" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="21"/>
       <c r="C390" s="21"/>
@@ -12136,7 +12174,7 @@
       <c r="N390" s="8"/>
       <c r="O390" s="1"/>
     </row>
-    <row r="391" spans="1:15" ht="13.5" thickBot="1">
+    <row r="391" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="21"/>
       <c r="C391" s="21"/>
@@ -12162,7 +12200,7 @@
       <c r="N391" s="8"/>
       <c r="O391" s="1"/>
     </row>
-    <row r="392" spans="1:15" ht="13.5" thickBot="1">
+    <row r="392" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="21"/>
       <c r="C392" s="21"/>
@@ -12188,7 +12226,7 @@
       <c r="N392" s="8"/>
       <c r="O392" s="1"/>
     </row>
-    <row r="393" spans="1:15" ht="13.5" thickBot="1">
+    <row r="393" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="21"/>
       <c r="C393" s="21"/>
@@ -12214,7 +12252,7 @@
       <c r="N393" s="8"/>
       <c r="O393" s="1"/>
     </row>
-    <row r="394" spans="1:15" ht="13.5" thickBot="1">
+    <row r="394" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="21"/>
       <c r="C394" s="21"/>
@@ -12240,7 +12278,7 @@
       <c r="N394" s="8"/>
       <c r="O394" s="1"/>
     </row>
-    <row r="395" spans="1:15" ht="13.5" thickBot="1">
+    <row r="395" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="21"/>
       <c r="C395" s="21"/>
@@ -12266,7 +12304,7 @@
       <c r="N395" s="8"/>
       <c r="O395" s="1"/>
     </row>
-    <row r="396" spans="1:15" ht="13.5" thickBot="1">
+    <row r="396" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="21"/>
       <c r="C396" s="21"/>
@@ -12321,18 +12359,18 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="N6" r:id="rId1"/>
-    <hyperlink ref="N7" r:id="rId2"/>
-    <hyperlink ref="N9" r:id="rId3"/>
-    <hyperlink ref="N10" r:id="rId4"/>
-    <hyperlink ref="N11" r:id="rId5"/>
-    <hyperlink ref="N13" r:id="rId6"/>
-    <hyperlink ref="N14" r:id="rId7" location="gid=1874705319"/>
-    <hyperlink ref="N17" r:id="rId8"/>
-    <hyperlink ref="N18" r:id="rId9"/>
-    <hyperlink ref="N25" r:id="rId10"/>
-    <hyperlink ref="N26" r:id="rId11"/>
-    <hyperlink ref="N27" r:id="rId12"/>
+    <hyperlink ref="N6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="N9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="N10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="N11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="N13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="N14" r:id="rId7" location="gid=1874705319" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="N17" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="N18" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="N25" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="N26" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="N27" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12340,19 +12378,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>'⚙️ Settings'!$D$2:$D$3</xm:f>
           </x14:formula1>
           <xm:sqref>M6:M30 M33:M396</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>'⚙️ Settings'!$C$2:$C$10</xm:f>
           </x14:formula1>
           <xm:sqref>K6:K30 K33:K396</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>'⚙️ Settings'!$E$2</xm:f>
           </x14:formula1>
@@ -12365,7 +12403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF4A86E8"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -12376,7 +12414,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="0.85546875" style="21" customWidth="1"/>
     <col min="2" max="4" width="67.42578125" style="21" customWidth="1"/>
@@ -12384,14 +12422,14 @@
     <col min="6" max="16384" width="12.5703125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="6" customHeight="1">
+    <row r="1" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="27" customHeight="1">
+    <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="52" t="s">
         <v>65</v>
@@ -12400,14 +12438,14 @@
       <c r="D2" s="54"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="27" customHeight="1">
+    <row r="3" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="55"/>
       <c r="C3" s="56"/>
       <c r="D3" s="57"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="19.5" customHeight="1">
+    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="58" t="s">
         <v>1</v>
@@ -12420,14 +12458,14 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="19.5" customHeight="1">
+    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="46"/>
       <c r="C5" s="48"/>
       <c r="D5" s="44"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="43.5" customHeight="1">
+    <row r="6" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="25">
         <v>44691</v>
@@ -12440,14 +12478,14 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="43.5" customHeight="1">
+    <row r="7" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="26"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="43.5" customHeight="1">
+    <row r="8" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -12466,7 +12504,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Information non valide">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Information non valide" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>'⚙️ Settings'!$C$13:$C$15</xm:f>
           </x14:formula1>
@@ -12479,7 +12517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF000000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -12490,14 +12528,14 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
     <col min="2" max="2" width="1.42578125" customWidth="1"/>
     <col min="3" max="26" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="16"/>
       <c r="B1" s="16"/>
       <c r="C1" s="17" t="s">
@@ -12531,7 +12569,7 @@
       <c r="Y1" s="16"/>
       <c r="Z1" s="16"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="60" t="s">
         <v>50</v>
       </c>
@@ -12545,7 +12583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="61"/>
       <c r="C3" s="19" t="s">
         <v>34</v>
@@ -12554,49 +12592,49 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="61"/>
       <c r="C4" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="61"/>
       <c r="C5" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="61"/>
       <c r="C6" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="61"/>
       <c r="C7" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="61"/>
       <c r="C8" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="62"/>
       <c r="C9" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="20"/>
       <c r="C10" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="63" t="s">
         <v>72</v>
       </c>
@@ -12604,31 +12642,31 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="61"/>
       <c r="C14" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="61"/>
       <c r="C15" s="18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="61"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="61"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="61"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="61"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="62"/>
     </row>
   </sheetData>

--- a/Documentation/Personnelle/Monteiro Rui - Journaux - ProjetWeb.xlsx
+++ b/Documentation/Personnelle/Monteiro Rui - Journaux - ProjetWeb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Pojetos\CPNV\Anubis-V2\Documentation\Personnelle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B33360-057C-44D5-BDDC-29D66905E2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15158243-60B9-4DE0-9290-DC0C1BCC606C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="147">
   <si>
     <t>JOURNAL DE TRAVAIL</t>
   </si>
@@ -806,6 +806,33 @@
     <t>1. Correction de l'affichage des annonces, une div CSS importante pour l'affichage par ligne n'avais pas été copiée lors du changement donc j'ai du retrouver le template pour tou reverifier et faire tous les tests
 2. Mise en forme de l'image pour l'affichage 
 3. Changement du script SQL car le champ pour l'image avait une limite trop petite</t>
+  </si>
+  <si>
+    <t>Buttons dans les parties privées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Bouton pour les tableaux dans la gestion ge mes articles et du paneau admin
+</t>
+  </si>
+  <si>
+    <t>Admin panel</t>
+  </si>
+  <si>
+    <t>1. Panneau admin pour ne pas avoir a devoir prendre trop de place dans la navbar</t>
+  </si>
+  <si>
+    <t>Effacer une annonce (BUG)</t>
+  </si>
+  <si>
+    <t>1. Une erreur avait était trouvée lors de la suppression d'annonce, toutes les annonces avec le même nom se supprimait car le require dans les fonctions pour trouver l'annonce en question, avait le nom des articles et nom l'ID</t>
+  </si>
+  <si>
+    <t>Mise à jour du projet sur GitHub</t>
+  </si>
+  <si>
+    <t>1. Milestone créé
+2. Mise à jour du README avec les tests faits sur plusieurs navigateurs
+3. Mise à jour des issues que n'avait pas encore de MileStone ou autres informations</t>
   </si>
 </sst>
 </file>
@@ -1584,8 +1611,8 @@
   </sheetPr>
   <dimension ref="A1:O396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1724,11 +1751,11 @@
       </c>
       <c r="C6" s="28">
         <f>SUM(I33:I396)</f>
-        <v>1.826388888888888</v>
+        <v>1.9513888888888884</v>
       </c>
       <c r="D6" s="28">
         <f>B6+C6</f>
-        <v>3.0673611111111105</v>
+        <v>3.192361111111111</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2">
@@ -3646,30 +3673,38 @@
       </c>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
       <c r="D63" s="21"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="2"/>
+      <c r="F63" s="2">
+        <v>44723</v>
+      </c>
       <c r="G63" s="3">
-        <v>0</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="H63" s="3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I63" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="6"/>
+      <c r="K63" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="M63" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N63" s="8"/>
+      <c r="N63" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="O63" s="1"/>
     </row>
     <row r="64" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3678,76 +3713,100 @@
       <c r="C64" s="21"/>
       <c r="D64" s="21"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="2"/>
+      <c r="F64" s="2">
+        <v>44723</v>
+      </c>
       <c r="G64" s="3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H64" s="3">
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="I64" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="6"/>
+      <c r="K64" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="M64" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N64" s="8"/>
+      <c r="N64" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
       <c r="D65" s="21"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="2"/>
+      <c r="F65" s="2">
+        <v>44723</v>
+      </c>
       <c r="G65" s="3">
-        <v>0</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="H65" s="3">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="I65" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="6"/>
+      <c r="K65" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="M65" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N65" s="8"/>
+      <c r="N65" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
       <c r="D66" s="21"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="2"/>
+      <c r="F66" s="2">
+        <v>44723</v>
+      </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="H66" s="3">
-        <v>0</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="I66" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="6"/>
+      <c r="K66" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="M66" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N66" s="8"/>
+      <c r="N66" s="8" t="s">
+        <v>146</v>
+      </c>
       <c r="O66" s="1"/>
     </row>
     <row r="67" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
